--- a/benchmarktests/testdefinitions/Benchmartktest_traject 13-2.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 13-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71531CFD-F1A7-4928-8310-9B2C9F2FB00C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A908CBE-2290-43C0-8BBC-2D097DD9CD07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7665" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="1" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="136">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>Vak 38</t>
+  </si>
+  <si>
+    <t>Trajectlengte</t>
   </si>
 </sst>
 </file>
@@ -2196,7 +2199,7 @@
       </c>
       <c r="E2" t="str">
         <f>IF(D2="GR","-",INDEX('Normen en duidingsklassen'!$D$4:$D$8,H2))</f>
-        <v>A+</v>
+        <v>A</v>
       </c>
       <c r="G2">
         <f t="array" ref="G2">MIN(IF('Normen en duidingsklassen'!$F$4:$F$8&gt;D2,'Normen en duidingsklassen'!$F$4:$F$8))</f>
@@ -2204,7 +2207,7 @@
       </c>
       <c r="H2">
         <f>IFERROR(MATCH(G2,'Normen en duidingsklassen'!$F$4:$F$8),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -2217,7 +2220,7 @@
       </c>
       <c r="E3" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$4:$D$8,H3)</f>
-        <v>A+</v>
+        <v>A</v>
       </c>
       <c r="G3">
         <f t="array" ref="G3">MIN(IF('Normen en duidingsklassen'!$F$4:$F$8&gt;D3,'Normen en duidingsklassen'!$F$4:$F$8))</f>
@@ -2225,7 +2228,7 @@
       </c>
       <c r="H3">
         <f>IFERROR(MATCH(G3,'Normen en duidingsklassen'!$F$4:$F$8),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2483,7 +2486,7 @@
   </sheetPr>
   <dimension ref="B1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D40"/>
     </sheetView>
   </sheetViews>
@@ -4938,7 +4941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBD9B7-2F4E-4E0F-B0DE-0C76068107FF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4994,10 +4997,16 @@
         <v>1.111111111111111E-5</v>
       </c>
       <c r="F4" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="9">
+        <v>5.7050000000000001</v>
+      </c>
       <c r="D5" s="60" t="s">
         <v>42</v>
       </c>
@@ -5041,7 +5050,7 @@
         <v>45</v>
       </c>
       <c r="E8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="27">
         <f>E7</f>

--- a/benchmarktests/testdefinitions/Benchmartktest_traject 13-2.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 13-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A908CBE-2290-43C0-8BBC-2D097DD9CD07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C39465A-4197-41A8-9536-4665EB7B0966}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="1" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
+    <workbookView xWindow="-28800" yWindow="7950" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="1" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="137">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>Trajectlengte</t>
+  </si>
+  <si>
+    <t>Lengte-effect</t>
   </si>
 </sst>
 </file>
@@ -2259,11 +2262,11 @@
         <v>78</v>
       </c>
       <c r="C7" s="29">
-        <f>STPH!C4</f>
+        <f>STPH!C5</f>
         <v>0</v>
       </c>
       <c r="D7" s="25">
-        <f>STPH!C5</f>
+        <f>STPH!C6</f>
         <v>0</v>
       </c>
       <c r="E7" s="44"/>
@@ -2281,11 +2284,11 @@
         <v>79</v>
       </c>
       <c r="C8" s="31">
-        <f>STBI!C4</f>
+        <f>STBI!C5</f>
         <v>0</v>
       </c>
       <c r="D8" s="26">
-        <f>STBI!C5</f>
+        <f>STBI!C6</f>
         <v>0</v>
       </c>
       <c r="E8" s="44"/>
@@ -2303,11 +2306,11 @@
         <v>80</v>
       </c>
       <c r="C9" s="31">
-        <f>GEKB!C4</f>
+        <f>GEKB!C5</f>
         <v>0</v>
       </c>
       <c r="D9" s="26">
-        <f>GEKB!C5</f>
+        <f>GEKB!C6</f>
         <v>0</v>
       </c>
       <c r="E9" s="44"/>
@@ -2325,11 +2328,11 @@
         <v>81</v>
       </c>
       <c r="C10" s="31">
-        <f>DA!C4</f>
+        <f>DA!C5</f>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="D10" s="26">
-        <f>DA!C5</f>
+        <f>DA!C6</f>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="E10" s="44"/>
@@ -2347,11 +2350,11 @@
         <v>82</v>
       </c>
       <c r="C11" s="31">
-        <f>STKWp!C4</f>
+        <f>STKWp!C5</f>
         <v>0</v>
       </c>
       <c r="D11" s="26">
-        <f>STKWp!C5</f>
+        <f>STKWp!C6</f>
         <v>0</v>
       </c>
       <c r="E11" s="44"/>
@@ -2369,11 +2372,11 @@
         <v>83</v>
       </c>
       <c r="C12" s="31">
-        <f>HTKW!C4</f>
+        <f>HTKW!C5</f>
         <v>0</v>
       </c>
       <c r="D12" s="26">
-        <f>HTKW!C5</f>
+        <f>HTKW!C6</f>
         <v>0</v>
       </c>
       <c r="E12" s="44"/>
@@ -2540,31 +2543,31 @@
         <v>+0</v>
       </c>
       <c r="E3" s="4" t="str">
-        <f t="array" ref="E3">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B3,C3),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E3">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B3,C3),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F3" s="4" t="str">
-        <f t="array" ref="F3">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B3,C3),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F3">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B3,C3),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="array" ref="G3">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B3,C3),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H3" s="4">
-        <f t="array" ref="H3">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B3,C3),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H3">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B3,C3),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="array" ref="I3">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B3,C3),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I3">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B3,C3),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="array" ref="J3">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B3,C3),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J3">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B3,C3),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K3" s="7" t="str">
-        <f t="array" ref="K3">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B3,C3),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K3">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B3,C3),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -2580,31 +2583,31 @@
         <v>+0</v>
       </c>
       <c r="E4" s="9" t="str">
-        <f t="array" ref="E4">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B4,C4),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E4">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B4,C4),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F4" s="9" t="str">
-        <f t="array" ref="F4">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B4,C4),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F4">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B4,C4),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G4" s="9" t="str">
-        <f t="array" ref="G4">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B4,C4),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H4" s="9">
-        <f t="array" ref="H4">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B4,C4),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H4">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B4,C4),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I4" s="9" t="str">
-        <f t="array" ref="I4">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B4,C4),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I4">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B4,C4),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J4" s="9" t="str">
-        <f t="array" ref="J4">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B4,C4),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J4">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B4,C4),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K4" s="12" t="str">
-        <f t="array" ref="K4">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B4,C4),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K4">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B4,C4),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -2620,31 +2623,31 @@
         <v>+0</v>
       </c>
       <c r="E5" s="9" t="str">
-        <f t="array" ref="E5">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B5,C5),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E5">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B5,C5),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F5" s="9" t="str">
-        <f t="array" ref="F5">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B5,C5),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F5">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B5,C5),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G5" s="9" t="str">
-        <f t="array" ref="G5">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B5,C5),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H5" s="9">
-        <f t="array" ref="H5">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B5,C5),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H5">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B5,C5),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I5" s="9" t="str">
-        <f t="array" ref="I5">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B5,C5),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I5">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B5,C5),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J5" s="9" t="str">
-        <f t="array" ref="J5">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B5,C5),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J5">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B5,C5),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K5" s="12" t="str">
-        <f t="array" ref="K5">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B5,C5),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K5">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B5,C5),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -2660,31 +2663,31 @@
         <v>+0</v>
       </c>
       <c r="E6" s="9" t="str">
-        <f t="array" ref="E6">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B6,C6),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E6">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B6,C6),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F6" s="9" t="str">
-        <f t="array" ref="F6">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B6,C6),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F6">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B6,C6),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G6" s="9" t="str">
-        <f t="array" ref="G6">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B6,C6),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H6" s="9">
-        <f t="array" ref="H6">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B6,C6),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H6">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B6,C6),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I6" s="9" t="str">
-        <f t="array" ref="I6">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B6,C6),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I6">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B6,C6),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J6" s="9" t="str">
-        <f t="array" ref="J6">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B6,C6),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J6">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B6,C6),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K6" s="12" t="str">
-        <f t="array" ref="K6">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B6,C6),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K6">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B6,C6),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -2700,31 +2703,31 @@
         <v>+0</v>
       </c>
       <c r="E7" s="9" t="str">
-        <f t="array" ref="E7">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B7,C7),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E7">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B7,C7),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F7" s="9" t="str">
-        <f t="array" ref="F7">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B7,C7),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F7">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B7,C7),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G7" s="9" t="str">
-        <f t="array" ref="G7">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B7,C7),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H7" s="9">
-        <f t="array" ref="H7">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B7,C7),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H7">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B7,C7),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I7" s="9" t="str">
-        <f t="array" ref="I7">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B7,C7),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I7">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J7" s="9" t="str">
-        <f t="array" ref="J7">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B7,C7),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J7">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B7,C7),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K7" s="12" t="str">
-        <f t="array" ref="K7">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B7,C7),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K7">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B7,C7),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -2740,31 +2743,31 @@
         <v>+0</v>
       </c>
       <c r="E8" s="9" t="str">
-        <f t="array" ref="E8">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B8,C8),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E8">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B8,C8),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F8" s="9" t="str">
-        <f t="array" ref="F8">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B8,C8),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F8">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B8,C8),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G8" s="9" t="str">
-        <f t="array" ref="G8">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B8,C8),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H8" s="9">
-        <f t="array" ref="H8">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B8,C8),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H8">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B8,C8),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I8" s="9" t="str">
-        <f t="array" ref="I8">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B8,C8),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I8">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B8,C8),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J8" s="9" t="str">
-        <f t="array" ref="J8">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B8,C8),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J8">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B8,C8),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K8" s="12" t="str">
-        <f t="array" ref="K8">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B8,C8),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K8">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B8,C8),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -2780,31 +2783,31 @@
         <v>+0</v>
       </c>
       <c r="E9" s="9" t="str">
-        <f t="array" ref="E9">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B9,C9),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E9">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B9,C9),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F9" s="9" t="str">
-        <f t="array" ref="F9">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B9,C9),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F9">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B9,C9),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G9" s="9" t="str">
-        <f t="array" ref="G9">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B9,C9),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H9" s="9">
-        <f t="array" ref="H9">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B9,C9),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H9">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B9,C9),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I9" s="9" t="str">
-        <f t="array" ref="I9">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B9,C9),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I9">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J9" s="9" t="str">
-        <f t="array" ref="J9">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B9,C9),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J9">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B9,C9),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K9" s="12" t="str">
-        <f t="array" ref="K9">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B9,C9),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K9">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B9,C9),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -2820,31 +2823,31 @@
         <v>+0</v>
       </c>
       <c r="E10" s="9" t="str">
-        <f t="array" ref="E10">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B10,C10),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E10">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B10,C10),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F10" s="9" t="str">
-        <f t="array" ref="F10">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B10,C10),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F10">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B10,C10),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G10" s="9" t="str">
-        <f t="array" ref="G10">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B10,C10),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H10" s="9">
-        <f t="array" ref="H10">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B10,C10),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H10">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B10,C10),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I10" s="9" t="str">
-        <f t="array" ref="I10">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B10,C10),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I10">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B10,C10),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J10" s="9" t="str">
-        <f t="array" ref="J10">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B10,C10),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J10">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B10,C10),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K10" s="12" t="str">
-        <f t="array" ref="K10">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B10,C10),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K10">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B10,C10),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -2860,31 +2863,31 @@
         <v>+0</v>
       </c>
       <c r="E11" s="9" t="str">
-        <f t="array" ref="E11">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B11,C11),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E11">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B11,C11),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F11" s="9" t="str">
-        <f t="array" ref="F11">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B11,C11),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F11">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B11,C11),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G11" s="9" t="str">
-        <f t="array" ref="G11">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B11,C11),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H11" s="9">
-        <f t="array" ref="H11">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B11,C11),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H11">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B11,C11),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I11" s="9" t="str">
-        <f t="array" ref="I11">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B11,C11),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I11">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J11" s="9" t="str">
-        <f t="array" ref="J11">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B11,C11),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J11">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B11,C11),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K11" s="12" t="str">
-        <f t="array" ref="K11">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B11,C11),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K11">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B11,C11),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -2900,31 +2903,31 @@
         <v>+0</v>
       </c>
       <c r="E12" s="9" t="str">
-        <f t="array" ref="E12">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B12,C12),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E12">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B12,C12),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F12" s="9" t="str">
-        <f t="array" ref="F12">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B12,C12),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F12">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B12,C12),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G12" s="9" t="str">
-        <f t="array" ref="G12">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B12,C12),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G12">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B12,C12),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H12" s="9">
-        <f t="array" ref="H12">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B12,C12),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H12">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B12,C12),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I12" s="9" t="str">
-        <f t="array" ref="I12">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B12,C12),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I12">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B12,C12),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J12" s="9" t="str">
-        <f t="array" ref="J12">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B12,C12),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J12">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B12,C12),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K12" s="12" t="str">
-        <f t="array" ref="K12">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B12,C12),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K12">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B12,C12),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -2940,31 +2943,31 @@
         <v>+0</v>
       </c>
       <c r="E13" s="9" t="str">
-        <f t="array" ref="E13">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B13,C13),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E13">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B13,C13),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F13" s="9" t="str">
-        <f t="array" ref="F13">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B13,C13),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F13">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B13,C13),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G13" s="9" t="str">
-        <f t="array" ref="G13">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B13,C13),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G13">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B13,C13),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H13" s="9">
-        <f t="array" ref="H13">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B13,C13),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H13">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B13,C13),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I13" s="9" t="str">
-        <f t="array" ref="I13">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B13,C13),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I13">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B13,C13),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J13" s="9" t="str">
-        <f t="array" ref="J13">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B13,C13),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J13">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B13,C13),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K13" s="12" t="str">
-        <f t="array" ref="K13">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B13,C13),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K13">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B13,C13),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -2980,31 +2983,31 @@
         <v>+0</v>
       </c>
       <c r="E14" s="9" t="str">
-        <f t="array" ref="E14">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B14,C14),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E14">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B14,C14),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F14" s="9" t="str">
-        <f t="array" ref="F14">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B14,C14),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F14">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B14,C14),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G14" s="9" t="str">
-        <f t="array" ref="G14">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B14,C14),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G14">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B14,C14),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H14" s="9">
-        <f t="array" ref="H14">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B14,C14),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H14">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B14,C14),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I14" s="9" t="str">
-        <f t="array" ref="I14">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B14,C14),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I14">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B14,C14),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J14" s="9" t="str">
-        <f t="array" ref="J14">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B14,C14),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J14">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B14,C14),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K14" s="12" t="str">
-        <f t="array" ref="K14">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B14,C14),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K14">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B14,C14),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3020,31 +3023,31 @@
         <v>+0</v>
       </c>
       <c r="E15" s="9" t="str">
-        <f t="array" ref="E15">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B15,C15),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E15">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B15,C15),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F15" s="9" t="str">
-        <f t="array" ref="F15">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B15,C15),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F15">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B15,C15),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G15" s="9" t="str">
-        <f t="array" ref="G15">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B15,C15),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G15">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B15,C15),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H15" s="9">
-        <f t="array" ref="H15">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B15,C15),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H15">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B15,C15),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I15" s="9" t="str">
-        <f t="array" ref="I15">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B15,C15),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I15">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B15,C15),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J15" s="9" t="str">
-        <f t="array" ref="J15">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B15,C15),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J15">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B15,C15),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K15" s="12" t="str">
-        <f t="array" ref="K15">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B15,C15),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K15">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B15,C15),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3060,31 +3063,31 @@
         <v>+0</v>
       </c>
       <c r="E16" s="9" t="str">
-        <f t="array" ref="E16">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B16,C16),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E16">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B16,C16),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F16" s="9" t="str">
-        <f t="array" ref="F16">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B16,C16),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F16">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B16,C16),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G16" s="9" t="str">
-        <f t="array" ref="G16">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B16,C16),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G16">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B16,C16),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H16" s="9">
-        <f t="array" ref="H16">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B16,C16),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H16">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B16,C16),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I16" s="9" t="str">
-        <f t="array" ref="I16">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B16,C16),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I16">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B16,C16),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J16" s="9" t="str">
-        <f t="array" ref="J16">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B16,C16),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J16">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B16,C16),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K16" s="12" t="str">
-        <f t="array" ref="K16">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B16,C16),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K16">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B16,C16),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3100,31 +3103,31 @@
         <v>+0</v>
       </c>
       <c r="E17" s="9" t="str">
-        <f t="array" ref="E17">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B17,C17),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E17">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B17,C17),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F17" s="9" t="str">
-        <f t="array" ref="F17">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B17,C17),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F17">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B17,C17),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G17" s="9" t="str">
-        <f t="array" ref="G17">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B17,C17),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G17">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B17,C17),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H17" s="9">
-        <f t="array" ref="H17">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B17,C17),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H17">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B17,C17),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I17" s="9" t="str">
-        <f t="array" ref="I17">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B17,C17),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I17">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B17,C17),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J17" s="9" t="str">
-        <f t="array" ref="J17">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B17,C17),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J17">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B17,C17),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K17" s="12" t="str">
-        <f t="array" ref="K17">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B17,C17),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K17">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B17,C17),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3140,31 +3143,31 @@
         <v>+0</v>
       </c>
       <c r="E18" s="9" t="str">
-        <f t="array" ref="E18">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B18,C18),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E18">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B18,C18),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F18" s="9" t="str">
-        <f t="array" ref="F18">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B18,C18),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F18">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B18,C18),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G18" s="9" t="str">
-        <f t="array" ref="G18">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B18,C18),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G18">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B18,C18),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H18" s="9">
-        <f t="array" ref="H18">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B18,C18),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H18">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B18,C18),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I18" s="9" t="str">
-        <f t="array" ref="I18">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B18,C18),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I18">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B18,C18),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J18" s="9" t="str">
-        <f t="array" ref="J18">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B18,C18),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J18">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B18,C18),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K18" s="12" t="str">
-        <f t="array" ref="K18">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B18,C18),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K18">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B18,C18),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3180,31 +3183,31 @@
         <v>+0</v>
       </c>
       <c r="E19" s="9" t="str">
-        <f t="array" ref="E19">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B19,C19),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E19">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B19,C19),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F19" s="9" t="str">
-        <f t="array" ref="F19">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B19,C19),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F19">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B19,C19),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G19" s="9" t="str">
-        <f t="array" ref="G19">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B19,C19),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G19">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B19,C19),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H19" s="9">
-        <f t="array" ref="H19">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B19,C19),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H19">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B19,C19),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I19" s="9" t="str">
-        <f t="array" ref="I19">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B19,C19),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I19">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B19,C19),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J19" s="9" t="str">
-        <f t="array" ref="J19">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B19,C19),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J19">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B19,C19),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K19" s="12" t="str">
-        <f t="array" ref="K19">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B19,C19),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K19">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B19,C19),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3220,31 +3223,31 @@
         <v>+0</v>
       </c>
       <c r="E20" s="9" t="str">
-        <f t="array" ref="E20">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B20,C20),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E20">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B20,C20),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F20" s="9" t="str">
-        <f t="array" ref="F20">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B20,C20),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F20">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B20,C20),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G20" s="9" t="str">
-        <f t="array" ref="G20">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B20,C20),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G20">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B20,C20),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H20" s="9">
-        <f t="array" ref="H20">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B20,C20),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H20">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B20,C20),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I20" s="9" t="str">
-        <f t="array" ref="I20">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B20,C20),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I20">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B20,C20),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J20" s="9" t="str">
-        <f t="array" ref="J20">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B20,C20),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J20">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B20,C20),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K20" s="12" t="str">
-        <f t="array" ref="K20">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B20,C20),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K20">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B20,C20),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3260,31 +3263,31 @@
         <v>+0</v>
       </c>
       <c r="E21" s="9" t="str">
-        <f t="array" ref="E21">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B21,C21),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E21">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B21,C21),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F21" s="9" t="str">
-        <f t="array" ref="F21">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B21,C21),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F21">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B21,C21),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G21" s="9" t="str">
-        <f t="array" ref="G21">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B21,C21),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G21">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B21,C21),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H21" s="9">
-        <f t="array" ref="H21">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B21,C21),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H21">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B21,C21),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I21" s="9" t="str">
-        <f t="array" ref="I21">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B21,C21),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I21">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B21,C21),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J21" s="9" t="str">
-        <f t="array" ref="J21">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B21,C21),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J21">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B21,C21),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K21" s="12" t="str">
-        <f t="array" ref="K21">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B21,C21),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K21">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B21,C21),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3300,31 +3303,31 @@
         <v>+0</v>
       </c>
       <c r="E22" s="9" t="str">
-        <f t="array" ref="E22">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B22,C22),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E22">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B22,C22),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F22" s="9" t="str">
-        <f t="array" ref="F22">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B22,C22),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F22">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B22,C22),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G22" s="9" t="str">
-        <f t="array" ref="G22">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B22,C22),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G22">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B22,C22),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H22" s="9">
-        <f t="array" ref="H22">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B22,C22),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H22">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B22,C22),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I22" s="9" t="str">
-        <f t="array" ref="I22">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B22,C22),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I22">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B22,C22),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J22" s="9" t="str">
-        <f t="array" ref="J22">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B22,C22),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J22">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B22,C22),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K22" s="12" t="str">
-        <f t="array" ref="K22">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B22,C22),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K22">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B22,C22),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3340,31 +3343,31 @@
         <v>+0</v>
       </c>
       <c r="E23" s="9" t="str">
-        <f t="array" ref="E23">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B23,C23),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E23">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B23,C23),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F23" s="9" t="str">
-        <f t="array" ref="F23">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B23,C23),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F23">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B23,C23),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G23" s="9" t="str">
-        <f t="array" ref="G23">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B23,C23),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G23">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B23,C23),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H23" s="9">
-        <f t="array" ref="H23">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B23,C23),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H23">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B23,C23),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I23" s="9" t="str">
-        <f t="array" ref="I23">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B23,C23),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I23">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B23,C23),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J23" s="9" t="str">
-        <f t="array" ref="J23">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B23,C23),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J23">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B23,C23),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K23" s="12" t="str">
-        <f t="array" ref="K23">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B23,C23),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K23">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B23,C23),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3380,31 +3383,31 @@
         <v>+0</v>
       </c>
       <c r="E24" s="9" t="str">
-        <f t="array" ref="E24">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B24,C24),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E24">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B24,C24),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F24" s="9" t="str">
-        <f t="array" ref="F24">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B24,C24),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F24">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B24,C24),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G24" s="9" t="str">
-        <f t="array" ref="G24">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B24,C24),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G24">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B24,C24),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H24" s="9">
-        <f t="array" ref="H24">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B24,C24),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H24">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B24,C24),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I24" s="9" t="str">
-        <f t="array" ref="I24">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B24,C24),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I24">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B24,C24),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J24" s="9" t="str">
-        <f t="array" ref="J24">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B24,C24),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J24">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B24,C24),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K24" s="12" t="str">
-        <f t="array" ref="K24">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B24,C24),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K24">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B24,C24),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3420,31 +3423,31 @@
         <v>+0</v>
       </c>
       <c r="E25" s="9" t="str">
-        <f t="array" ref="E25">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B25,C25),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E25">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B25,C25),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F25" s="9" t="str">
-        <f t="array" ref="F25">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B25,C25),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F25">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B25,C25),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G25" s="9" t="str">
-        <f t="array" ref="G25">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B25,C25),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G25">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B25,C25),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H25" s="9">
-        <f t="array" ref="H25">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B25,C25),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H25">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B25,C25),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I25" s="9" t="str">
-        <f t="array" ref="I25">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B25,C25),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I25">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B25,C25),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J25" s="9" t="str">
-        <f t="array" ref="J25">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B25,C25),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J25">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B25,C25),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K25" s="12" t="str">
-        <f t="array" ref="K25">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B25,C25),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K25">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B25,C25),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3460,31 +3463,31 @@
         <v>+0</v>
       </c>
       <c r="E26" s="9" t="str">
-        <f t="array" ref="E26">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B26,C26),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E26">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B26,C26),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F26" s="9" t="str">
-        <f t="array" ref="F26">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B26,C26),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F26">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B26,C26),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G26" s="9" t="str">
-        <f t="array" ref="G26">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B26,C26),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G26">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B26,C26),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H26" s="9">
-        <f t="array" ref="H26">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B26,C26),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H26">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B26,C26),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I26" s="9" t="str">
-        <f t="array" ref="I26">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B26,C26),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I26">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B26,C26),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J26" s="9" t="str">
-        <f t="array" ref="J26">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B26,C26),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J26">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B26,C26),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K26" s="12" t="str">
-        <f t="array" ref="K26">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B26,C26),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K26">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B26,C26),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3500,31 +3503,31 @@
         <v>+0</v>
       </c>
       <c r="E27" s="9" t="str">
-        <f t="array" ref="E27">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B27,C27),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E27">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B27,C27),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F27" s="9" t="str">
-        <f t="array" ref="F27">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B27,C27),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F27">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B27,C27),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G27" s="9" t="str">
-        <f t="array" ref="G27">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B27,C27),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G27">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B27,C27),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H27" s="9">
-        <f t="array" ref="H27">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B27,C27),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H27">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B27,C27),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I27" s="9" t="str">
-        <f t="array" ref="I27">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B27,C27),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I27">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B27,C27),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J27" s="9" t="str">
-        <f t="array" ref="J27">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B27,C27),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J27">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B27,C27),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K27" s="12" t="str">
-        <f t="array" ref="K27">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B27,C27),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K27">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B27,C27),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3540,31 +3543,31 @@
         <v>+0</v>
       </c>
       <c r="E28" s="9" t="str">
-        <f t="array" ref="E28">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B28,C28),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E28">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B28,C28),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F28" s="9" t="str">
-        <f t="array" ref="F28">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B28,C28),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F28">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B28,C28),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G28" s="9" t="str">
-        <f t="array" ref="G28">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B28,C28),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G28">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B28,C28),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H28" s="9">
-        <f t="array" ref="H28">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B28,C28),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H28">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B28,C28),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I28" s="9" t="str">
-        <f t="array" ref="I28">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B28,C28),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I28">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B28,C28),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J28" s="9" t="str">
-        <f t="array" ref="J28">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B28,C28),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J28">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B28,C28),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K28" s="12" t="str">
-        <f t="array" ref="K28">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B28,C28),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K28">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B28,C28),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3580,31 +3583,31 @@
         <v>+0</v>
       </c>
       <c r="E29" s="9" t="str">
-        <f t="array" ref="E29">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B29,C29),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E29">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B29,C29),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F29" s="9" t="str">
-        <f t="array" ref="F29">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B29,C29),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F29">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B29,C29),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G29" s="9" t="str">
-        <f t="array" ref="G29">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B29,C29),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G29">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B29,C29),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H29" s="9">
-        <f t="array" ref="H29">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B29,C29),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H29">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B29,C29),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I29" s="9" t="str">
-        <f t="array" ref="I29">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B29,C29),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I29">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B29,C29),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J29" s="9" t="str">
-        <f t="array" ref="J29">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B29,C29),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J29">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B29,C29),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K29" s="12" t="str">
-        <f t="array" ref="K29">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B29,C29),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K29">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B29,C29),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3620,31 +3623,31 @@
         <v>+0</v>
       </c>
       <c r="E30" s="9" t="str">
-        <f t="array" ref="E30">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B30,C30),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E30">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B30,C30),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F30" s="9" t="str">
-        <f t="array" ref="F30">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B30,C30),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F30">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B30,C30),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G30" s="9" t="str">
-        <f t="array" ref="G30">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B30,C30),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G30">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B30,C30),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H30" s="9">
-        <f t="array" ref="H30">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B30,C30),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H30">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B30,C30),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I30" s="9" t="str">
-        <f t="array" ref="I30">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B30,C30),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I30">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B30,C30),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J30" s="9" t="str">
-        <f t="array" ref="J30">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B30,C30),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J30">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B30,C30),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K30" s="12" t="str">
-        <f t="array" ref="K30">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B30,C30),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K30">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B30,C30),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3660,31 +3663,31 @@
         <v>+0</v>
       </c>
       <c r="E31" s="9" t="str">
-        <f t="array" ref="E31">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B31,C31),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E31">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B31,C31),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F31" s="9" t="str">
-        <f t="array" ref="F31">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B31,C31),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F31">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B31,C31),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G31" s="9" t="str">
-        <f t="array" ref="G31">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B31,C31),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G31">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B31,C31),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H31" s="9">
-        <f t="array" ref="H31">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B31,C31),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H31">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B31,C31),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I31" s="9" t="str">
-        <f t="array" ref="I31">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B31,C31),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I31">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B31,C31),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J31" s="9" t="str">
-        <f t="array" ref="J31">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B31,C31),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J31">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B31,C31),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K31" s="12" t="str">
-        <f t="array" ref="K31">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B31,C31),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K31">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B31,C31),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3700,31 +3703,31 @@
         <v>+0</v>
       </c>
       <c r="E32" s="9" t="str">
-        <f t="array" ref="E32">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B32,C32),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E32">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B32,C32),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F32" s="9" t="str">
-        <f t="array" ref="F32">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B32,C32),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F32">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B32,C32),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G32" s="9" t="str">
-        <f t="array" ref="G32">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B32,C32),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G32">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B32,C32),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H32" s="9">
-        <f t="array" ref="H32">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B32,C32),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H32">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B32,C32),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I32" s="9" t="str">
-        <f t="array" ref="I32">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B32,C32),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I32">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B32,C32),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J32" s="9" t="str">
-        <f t="array" ref="J32">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B32,C32),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J32">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B32,C32),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K32" s="12" t="str">
-        <f t="array" ref="K32">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B32,C32),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K32">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B32,C32),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3740,31 +3743,31 @@
         <v>+0</v>
       </c>
       <c r="E33" s="9" t="str">
-        <f t="array" ref="E33">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B33,C33),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E33">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B33,C33),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F33" s="9" t="str">
-        <f t="array" ref="F33">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B33,C33),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F33">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B33,C33),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G33" s="9" t="str">
-        <f t="array" ref="G33">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B33,C33),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G33">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B33,C33),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H33" s="9">
-        <f t="array" ref="H33">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B33,C33),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H33">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B33,C33),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I33" s="9" t="str">
-        <f t="array" ref="I33">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B33,C33),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I33">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B33,C33),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J33" s="9" t="str">
-        <f t="array" ref="J33">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B33,C33),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J33">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B33,C33),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K33" s="12" t="str">
-        <f t="array" ref="K33">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B33,C33),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K33">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B33,C33),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3780,31 +3783,31 @@
         <v>+0</v>
       </c>
       <c r="E34" s="9" t="str">
-        <f t="array" ref="E34">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B34,C34),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E34">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B34,C34),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F34" s="9" t="str">
-        <f t="array" ref="F34">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B34,C34),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F34">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B34,C34),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G34" s="9" t="str">
-        <f t="array" ref="G34">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B34,C34),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G34">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B34,C34),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H34" s="9">
-        <f t="array" ref="H34">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B34,C34),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H34">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B34,C34),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I34" s="9" t="str">
-        <f t="array" ref="I34">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B34,C34),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I34">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B34,C34),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J34" s="9" t="str">
-        <f t="array" ref="J34">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B34,C34),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J34">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B34,C34),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K34" s="12" t="str">
-        <f t="array" ref="K34">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B34,C34),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K34">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B34,C34),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3820,31 +3823,31 @@
         <v>+0</v>
       </c>
       <c r="E35" s="9" t="str">
-        <f t="array" ref="E35">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B35,C35),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E35">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B35,C35),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F35" s="9" t="str">
-        <f t="array" ref="F35">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B35,C35),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F35">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B35,C35),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G35" s="9" t="str">
-        <f t="array" ref="G35">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B35,C35),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G35">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B35,C35),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H35" s="9">
-        <f t="array" ref="H35">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B35,C35),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H35">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B35,C35),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I35" s="9" t="str">
-        <f t="array" ref="I35">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B35,C35),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I35">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B35,C35),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J35" s="9" t="str">
-        <f t="array" ref="J35">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B35,C35),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J35">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B35,C35),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K35" s="12" t="str">
-        <f t="array" ref="K35">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B35,C35),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K35">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B35,C35),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3860,31 +3863,31 @@
         <v>+0</v>
       </c>
       <c r="E36" s="9" t="str">
-        <f t="array" ref="E36">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B36,C36),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E36">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B36,C36),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F36" s="9" t="str">
-        <f t="array" ref="F36">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B36,C36),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F36">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B36,C36),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G36" s="9" t="str">
-        <f t="array" ref="G36">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B36,C36),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G36">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B36,C36),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H36" s="9">
-        <f t="array" ref="H36">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B36,C36),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H36">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B36,C36),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I36" s="9" t="str">
-        <f t="array" ref="I36">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B36,C36),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I36">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B36,C36),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J36" s="9" t="str">
-        <f t="array" ref="J36">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B36,C36),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J36">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B36,C36),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K36" s="12" t="str">
-        <f t="array" ref="K36">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B36,C36),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K36">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B36,C36),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3900,31 +3903,31 @@
         <v>+0</v>
       </c>
       <c r="E37" s="9" t="str">
-        <f t="array" ref="E37">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B37,C37),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E37">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B37,C37),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F37" s="9" t="str">
-        <f t="array" ref="F37">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B37,C37),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F37">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B37,C37),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G37" s="9" t="str">
-        <f t="array" ref="G37">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B37,C37),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G37">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B37,C37),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H37" s="9">
-        <f t="array" ref="H37">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B37,C37),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H37">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B37,C37),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I37" s="9" t="str">
-        <f t="array" ref="I37">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B37,C37),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I37">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B37,C37),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J37" s="9" t="str">
-        <f t="array" ref="J37">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B37,C37),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J37">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B37,C37),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K37" s="12" t="str">
-        <f t="array" ref="K37">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B37,C37),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K37">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B37,C37),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3940,31 +3943,31 @@
         <v>+0</v>
       </c>
       <c r="E38" s="9" t="str">
-        <f t="array" ref="E38">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B38,C38),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E38">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B38,C38),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F38" s="9" t="str">
-        <f t="array" ref="F38">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B38,C38),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F38">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B38,C38),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G38" s="9" t="str">
-        <f t="array" ref="G38">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B38,C38),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G38">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B38,C38),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H38" s="9">
-        <f t="array" ref="H38">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B38,C38),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H38">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B38,C38),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I38" s="9" t="str">
-        <f t="array" ref="I38">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B38,C38),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I38">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B38,C38),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J38" s="9" t="str">
-        <f t="array" ref="J38">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B38,C38),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J38">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B38,C38),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K38" s="12" t="str">
-        <f t="array" ref="K38">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B38,C38),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K38">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B38,C38),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -3980,31 +3983,31 @@
         <v>+0</v>
       </c>
       <c r="E39" s="9" t="str">
-        <f t="array" ref="E39">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B39,C39),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E39">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B39,C39),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F39" s="9" t="str">
-        <f t="array" ref="F39">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B39,C39),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F39">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B39,C39),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G39" s="9" t="str">
-        <f t="array" ref="G39">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B39,C39),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G39">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B39,C39),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H39" s="9">
-        <f t="array" ref="H39">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B39,C39),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H39">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B39,C39),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I39" s="9" t="str">
-        <f t="array" ref="I39">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B39,C39),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I39">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B39,C39),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J39" s="9" t="str">
-        <f t="array" ref="J39">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B39,C39),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J39">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B39,C39),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K39" s="12" t="str">
-        <f t="array" ref="K39">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B39,C39),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K39">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B39,C39),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -4020,31 +4023,31 @@
         <v>+0</v>
       </c>
       <c r="E40" s="9" t="str">
-        <f t="array" ref="E40">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B40,C40),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E40">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B40,C40),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F40" s="9" t="str">
-        <f t="array" ref="F40">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B40,C40),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F40">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B40,C40),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G40" s="9" t="str">
-        <f t="array" ref="G40">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B40,C40),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G40">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B40,C40),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H40" s="9">
-        <f t="array" ref="H40">INDEX(DA!$K$49:$K$70,IFERROR(MATCH(MIN(IF(DA!$D$49:$D$70&gt;AVERAGE(B40,C40),DA!$D$49:$D$70)),DA!$D$49:$D$70),1))</f>
+        <f t="array" ref="H40">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B40,C40),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
         <v>0</v>
       </c>
       <c r="I40" s="9" t="str">
-        <f t="array" ref="I40">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B40,C40),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I40">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B40,C40),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J40" s="9" t="str">
-        <f t="array" ref="J40">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B40,C40),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J40">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B40,C40),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="K40" s="12" t="str">
-        <f t="array" ref="K40">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B40,C40),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K40">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B40,C40),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -4942,7 +4945,7 @@
   <dimension ref="A2:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5182,10 +5185,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49710E67-B736-4749-B620-06835F5DE469}">
-  <dimension ref="B2:Y31"/>
+  <dimension ref="B2:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5226,205 +5229,165 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="26">
-        <f>IFERROR(MIN(1-PRODUCT(Q10:Q29),MAX(S10:S29)),"GR")</f>
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="26">
+        <f>IFERROR(MIN(1-PRODUCT(Q11:Q30),MAX(S11:S30)),"GR")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="26">
-        <f>MIN(1-PRODUCT(R10:R29),MAX(T10:T29))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+      <c r="C6" s="26">
+        <f>MIN(1-PRODUCT(R11:R30),MAX(T11:T30))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="17" t="str">
-        <f>IF(1-PRODUCT(R10:R29)&gt;MAX(T10:T29),"Ja","Nee")</f>
+      <c r="C7" s="17" t="str">
+        <f>IF(1-PRODUCT(R11:R30)&gt;MAX(T11:T30),"Ja","Nee")</f>
         <v>Nee</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q8" t="s">
+    <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="10" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L10" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="36" t="s">
+      <c r="P10" s="2"/>
+      <c r="Q10" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="R9" s="37" t="s">
+      <c r="R10" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="S9" s="37" t="s">
+      <c r="S10" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="T9" s="37" t="s">
+      <c r="T10" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="U9" s="38" t="s">
+      <c r="U10" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="V9" s="38" t="s">
+      <c r="V10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="W9" s="4"/>
-      <c r="X9" s="39" t="s">
+      <c r="W10" s="4"/>
+      <c r="X10" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="Y9" s="35"/>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="Y10" s="35"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>5.7050000000000001</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="3" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="29">
-        <f t="shared" ref="L10" si="0">IF($E10="Nee",0,IF(ISNUMBER(J10),J10,IF(ISNUMBER(G10),G10,"-")))</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
-        <f t="shared" ref="M10" si="1">IF($E10="Nee",0,IF(ISNUMBER(K10),K10,IF(ISNUMBER(H10),H10,"-")))</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="6">
-        <f t="shared" ref="N10" si="2">IF(ISNUMBER(L10),IF(M10=0,1,M10/L10),"-")</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="30" t="str">
-        <f t="shared" ref="O10" si="3">IF(ISNUMBER($M10),W10,IF($X10,"D","ND"))</f>
-        <v>+III</v>
-      </c>
-      <c r="Q10" s="31">
-        <f t="shared" ref="Q10:Q28" si="4">IF(AND(F10="Geen faalkans",I10="Nee"),1,1-M10)</f>
-        <v>1</v>
-      </c>
-      <c r="R10" s="10">
-        <f>IF(M10="-",1,Q10)</f>
-        <v>1</v>
-      </c>
-      <c r="S10" s="10">
-        <f t="shared" ref="S10:S28" si="5">IF(AND(F10="Geen faalkans",I10="Nee"),0,L10*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="10">
-        <f>IF(L10="-",0,S10)</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="9">
-        <f t="array" ref="U10">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M10,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
-      </c>
-      <c r="V10" s="9">
-        <f>IFERROR(MATCH($U10,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W10" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V10)</f>
-        <v>+III</v>
-      </c>
-      <c r="X10" s="12" t="b">
-        <f>IF($E10="Ja",IF($I10="Ja",NOT(ISNUMBER($J10)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="32"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="29">
+        <f t="shared" ref="L11" si="0">IF($E11="Nee",0,IF(ISNUMBER(J11),J11,IF(ISNUMBER(G11),G11,"-")))</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" ref="M11" si="1">IF($E11="Nee",0,IF(ISNUMBER(K11),K11,IF(ISNUMBER(H11),H11,"-")))</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" ref="N11" si="2">IF(ISNUMBER(L11),IF(M11=0,1,M11/L11),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="30" t="str">
+        <f t="shared" ref="O11" si="3">IF(ISNUMBER($M11),W11,IF($X11,"D","ND"))</f>
+        <v>+III</v>
+      </c>
       <c r="Q11" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="Q11:Q29" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
         <v>1</v>
       </c>
       <c r="R11" s="10">
-        <f t="shared" ref="R11:R29" si="6">IF(M11="-",1,Q11)</f>
+        <f>IF(M11="-",1,Q11)</f>
         <v>1</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="S11:S29" si="5">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="T11" s="10">
-        <f t="shared" ref="T11:T29" si="7">IF(L11="-",0,S11)</f>
+        <f>IF(L11="-",0,S11)</f>
         <v>0</v>
       </c>
       <c r="U11" s="9">
@@ -5440,7 +5403,7 @@
         <v>+III</v>
       </c>
       <c r="X11" s="12" t="b">
-        <f t="shared" ref="X11:X29" si="8">IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
+        <f>IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -5464,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="R12:R30" si="6">IF(M12="-",1,Q12)</f>
         <v>1</v>
       </c>
       <c r="S12" s="10">
@@ -5472,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="T12:T30" si="7">IF(L12="-",0,S12)</f>
         <v>0</v>
       </c>
       <c r="U12" s="9">
@@ -5488,7 +5451,7 @@
         <v>+III</v>
       </c>
       <c r="X12" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="X12:X30" si="8">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -6260,72 +6223,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="34"/>
-      <c r="Q29" s="33">
-        <f>IF(AND(F29="Geen faalkans",I29="Nee"),1,1-M29)</f>
-        <v>1</v>
-      </c>
-      <c r="R29" s="15">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="32"/>
+      <c r="Q29" s="31">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R29" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="S29" s="15">
-        <f>IF(AND(F29="Geen faalkans",I29="Nee"),0,L29*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="T29" s="15">
+      <c r="S29" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U29" s="14">
+      <c r="U29" s="9">
         <f t="array" ref="U29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M29,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>1.111111111111111E-5</v>
       </c>
-      <c r="V29" s="14">
+      <c r="V29" s="9">
         <f>IFERROR(MATCH($U29,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
         <v>1</v>
       </c>
-      <c r="W29" s="14" t="str">
+      <c r="W29" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V29)</f>
         <v>+III</v>
       </c>
-      <c r="X29" s="17" t="b">
+      <c r="X29" s="12" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q30" s="1"/>
+    <row r="30" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="34"/>
+      <c r="Q30" s="33">
+        <f>IF(AND(F30="Geen faalkans",I30="Nee"),1,1-M30)</f>
+        <v>1</v>
+      </c>
+      <c r="R30" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S30" s="15">
+        <f>IF(AND(F30="Geen faalkans",I30="Nee"),0,L30*$C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="14">
+        <f t="array" ref="U30">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M30,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>1.111111111111111E-5</v>
+      </c>
+      <c r="V30" s="14">
+        <f>IFERROR(MATCH($U30,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <v>1</v>
+      </c>
+      <c r="W30" s="14" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V30)</f>
+        <v>+III</v>
+      </c>
+      <c r="X30" s="17" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="Q31" s="1"/>
     </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q32" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G10:H29">
+  <conditionalFormatting sqref="G11:H30">
     <cfRule type="expression" dxfId="103" priority="11">
-      <formula>IF($E10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:K29">
+  <conditionalFormatting sqref="J11:K30">
     <cfRule type="expression" dxfId="102" priority="10">
-      <formula>IF($I10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($I11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10:O29">
+  <conditionalFormatting sqref="O11:O30">
     <cfRule type="cellIs" dxfId="101" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -6337,13 +6348,13 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="12" operator="endsWith" id="{F4C956AC-4E51-489A-B485-D8BDC4A2FBD8}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -6354,7 +6365,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="13" operator="endsWith" id="{EC1E636F-FA52-4882-8914-4A6967CF2391}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -6365,7 +6376,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="14" operator="endsWith" id="{FFF59E8A-EABB-417F-BB55-82036CECB9D8}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -6376,7 +6387,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="15" operator="endsWith" id="{B198F5CD-E767-4F17-B69C-63325B705E57}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -6387,7 +6398,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="16" operator="containsText" id="{3DC54A52-4129-476D-B4F0-C6819CA98DA8}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,O10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,O11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -6398,7 +6409,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="17" operator="containsText" id="{679DAC17-7B4C-4FB7-B8DA-924271D929B5}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,O10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,O11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -6408,7 +6419,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>O10:O29</xm:sqref>
+          <xm:sqref>O11:O30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6418,7 +6429,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E30:E45 F10:F29</xm:sqref>
+          <xm:sqref>E31:E46 F11:F30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6428,10 +6439,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFA30DD-EAF1-4973-B290-E12CB5036732}">
-  <dimension ref="B2:Y31"/>
+  <dimension ref="B2:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6472,205 +6483,165 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="26">
-        <f>IFERROR(MIN(1-PRODUCT(Q10:Q29),MAX(S10:S29)),"GR")</f>
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="26">
+        <f>IFERROR(MIN(1-PRODUCT(Q11:Q30),MAX(S11:S30)),"GR")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="26">
-        <f>MIN(1-PRODUCT(R10:R29),MAX(T10:T29))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+      <c r="C6" s="26">
+        <f>MIN(1-PRODUCT(R11:R30),MAX(T11:T30))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="17" t="str">
-        <f>IF(1-PRODUCT(R10:R29)&gt;MAX(T10:T29),"Ja","Nee")</f>
+      <c r="C7" s="17" t="str">
+        <f>IF(1-PRODUCT(R11:R30)&gt;MAX(T11:T30),"Ja","Nee")</f>
         <v>Nee</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q8" t="s">
+    <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="10" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L10" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="36" t="s">
+      <c r="P10" s="2"/>
+      <c r="Q10" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="R9" s="37" t="s">
+      <c r="R10" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="S9" s="37" t="s">
+      <c r="S10" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="T9" s="37" t="s">
+      <c r="T10" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="U9" s="38" t="s">
+      <c r="U10" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="V9" s="38" t="s">
+      <c r="V10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="W9" s="4"/>
-      <c r="X9" s="39" t="s">
+      <c r="W10" s="4"/>
+      <c r="X10" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="Y9" s="35"/>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="Y10" s="35"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>5.7050000000000001</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="3" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="29">
-        <f t="shared" ref="L10:M10" si="0">IF($E10="Nee",0,IF(ISNUMBER(J10),J10,IF(ISNUMBER(G10),G10,"-")))</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
+      <c r="J11" s="5"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="29">
+        <f t="shared" ref="L11:M11" si="0">IF($E11="Nee",0,IF(ISNUMBER(J11),J11,IF(ISNUMBER(G11),G11,"-")))</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <f t="shared" ref="N10" si="1">IF(ISNUMBER(L10),IF(M10=0,1,M10/L10),"-")</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="30" t="str">
-        <f t="shared" ref="O10" si="2">IF(ISNUMBER($M10),W10,IF($X10,"D","ND"))</f>
-        <v>+III</v>
-      </c>
-      <c r="Q10" s="31">
-        <f t="shared" ref="Q10:Q25" si="3">IF(AND(F10="Geen faalkans",I10="Nee"),1,1-M10)</f>
-        <v>1</v>
-      </c>
-      <c r="R10" s="10">
-        <f>IF(M10="-",1,Q10)</f>
-        <v>1</v>
-      </c>
-      <c r="S10" s="10">
-        <f t="shared" ref="S10:S25" si="4">IF(AND(F10="Geen faalkans",I10="Nee"),0,L10*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="10">
-        <f>IF(L10="-",0,S10)</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="9">
-        <f t="array" ref="U10">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M10,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
-      </c>
-      <c r="V10" s="9">
-        <f>IFERROR(MATCH($U10,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W10" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V10)</f>
-        <v>+III</v>
-      </c>
-      <c r="X10" s="12" t="b">
-        <f>IF($E10="Ja",IF($I10="Ja",NOT(ISNUMBER($J10)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="32"/>
+      <c r="N11" s="6">
+        <f t="shared" ref="N11" si="1">IF(ISNUMBER(L11),IF(M11=0,1,M11/L11),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="30" t="str">
+        <f t="shared" ref="O11" si="2">IF(ISNUMBER($M11),W11,IF($X11,"D","ND"))</f>
+        <v>+III</v>
+      </c>
       <c r="Q11" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="Q11:Q26" si="3">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
         <v>1</v>
       </c>
       <c r="R11" s="10">
-        <f t="shared" ref="R11:R25" si="5">IF(M11="-",1,Q11)</f>
+        <f>IF(M11="-",1,Q11)</f>
         <v>1</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="S11:S26" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="T11" s="10">
-        <f t="shared" ref="T11:T25" si="6">IF(L11="-",0,S11)</f>
+        <f>IF(L11="-",0,S11)</f>
         <v>0</v>
       </c>
       <c r="U11" s="9">
@@ -6686,7 +6657,7 @@
         <v>+III</v>
       </c>
       <c r="X11" s="12" t="b">
-        <f t="shared" ref="X11:X25" si="7">IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
+        <f>IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -6710,7 +6681,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="R12:R26" si="5">IF(M12="-",1,Q12)</f>
         <v>1</v>
       </c>
       <c r="S12" s="10">
@@ -6718,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="T12:T26" si="6">IF(L12="-",0,S12)</f>
         <v>0</v>
       </c>
       <c r="U12" s="9">
@@ -6734,7 +6705,7 @@
         <v>+III</v>
       </c>
       <c r="X12" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="X12:X26" si="7">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7377,14 +7348,38 @@
       <c r="M26" s="10"/>
       <c r="N26" s="11"/>
       <c r="O26" s="32"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="12"/>
+      <c r="Q26" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="9">
+        <f t="array" ref="U26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>1.111111111111111E-5</v>
+      </c>
+      <c r="V26" s="9">
+        <f>IFERROR(MATCH($U26,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <v>1</v>
+      </c>
+      <c r="W26" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V26)</f>
+        <v>+III</v>
+      </c>
+      <c r="X26" s="12" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
@@ -7434,48 +7429,72 @@
       <c r="W28" s="9"/>
       <c r="X28" s="12"/>
     </row>
-    <row r="29" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="34"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="17"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q30" s="1"/>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="32"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="12"/>
+    </row>
+    <row r="30" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="34"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="17"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="Q31" s="1"/>
     </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q32" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G10:H29">
+  <conditionalFormatting sqref="G11:H30">
     <cfRule type="expression" dxfId="92" priority="11">
-      <formula>IF($E10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:K29">
+  <conditionalFormatting sqref="J11:K30">
     <cfRule type="expression" dxfId="91" priority="10">
-      <formula>IF($I10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($I11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10:O29">
+  <conditionalFormatting sqref="O11:O30">
     <cfRule type="cellIs" dxfId="90" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -7493,7 +7512,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="18" operator="endsWith" id="{BE7CEC02-BF34-4418-BA82-1F9327982DD9}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -7504,7 +7523,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="19" operator="endsWith" id="{8B8AF12F-6D43-41F5-A825-07E4CD293723}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -7515,7 +7534,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="20" operator="endsWith" id="{C08839C3-1BBE-44B3-9E34-E7A0C5F8DF48}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -7526,7 +7545,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="21" operator="endsWith" id="{609609D6-F910-4ACA-AD7C-326B654C721E}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -7537,7 +7556,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="22" operator="containsText" id="{B5912E85-BF07-4182-88DE-E52A178CDED9}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,O10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,O11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -7548,7 +7567,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="23" operator="containsText" id="{A99BDEDF-CF44-4426-B3A0-7E5479615479}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,O10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,O11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -7558,7 +7577,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>O10:O29</xm:sqref>
+          <xm:sqref>O11:O30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7568,7 +7587,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E30:E45 F10:F29</xm:sqref>
+          <xm:sqref>E31:E46 F11:F30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7578,10 +7597,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BDF32-8A22-4A66-B6B5-DB37648E7DC4}">
-  <dimension ref="B2:U72"/>
+  <dimension ref="B2:U73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7618,179 +7637,143 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="26">
-        <f>IFERROR(MIN(1-PRODUCT(M10:M70),MAX(O10:O70)),"GR")</f>
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="26">
+        <f>IFERROR(MIN(1-PRODUCT(M11:M71),MAX(O11:O71)),"GR")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="26">
-        <f>MIN(1-PRODUCT(N10:N70),MAX(P10:P70))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+      <c r="C6" s="26">
+        <f>MIN(1-PRODUCT(N11:N71),MAX(P11:P71))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="17" t="str">
-        <f>IF(1-PRODUCT(N10:N70)&gt;MAX(P10:P70),"Ja","Nee")</f>
+      <c r="C7" s="17" t="str">
+        <f>IF(1-PRODUCT(N11:N71)&gt;MAX(P11:P71),"Ja","Nee")</f>
         <v>Nee</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M8" t="s">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="36" t="s">
+      <c r="L10" s="2"/>
+      <c r="M10" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N10" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O10" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P10" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q10" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="39" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="U9" s="35"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="U10" s="35"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>5.7050000000000001</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="3" t="s">
+      <c r="G11" s="25"/>
+      <c r="H11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="5">
-        <f>IF($E10="Nee",0,IF(ISNUMBER(I10),I10,IF(ISNUMBER(G10),G10,"-")))</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="30" t="str">
-        <f t="shared" ref="K10" si="0">IF(ISNUMBER($J10),S10,IF($T10,"D","ND"))</f>
-        <v>+III</v>
-      </c>
-      <c r="M10" s="31">
-        <f t="shared" ref="M10:M68" si="1">IF(AND(F10="Geen faalkans",H10="Nee"),1,1-J10)</f>
-        <v>1</v>
-      </c>
-      <c r="N10" s="10">
-        <f t="shared" ref="N10:N68" si="2">IF(J10="-",1,M10)</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="10">
-        <f t="shared" ref="O10:O68" si="3">IF(AND(F10="Geen faalkans",H10="Nee"),0,J10*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <f>IF(J10="-",0,O10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="array" ref="Q10">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J10,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
-      </c>
-      <c r="R10" s="9">
-        <f>IFERROR(MATCH($Q10,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S10" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R10)</f>
-        <v>+III</v>
-      </c>
-      <c r="T10" s="12" t="b">
-        <f>IF($E10="Ja",IF($H10="Ja",NOT(ISNUMBER($I10)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="32"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="5">
+        <f>IF($E11="Nee",0,IF(ISNUMBER(I11),I11,IF(ISNUMBER(G11),G11,"-")))</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="30" t="str">
+        <f t="shared" ref="K11" si="0">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
+        <v>+III</v>
+      </c>
       <c r="M11" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M11:M69" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N11:N69" si="2">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O11:O69" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
-        <f t="shared" ref="P11:P68" si="4">IF(J11="-",0,O11)</f>
+        <f>IF(J11="-",0,O11)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="9">
@@ -7806,7 +7789,7 @@
         <v>+III</v>
       </c>
       <c r="T11" s="12" t="b">
-        <f t="shared" ref="T11:T68" si="5">IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
+        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7834,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="P12:P69" si="4">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
@@ -7850,7 +7833,7 @@
         <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="T12:T69" si="5">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7954,19 +7937,19 @@
       <c r="J15" s="10"/>
       <c r="K15" s="32"/>
       <c r="M15" s="31">
-        <f t="shared" ref="M15:M61" si="6">IF(AND(F15="Geen faalkans",H15="Nee"),1,1-J15)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" ref="N15:N61" si="7">IF(J15="-",1,M15)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O15" s="10">
-        <f t="shared" ref="O15:O61" si="8">IF(AND(F15="Geen faalkans",H15="Nee"),0,J15*$C$3)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P15" s="10">
-        <f t="shared" ref="P15:P61" si="9">IF(J15="-",0,O15)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q15" s="9">
@@ -7998,19 +7981,19 @@
       <c r="J16" s="10"/>
       <c r="K16" s="32"/>
       <c r="M16" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M16:M62" si="6">IF(AND(F16="Geen faalkans",H16="Nee"),1,1-J16)</f>
         <v>1</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N16:N62" si="7">IF(J16="-",1,M16)</f>
         <v>1</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="O16:O62" si="8">IF(AND(F16="Geen faalkans",H16="Nee"),0,J16*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P16:P62" si="9">IF(J16="-",0,O16)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="9">
@@ -10022,19 +10005,19 @@
       <c r="J62" s="10"/>
       <c r="K62" s="32"/>
       <c r="M62" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N62" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O62" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P62" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q62" s="9">
@@ -10329,53 +10312,97 @@
       <c r="I69" s="26"/>
       <c r="J69" s="10"/>
       <c r="K69" s="32"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="12"/>
-    </row>
-    <row r="70" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="13"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="34"/>
-      <c r="M70" s="33"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="14"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="14"/>
-      <c r="T70" s="17"/>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="M71" s="1"/>
+      <c r="M69" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N69" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O69" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="9">
+        <f t="array" ref="Q69">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J69,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>1.111111111111111E-5</v>
+      </c>
+      <c r="R69" s="9">
+        <f>IFERROR(MATCH($Q69,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S69" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R69)</f>
+        <v>+III</v>
+      </c>
+      <c r="T69" s="12" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="32"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="12"/>
+    </row>
+    <row r="71" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="34"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+      <c r="T71" s="17"/>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M72" s="1"/>
     </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M73" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G10:G70">
+  <conditionalFormatting sqref="G11:G71">
     <cfRule type="expression" dxfId="81" priority="11">
-      <formula>IF($E10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I70">
+  <conditionalFormatting sqref="I11:I71">
     <cfRule type="expression" dxfId="80" priority="10">
-      <formula>IF($H10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K70">
+  <conditionalFormatting sqref="K11:K71">
     <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -10393,7 +10420,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="30" operator="endsWith" id="{66C1998D-15BB-4F32-86A4-1C542E19908B}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -10404,7 +10431,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="31" operator="endsWith" id="{6418FE22-99A5-4340-8D15-7412BDDECB23}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -10415,7 +10442,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="32" operator="endsWith" id="{2E1F4C73-7BF4-44FB-95BB-E1E18C41151A}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -10426,7 +10453,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="33" operator="endsWith" id="{F6D5C182-9535-4ABE-A15A-43A844BD5583}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -10437,7 +10464,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="34" operator="containsText" id="{A8878CEC-0269-4E5C-8639-1D28F9774243}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -10448,7 +10475,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="35" operator="containsText" id="{EBB6C8A2-6184-4577-852F-E10D11AB01B0}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -10458,7 +10485,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K10:K70</xm:sqref>
+          <xm:sqref>K11:K71</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10468,7 +10495,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E71:E86 F10:F70</xm:sqref>
+          <xm:sqref>E72:E87 F11:F71</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10478,10 +10505,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFA3C0E-3A5C-4A61-A32F-6BC05AD0EB33}">
-  <dimension ref="B2:U53"/>
+  <dimension ref="B2:U54"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10519,204 +10546,146 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="26">
-        <f>IFERROR(MIN(1-PRODUCT(M10:M49),MAX(O10:O49)),"GR")</f>
-        <v>4.6800000000000002E-8</v>
+        <v>136</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="26">
+        <f>IFERROR(MIN(1-PRODUCT(M11:M50),MAX(O11:O50)),"GR")</f>
+        <v>4.6800000000000002E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="26">
-        <f>MIN(1-PRODUCT(N10:N49),MAX(P10:P49))</f>
+      <c r="C6" s="26">
+        <f>MIN(1-PRODUCT(N11:N50),MAX(P11:P50))</f>
         <v>4.6800000000000002E-8</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="17" t="str">
-        <f>IF(1-PRODUCT(N49:N49)&gt;MAX(P49:P49),"Ja","Nee")</f>
+      <c r="C7" s="17" t="str">
+        <f>IF(1-PRODUCT(N50:N50)&gt;MAX(P50:P50),"Ja","Nee")</f>
         <v>Nee</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M8" t="s">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="36" t="s">
+      <c r="L10" s="2"/>
+      <c r="M10" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N10" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O10" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P10" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q10" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="39" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="U9" s="35"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="77" t="s">
+      <c r="U10" s="35"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="73">
-        <v>0</v>
-      </c>
-      <c r="D10" s="73">
+      <c r="C11" s="73">
+        <v>0</v>
+      </c>
+      <c r="D11" s="73">
         <v>0.27700000000000002</v>
       </c>
-      <c r="E10" s="74" t="s">
+      <c r="E11" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="77" t="s">
+      <c r="F11" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="81">
+      <c r="G11" s="81">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H10" s="77" t="s">
+      <c r="H11" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="68"/>
-      <c r="J10" s="73">
-        <f>IF($E10="Nee",0,IF(ISNUMBER(I10),I10,IF(ISNUMBER(G10),G10,"-")))</f>
+      <c r="I11" s="68"/>
+      <c r="J11" s="73">
+        <f>IF($E11="Nee",0,IF(ISNUMBER(I11),I11,IF(ISNUMBER(G11),G11,"-")))</f>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K10" s="79" t="str">
-        <f t="shared" ref="K10:K47" si="0">IF(ISNUMBER($J10),S10,IF($T10,"D","ND"))</f>
-        <v>+III</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="31">
-        <f t="shared" ref="M10:M47" si="1">IF(AND(F10="Geen faalkans",H10="Nee"),1,1-J10)</f>
-        <v>0.99999997659999995</v>
-      </c>
-      <c r="N10" s="10">
-        <f t="shared" ref="N10:N47" si="2">IF(J10="-",1,M10)</f>
-        <v>0.99999997659999995</v>
-      </c>
-      <c r="O10" s="10">
-        <f t="shared" ref="O10:O47" si="3">IF(AND(F10="Geen faalkans",H10="Nee"),0,J10*$C$3)</f>
-        <v>4.6800000000000002E-8</v>
-      </c>
-      <c r="P10" s="10">
-        <f t="shared" ref="P10:P47" si="4">IF(J10="-",0,O10)</f>
-        <v>4.6800000000000002E-8</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="array" ref="Q10">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J10,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
-      </c>
-      <c r="R10" s="9">
-        <f>IFERROR(MATCH($Q10,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S10" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R10)</f>
-        <v>+III</v>
-      </c>
-      <c r="T10" s="12" t="b">
-        <f>IF($E10="Ja",IF($H10="Ja",NOT(ISNUMBER(#REF!)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="35"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="75">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="D11" s="75">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="E11" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="80">
-        <v>2.3400000000000001E-8</v>
-      </c>
-      <c r="H11" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="72"/>
-      <c r="J11" s="75">
-        <f t="shared" ref="J11:J47" si="5">IF($E11="Nee",0,IF(ISNUMBER(I11),I11,IF(ISNUMBER(G11),G11,"-")))</f>
-        <v>2.3400000000000001E-8</v>
-      </c>
-      <c r="K11" s="80" t="str">
-        <f t="shared" si="0"/>
+      <c r="K11" s="79" t="str">
+        <f t="shared" ref="K11:K48" si="0">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
         <v>+III</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M11:M48" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>0.99999997659999995</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N11:N48" si="2">IF(J11="-",1,M11)</f>
         <v>0.99999997659999995</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O11:O48" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P11" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="P11:P48" si="4">IF(J11="-",0,O11)</f>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q11" s="9">
@@ -10739,13 +10708,13 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="75">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D12" s="75">
         <v>0.53200000000000003</v>
-      </c>
-      <c r="D12" s="75">
-        <v>0.755</v>
       </c>
       <c r="E12" s="76" t="s">
         <v>28</v>
@@ -10761,7 +10730,7 @@
       </c>
       <c r="I12" s="72"/>
       <c r="J12" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J12:J48" si="5">IF($E12="Nee",0,IF(ISNUMBER(I12),I12,IF(ISNUMBER(G12),G12,"-")))</f>
         <v>2.3400000000000001E-8</v>
       </c>
       <c r="K12" s="80" t="str">
@@ -10805,13 +10774,13 @@
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="75">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D13" s="75">
         <v>0.755</v>
-      </c>
-      <c r="D13" s="75">
-        <v>0.91300000000000003</v>
       </c>
       <c r="E13" s="76" t="s">
         <v>28</v>
@@ -10871,13 +10840,13 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="75">
+        <v>0.755</v>
+      </c>
+      <c r="D14" s="75">
         <v>0.91300000000000003</v>
-      </c>
-      <c r="D14" s="75">
-        <v>1.0509999999999999</v>
       </c>
       <c r="E14" s="76" t="s">
         <v>28</v>
@@ -10937,13 +10906,13 @@
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="75">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="D15" s="75">
         <v>1.0509999999999999</v>
-      </c>
-      <c r="D15" s="75">
-        <v>1.214</v>
       </c>
       <c r="E15" s="76" t="s">
         <v>28</v>
@@ -11003,13 +10972,13 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="75">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="D16" s="75">
         <v>1.214</v>
-      </c>
-      <c r="D16" s="75">
-        <v>1.383</v>
       </c>
       <c r="E16" s="76" t="s">
         <v>28</v>
@@ -11069,13 +11038,13 @@
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="75">
+        <v>1.214</v>
+      </c>
+      <c r="D17" s="75">
         <v>1.383</v>
-      </c>
-      <c r="D17" s="75">
-        <v>1.5289999999999999</v>
       </c>
       <c r="E17" s="76" t="s">
         <v>28</v>
@@ -11135,13 +11104,13 @@
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="75">
+        <v>1.383</v>
+      </c>
+      <c r="D18" s="75">
         <v>1.5289999999999999</v>
-      </c>
-      <c r="D18" s="75">
-        <v>1.661</v>
       </c>
       <c r="E18" s="76" t="s">
         <v>28</v>
@@ -11201,13 +11170,13 @@
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="75">
+        <v>1.5289999999999999</v>
+      </c>
+      <c r="D19" s="75">
         <v>1.661</v>
-      </c>
-      <c r="D19" s="75">
-        <v>1.79</v>
       </c>
       <c r="E19" s="76" t="s">
         <v>28</v>
@@ -11267,13 +11236,13 @@
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="75">
+        <v>1.661</v>
+      </c>
+      <c r="D20" s="75">
         <v>1.79</v>
-      </c>
-      <c r="D20" s="75">
-        <v>1.929</v>
       </c>
       <c r="E20" s="76" t="s">
         <v>28</v>
@@ -11333,13 +11302,13 @@
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="75">
+        <v>1.79</v>
+      </c>
+      <c r="D21" s="75">
         <v>1.929</v>
-      </c>
-      <c r="D21" s="75">
-        <v>2.0910000000000002</v>
       </c>
       <c r="E21" s="76" t="s">
         <v>28</v>
@@ -11399,13 +11368,13 @@
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="75">
+        <v>1.929</v>
+      </c>
+      <c r="D22" s="75">
         <v>2.0910000000000002</v>
-      </c>
-      <c r="D22" s="75">
-        <v>2.254</v>
       </c>
       <c r="E22" s="76" t="s">
         <v>28</v>
@@ -11465,13 +11434,13 @@
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="75">
+        <v>2.0910000000000002</v>
+      </c>
+      <c r="D23" s="75">
         <v>2.254</v>
-      </c>
-      <c r="D23" s="75">
-        <v>2.395</v>
       </c>
       <c r="E23" s="76" t="s">
         <v>28</v>
@@ -11531,13 +11500,13 @@
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="75">
+        <v>2.254</v>
+      </c>
+      <c r="D24" s="75">
         <v>2.395</v>
-      </c>
-      <c r="D24" s="75">
-        <v>2.524</v>
       </c>
       <c r="E24" s="76" t="s">
         <v>28</v>
@@ -11597,13 +11566,13 @@
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="75">
+        <v>2.395</v>
+      </c>
+      <c r="D25" s="75">
         <v>2.524</v>
-      </c>
-      <c r="D25" s="75">
-        <v>2.6560000000000001</v>
       </c>
       <c r="E25" s="76" t="s">
         <v>28</v>
@@ -11663,13 +11632,13 @@
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="75">
+        <v>2.524</v>
+      </c>
+      <c r="D26" s="75">
         <v>2.6560000000000001</v>
-      </c>
-      <c r="D26" s="75">
-        <v>2.7959999999999998</v>
       </c>
       <c r="E26" s="76" t="s">
         <v>28</v>
@@ -11729,13 +11698,13 @@
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="75">
+        <v>2.6560000000000001</v>
+      </c>
+      <c r="D27" s="75">
         <v>2.7959999999999998</v>
-      </c>
-      <c r="D27" s="75">
-        <v>2.9569999999999999</v>
       </c>
       <c r="E27" s="76" t="s">
         <v>28</v>
@@ -11795,13 +11764,13 @@
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="75">
+        <v>2.7959999999999998</v>
+      </c>
+      <c r="D28" s="75">
         <v>2.9569999999999999</v>
-      </c>
-      <c r="D28" s="75">
-        <v>3.129</v>
       </c>
       <c r="E28" s="76" t="s">
         <v>28</v>
@@ -11861,13 +11830,13 @@
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="75">
+        <v>2.9569999999999999</v>
+      </c>
+      <c r="D29" s="75">
         <v>3.129</v>
-      </c>
-      <c r="D29" s="75">
-        <v>3.302</v>
       </c>
       <c r="E29" s="76" t="s">
         <v>28</v>
@@ -11927,13 +11896,13 @@
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="78" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="C30" s="75">
+        <v>3.129</v>
+      </c>
+      <c r="D30" s="75">
         <v>3.302</v>
-      </c>
-      <c r="D30" s="75">
-        <v>3.4630000000000001</v>
       </c>
       <c r="E30" s="76" t="s">
         <v>28</v>
@@ -11993,13 +11962,13 @@
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31" s="75">
+        <v>3.302</v>
+      </c>
+      <c r="D31" s="75">
         <v>3.4630000000000001</v>
-      </c>
-      <c r="D31" s="75">
-        <v>3.5960000000000001</v>
       </c>
       <c r="E31" s="76" t="s">
         <v>28</v>
@@ -12059,13 +12028,13 @@
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="78" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C32" s="75">
+        <v>3.4630000000000001</v>
+      </c>
+      <c r="D32" s="75">
         <v>3.5960000000000001</v>
-      </c>
-      <c r="D32" s="75">
-        <v>3.726</v>
       </c>
       <c r="E32" s="76" t="s">
         <v>28</v>
@@ -12125,13 +12094,13 @@
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C33" s="75">
+        <v>3.5960000000000001</v>
+      </c>
+      <c r="D33" s="75">
         <v>3.726</v>
-      </c>
-      <c r="D33" s="75">
-        <v>3.8559999999999999</v>
       </c>
       <c r="E33" s="76" t="s">
         <v>28</v>
@@ -12191,13 +12160,13 @@
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" s="75">
+        <v>3.726</v>
+      </c>
+      <c r="D34" s="75">
         <v>3.8559999999999999</v>
-      </c>
-      <c r="D34" s="75">
-        <v>3.9809999999999999</v>
       </c>
       <c r="E34" s="76" t="s">
         <v>28</v>
@@ -12257,13 +12226,13 @@
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C35" s="75">
+        <v>3.8559999999999999</v>
+      </c>
+      <c r="D35" s="75">
         <v>3.9809999999999999</v>
-      </c>
-      <c r="D35" s="75">
-        <v>4.1050000000000004</v>
       </c>
       <c r="E35" s="76" t="s">
         <v>28</v>
@@ -12323,13 +12292,13 @@
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" s="75">
+        <v>3.9809999999999999</v>
+      </c>
+      <c r="D36" s="75">
         <v>4.1050000000000004</v>
-      </c>
-      <c r="D36" s="75">
-        <v>4.2359999999999998</v>
       </c>
       <c r="E36" s="76" t="s">
         <v>28</v>
@@ -12389,13 +12358,13 @@
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C37" s="75">
+        <v>4.1050000000000004</v>
+      </c>
+      <c r="D37" s="75">
         <v>4.2359999999999998</v>
-      </c>
-      <c r="D37" s="75">
-        <v>4.38</v>
       </c>
       <c r="E37" s="76" t="s">
         <v>28</v>
@@ -12455,13 +12424,13 @@
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" s="78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" s="75">
+        <v>4.2359999999999998</v>
+      </c>
+      <c r="D38" s="75">
         <v>4.38</v>
-      </c>
-      <c r="D38" s="75">
-        <v>4.5129999999999999</v>
       </c>
       <c r="E38" s="76" t="s">
         <v>28</v>
@@ -12521,13 +12490,13 @@
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" s="78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="75">
+        <v>4.38</v>
+      </c>
+      <c r="D39" s="75">
         <v>4.5129999999999999</v>
-      </c>
-      <c r="D39" s="75">
-        <v>4.6340000000000003</v>
       </c>
       <c r="E39" s="76" t="s">
         <v>28</v>
@@ -12587,13 +12556,13 @@
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" s="78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C40" s="75">
+        <v>4.5129999999999999</v>
+      </c>
+      <c r="D40" s="75">
         <v>4.6340000000000003</v>
-      </c>
-      <c r="D40" s="75">
-        <v>4.7480000000000002</v>
       </c>
       <c r="E40" s="76" t="s">
         <v>28</v>
@@ -12653,13 +12622,13 @@
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" s="78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="75">
+        <v>4.6340000000000003</v>
+      </c>
+      <c r="D41" s="75">
         <v>4.7480000000000002</v>
-      </c>
-      <c r="D41" s="75">
-        <v>4.8609999999999998</v>
       </c>
       <c r="E41" s="76" t="s">
         <v>28</v>
@@ -12719,13 +12688,13 @@
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" s="78" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" s="75">
+        <v>4.7480000000000002</v>
+      </c>
+      <c r="D42" s="75">
         <v>4.8609999999999998</v>
-      </c>
-      <c r="D42" s="75">
-        <v>4.9749999999999996</v>
       </c>
       <c r="E42" s="76" t="s">
         <v>28</v>
@@ -12785,13 +12754,13 @@
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C43" s="75">
+        <v>4.8609999999999998</v>
+      </c>
+      <c r="D43" s="75">
         <v>4.9749999999999996</v>
-      </c>
-      <c r="D43" s="75">
-        <v>5.0910000000000002</v>
       </c>
       <c r="E43" s="76" t="s">
         <v>28</v>
@@ -12851,13 +12820,13 @@
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" s="78" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" s="75">
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="D44" s="75">
         <v>5.0910000000000002</v>
-      </c>
-      <c r="D44" s="75">
-        <v>5.2140000000000004</v>
       </c>
       <c r="E44" s="76" t="s">
         <v>28</v>
@@ -12917,13 +12886,13 @@
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" s="78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C45" s="75">
+        <v>5.0910000000000002</v>
+      </c>
+      <c r="D45" s="75">
         <v>5.2140000000000004</v>
-      </c>
-      <c r="D45" s="75">
-        <v>5.3390000000000004</v>
       </c>
       <c r="E45" s="76" t="s">
         <v>28</v>
@@ -12983,13 +12952,13 @@
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="78" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C46" s="75">
+        <v>5.2140000000000004</v>
+      </c>
+      <c r="D46" s="75">
         <v>5.3390000000000004</v>
-      </c>
-      <c r="D46" s="75">
-        <v>5.4950000000000001</v>
       </c>
       <c r="E46" s="76" t="s">
         <v>28</v>
@@ -13049,13 +13018,13 @@
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" s="78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C47" s="75">
+        <v>5.3390000000000004</v>
+      </c>
+      <c r="D47" s="75">
         <v>5.4950000000000001</v>
-      </c>
-      <c r="D47" s="75">
-        <v>5.7050000000000001</v>
       </c>
       <c r="E47" s="76" t="s">
         <v>28</v>
@@ -13114,92 +13083,138 @@
       <c r="U47" s="35"/>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B48" s="69"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="69"/>
+      <c r="B48" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="75">
+        <v>5.4950000000000001</v>
+      </c>
+      <c r="D48" s="75">
+        <v>5.7050000000000001</v>
+      </c>
+      <c r="E48" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="80">
+        <v>2.3400000000000001E-8</v>
+      </c>
+      <c r="H48" s="78" t="s">
+        <v>29</v>
+      </c>
       <c r="I48" s="72"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="72"/>
+      <c r="J48" s="75">
+        <f t="shared" si="5"/>
+        <v>2.3400000000000001E-8</v>
+      </c>
+      <c r="K48" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>+III</v>
+      </c>
       <c r="L48" s="2"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="65"/>
-      <c r="O48" s="65"/>
-      <c r="P48" s="65"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="66"/>
+      <c r="M48" s="31">
+        <f t="shared" si="1"/>
+        <v>0.99999997659999995</v>
+      </c>
+      <c r="N48" s="10">
+        <f t="shared" si="2"/>
+        <v>0.99999997659999995</v>
+      </c>
+      <c r="O48" s="10">
+        <f t="shared" si="3"/>
+        <v>4.6800000000000002E-8</v>
+      </c>
+      <c r="P48" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6800000000000002E-8</v>
+      </c>
+      <c r="Q48" s="9">
+        <f t="array" ref="Q48">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J48,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>1.111111111111111E-5</v>
+      </c>
+      <c r="R48" s="9">
+        <f>IFERROR(MATCH($Q48,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S48" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R48)</f>
+        <v>+III</v>
+      </c>
+      <c r="T48" s="12" t="b">
+        <f>IF($E48="Ja",IF($H48="Ja",NOT(ISNUMBER(#REF!)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="U48" s="35"/>
     </row>
-    <row r="49" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="34"/>
-      <c r="M49" s="33">
-        <f>IF(AND(F49="Geen faalkans",H49="Nee"),1,1-J49)</f>
-        <v>1</v>
-      </c>
-      <c r="N49" s="15">
-        <f>IF(J49="-",1,M49)</f>
-        <v>1</v>
-      </c>
-      <c r="O49" s="15">
-        <f>IF(AND(F49="Geen faalkans",H49="Nee"),0,J49*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P49" s="15">
-        <f>IF(J49="-",0,O49)</f>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="14">
-        <f t="array" ref="Q49">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J49,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
-      </c>
-      <c r="R49" s="14">
-        <f>IFERROR(MATCH($Q49,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S49" s="14" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R49)</f>
-        <v>+III</v>
-      </c>
-      <c r="T49" s="17" t="b">
-        <f>IF($E49="Ja",IF($H49="Ja",NOT(ISNUMBER(#REF!)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="67"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B49" s="69"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="65"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="66"/>
+      <c r="U49" s="35"/>
+    </row>
+    <row r="50" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="34"/>
+      <c r="M50" s="33">
+        <f>IF(AND(F50="Geen faalkans",H50="Nee"),1,1-J50)</f>
+        <v>1</v>
+      </c>
+      <c r="N50" s="15">
+        <f>IF(J50="-",1,M50)</f>
+        <v>1</v>
+      </c>
+      <c r="O50" s="15">
+        <f>IF(AND(F50="Geen faalkans",H50="Nee"),0,J50*$C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P50" s="15">
+        <f>IF(J50="-",0,O50)</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="14">
+        <f t="array" ref="Q50">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J50,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>1.111111111111111E-5</v>
+      </c>
+      <c r="R50" s="14">
+        <f>IFERROR(MATCH($Q50,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S50" s="14" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R50)</f>
+        <v>+III</v>
+      </c>
+      <c r="T50" s="17" t="b">
+        <f>IF($E50="Ja",IF($H50="Ja",NOT(ISNUMBER(#REF!)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -13219,29 +13234,49 @@
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="67"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M53" s="1"/>
     </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M54" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G10:G51">
+  <conditionalFormatting sqref="G11:G52">
     <cfRule type="expression" dxfId="70" priority="11">
-      <formula>IF($E10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I51">
+  <conditionalFormatting sqref="I11:I52">
     <cfRule type="expression" dxfId="69" priority="10">
-      <formula>IF($H10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10:K51">
+  <conditionalFormatting sqref="G11:K52">
     <cfRule type="cellIs" dxfId="68" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K51">
+  <conditionalFormatting sqref="K11:K52">
     <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -13256,7 +13291,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="36" operator="endsWith" id="{F7B08000-9400-46DD-A131-35187929BFC9}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -13267,7 +13302,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="37" operator="endsWith" id="{6D0591F0-1D10-4810-AA14-0BE30C52E201}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -13278,7 +13313,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="38" operator="endsWith" id="{EF308A70-7C0F-485F-B494-C521E8B44256}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -13289,7 +13324,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="39" operator="endsWith" id="{9B64F30E-AFD8-4003-B940-A265D08BC3ED}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -13300,7 +13335,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="40" operator="containsText" id="{DAD0CB9A-8397-4826-B226-78C7572F4129}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -13311,7 +13346,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="41" operator="containsText" id="{292412C6-8FED-46EB-8018-EC091EC7347F}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -13321,7 +13356,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K10:K51</xm:sqref>
+          <xm:sqref>K11:K52</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -13331,13 +13366,13 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E52:E67</xm:sqref>
+          <xm:sqref>E53:E68</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB048516-AC25-40E8-BE09-761864A40761}">
           <x14:formula1>
             <xm:f>Informatiepagina!$B$20:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>F10:F51</xm:sqref>
+          <xm:sqref>F11:F52</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13347,10 +13382,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4337BDE-5D5C-4814-877A-41AF49DBDF5F}">
-  <dimension ref="B2:U29"/>
+  <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="B10:K10"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13387,179 +13422,143 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="26">
-        <f>IFERROR(MIN(1-PRODUCT(M10:M27),MAX(O10:O27)),"GR")</f>
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="26">
+        <f>IFERROR(MIN(1-PRODUCT(M11:M28),MAX(O11:O28)),"GR")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="26">
-        <f>MIN(1-PRODUCT(N10:N27),MAX(P10:P27))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+      <c r="C6" s="26">
+        <f>MIN(1-PRODUCT(N11:N28),MAX(P11:P28))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="17" t="str">
-        <f>IF(1-PRODUCT(N10:N27)&gt;MAX(P10:P27),"Ja","Nee")</f>
+      <c r="C7" s="17" t="str">
+        <f>IF(1-PRODUCT(N11:N28)&gt;MAX(P11:P28),"Ja","Nee")</f>
         <v>Nee</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M8" t="s">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="36" t="s">
+      <c r="L10" s="2"/>
+      <c r="M10" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N10" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O10" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P10" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q10" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="39" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="U9" s="35"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="U10" s="35"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>5.7050000000000001</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="3" t="s">
+      <c r="G11" s="25"/>
+      <c r="H11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="5">
-        <f>IF($E10="Nee",0,IF(ISNUMBER(I10),I10,IF(ISNUMBER(G10),G10,"-")))</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="30" t="str">
-        <f t="shared" ref="K10" si="0">IF(ISNUMBER($J10),S10,IF($T10,"D","ND"))</f>
-        <v>+III</v>
-      </c>
-      <c r="M10" s="31">
-        <f t="shared" ref="M10:M11" si="1">IF(AND(F10="Geen faalkans",H10="Nee"),1,1-J10)</f>
-        <v>1</v>
-      </c>
-      <c r="N10" s="10">
-        <f t="shared" ref="N10:N11" si="2">IF(J10="-",1,M10)</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="10">
-        <f t="shared" ref="O10:O11" si="3">IF(AND(F10="Geen faalkans",H10="Nee"),0,J10*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <f>IF(J10="-",0,O10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="array" ref="Q10">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J10,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
-      </c>
-      <c r="R10" s="9">
-        <f>IFERROR(MATCH($Q10,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S10" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R10)</f>
-        <v>+III</v>
-      </c>
-      <c r="T10" s="12" t="b">
-        <f>IF($E10="Ja",IF($H10="Ja",NOT(ISNUMBER($I10)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="32"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="5">
+        <f>IF($E11="Nee",0,IF(ISNUMBER(I11),I11,IF(ISNUMBER(G11),G11,"-")))</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="30" t="str">
+        <f t="shared" ref="K11" si="0">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
+        <v>+III</v>
+      </c>
       <c r="M11" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M11:M12" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N11:N12" si="2">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O11:O12" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
-        <f t="shared" ref="P11:P12" si="4">IF(J11="-",0,O11)</f>
+        <f>IF(J11="-",0,O11)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="9">
@@ -13575,7 +13574,7 @@
         <v>+III</v>
       </c>
       <c r="T11" s="12" t="b">
-        <f t="shared" ref="T11:T27" si="5">IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
+        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -13591,19 +13590,19 @@
       <c r="J12" s="10"/>
       <c r="K12" s="32"/>
       <c r="M12" s="31">
-        <f t="shared" ref="M12:M27" si="6">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" ref="N12:N27" si="7">IF(J12="-",1,M12)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" ref="O12:O27" si="8">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="P12:P13" si="4">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
@@ -13619,7 +13618,7 @@
         <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="T12:T28" si="5">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -13635,19 +13634,19 @@
       <c r="J13" s="10"/>
       <c r="K13" s="32"/>
       <c r="M13" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M13:M28" si="6">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
         <v>1</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N13:N28" si="7">IF(J13="-",1,M13)</f>
         <v>1</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="O13:O28" si="8">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" ref="P13:P27" si="9">IF(J13="-",0,O13)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q13" s="9">
@@ -13691,7 +13690,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P14:P28" si="9">IF(J14="-",0,O14)</f>
         <v>0</v>
       </c>
       <c r="Q14" s="9">
@@ -14239,17 +14238,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="34"/>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="32"/>
       <c r="M27" s="31">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -14283,24 +14282,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="M28" s="1"/>
+    <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="34"/>
+      <c r="M28" s="31">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O28" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9">
+        <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>1.111111111111111E-5</v>
+      </c>
+      <c r="R28" s="9">
+        <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S28" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R28)</f>
+        <v>+III</v>
+      </c>
+      <c r="T28" s="12" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M29" s="1"/>
     </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M30" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G10:G27">
+  <conditionalFormatting sqref="G11:G28">
     <cfRule type="expression" dxfId="59" priority="5">
-      <formula>IF($E10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I27">
+  <conditionalFormatting sqref="I11:I28">
     <cfRule type="expression" dxfId="58" priority="4">
-      <formula>IF($H10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K27">
+  <conditionalFormatting sqref="K11:K28">
     <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -14318,7 +14361,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="6" operator="endsWith" id="{ABB37571-79F6-4148-B9CE-2132566F3EBC}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -14329,7 +14372,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="7" operator="endsWith" id="{FD55077C-3742-45D6-8C63-4F3978DD275E}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -14340,7 +14383,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{4FDC3C25-E9F9-443E-A88E-2102EB566A77}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -14351,7 +14394,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="9" operator="endsWith" id="{B6B08F1B-E8C6-4E24-9A04-8CE60FD8BEA8}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -14362,7 +14405,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="10" operator="containsText" id="{373E8781-7B94-4A13-B857-164B12521A98}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -14373,7 +14416,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="11" operator="containsText" id="{102DC694-4285-4E19-ACB8-CBA4D384AD46}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -14383,7 +14426,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K10:K27</xm:sqref>
+          <xm:sqref>K11:K28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -14393,7 +14436,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E28:E43 F10:F27</xm:sqref>
+          <xm:sqref>E29:E44 F11:F28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14403,10 +14446,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4475A-3782-4C92-8ED6-63AC240A6132}">
-  <dimension ref="B2:U29"/>
+  <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14443,179 +14486,143 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="26">
-        <f>IFERROR(MIN(1-PRODUCT(M10:M27),MAX(O10:O27)),"GR")</f>
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="26">
+        <f>IFERROR(MIN(1-PRODUCT(M11:M28),MAX(O11:O28)),"GR")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="26">
-        <f>MIN(1-PRODUCT(N10:N27),MAX(P10:P27))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+      <c r="C6" s="26">
+        <f>MIN(1-PRODUCT(N11:N28),MAX(P11:P28))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="17" t="str">
-        <f>IF(1-PRODUCT(N10:N27)&gt;MAX(P10:P27),"Ja","Nee")</f>
+      <c r="C7" s="17" t="str">
+        <f>IF(1-PRODUCT(N11:N28)&gt;MAX(P11:P28),"Ja","Nee")</f>
         <v>Nee</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M8" t="s">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="36" t="s">
+      <c r="L10" s="2"/>
+      <c r="M10" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N10" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O10" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P10" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q10" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="39" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="U9" s="35"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="U10" s="35"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>5.7050000000000001</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="3" t="s">
+      <c r="G11" s="25"/>
+      <c r="H11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="5">
-        <f>IF($E10="Nee",0,IF(ISNUMBER(I10),I10,IF(ISNUMBER(G10),G10,"-")))</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="30" t="str">
-        <f t="shared" ref="K10" si="0">IF(ISNUMBER($J10),S10,IF($T10,"D","ND"))</f>
-        <v>+III</v>
-      </c>
-      <c r="M10" s="31">
-        <f t="shared" ref="M10:M27" si="1">IF(AND(F10="Geen faalkans",H10="Nee"),1,1-J10)</f>
-        <v>1</v>
-      </c>
-      <c r="N10" s="10">
-        <f t="shared" ref="N10:N27" si="2">IF(J10="-",1,M10)</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="10">
-        <f t="shared" ref="O10:O27" si="3">IF(AND(F10="Geen faalkans",H10="Nee"),0,J10*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <f>IF(J10="-",0,O10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="array" ref="Q10">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J10,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
-      </c>
-      <c r="R10" s="9">
-        <f>IFERROR(MATCH($Q10,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S10" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R10)</f>
-        <v>+III</v>
-      </c>
-      <c r="T10" s="12" t="b">
-        <f>IF($E10="Ja",IF($H10="Ja",NOT(ISNUMBER($I10)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="32"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="5">
+        <f>IF($E11="Nee",0,IF(ISNUMBER(I11),I11,IF(ISNUMBER(G11),G11,"-")))</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="30" t="str">
+        <f t="shared" ref="K11" si="0">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
+        <v>+III</v>
+      </c>
       <c r="M11" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M11:M28" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N11:N28" si="2">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O11:O28" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
-        <f t="shared" ref="P11:P27" si="4">IF(J11="-",0,O11)</f>
+        <f>IF(J11="-",0,O11)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="9">
@@ -14631,7 +14638,7 @@
         <v>+III</v>
       </c>
       <c r="T11" s="12" t="b">
-        <f t="shared" ref="T11:T27" si="5">IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
+        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -14659,7 +14666,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="P12:P28" si="4">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
@@ -14675,7 +14682,7 @@
         <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="T12:T28" si="5">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -15295,17 +15302,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="34"/>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="32"/>
       <c r="M27" s="31">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -15339,24 +15346,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="M28" s="1"/>
+    <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="34"/>
+      <c r="M28" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O28" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9">
+        <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>1.111111111111111E-5</v>
+      </c>
+      <c r="R28" s="9">
+        <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S28" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R28)</f>
+        <v>+III</v>
+      </c>
+      <c r="T28" s="12" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M29" s="1"/>
     </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M30" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G11:G27">
+  <conditionalFormatting sqref="G12:G28">
     <cfRule type="expression" dxfId="48" priority="16">
-      <formula>IF($E11="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E12="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I27">
+  <conditionalFormatting sqref="I12:I28">
     <cfRule type="expression" dxfId="47" priority="15">
-      <formula>IF($H11="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H12="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K27">
+  <conditionalFormatting sqref="K12:K28">
     <cfRule type="cellIs" dxfId="46" priority="12" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -15367,17 +15418,17 @@
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="G11">
     <cfRule type="expression" dxfId="43" priority="5">
-      <formula>IF($E10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
+  <conditionalFormatting sqref="I11">
     <cfRule type="expression" dxfId="42" priority="4">
-      <formula>IF($H10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
+  <conditionalFormatting sqref="K11">
     <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -15395,6 +15446,75 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="17" operator="endsWith" id="{1EBB7798-64BC-4E62-B5ED-EDC8D12F766E}">
+            <xm:f>RIGHT(K12,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="18" operator="endsWith" id="{D525A4D3-4210-4434-88AA-077EC405481F}">
+            <xm:f>RIGHT(K12,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="19" operator="endsWith" id="{70AE3533-A03A-4765-98EF-A2F7520BB2C5}">
+            <xm:f>RIGHT(K12,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="20" operator="endsWith" id="{3BE27E41-6EB9-4688-923B-987C0F78C96E}">
+            <xm:f>RIGHT(K12,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{9D267873-A89D-4F45-952A-AA5EA8DE68C2}">
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K12)))</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00CC99"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{21BE4470-53F7-4774-9EF3-925E463CB556}">
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K12)))</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K12:K28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="6" operator="endsWith" id="{3EEFC532-156D-4566-B032-B72A8257A0E2}">
             <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
@@ -15405,7 +15525,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="18" operator="endsWith" id="{D525A4D3-4210-4434-88AA-077EC405481F}">
+          <x14:cfRule type="endsWith" priority="7" operator="endsWith" id="{6D7E8BF2-A850-4D7D-900A-2F677C9596F1}">
             <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
@@ -15416,7 +15536,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="19" operator="endsWith" id="{70AE3533-A03A-4765-98EF-A2F7520BB2C5}">
+          <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{AB644FD2-1821-4D4C-B04C-00346017634D}">
             <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
@@ -15427,7 +15547,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="20" operator="endsWith" id="{3BE27E41-6EB9-4688-923B-987C0F78C96E}">
+          <x14:cfRule type="endsWith" priority="9" operator="endsWith" id="{BDA2F08F-E942-4291-8F8C-BF7F422D7A31}">
             <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
@@ -15438,7 +15558,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{9D267873-A89D-4F45-952A-AA5EA8DE68C2}">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{0D6AD115-243B-4B46-AB1C-7C3B4032F9C7}">
             <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
@@ -15449,7 +15569,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{21BE4470-53F7-4774-9EF3-925E463CB556}">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{7A4BEAA1-8461-4A23-B0AD-C2596CF2E10E}">
             <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
@@ -15460,76 +15580,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K11:K27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="endsWith" priority="6" operator="endsWith" id="{3EEFC532-156D-4566-B032-B72A8257A0E2}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF7030A0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="7" operator="endsWith" id="{6D7E8BF2-A850-4D7D-900A-2F677C9596F1}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{AB644FD2-1821-4D4C-B04C-00346017634D}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="9" operator="endsWith" id="{BDA2F08F-E942-4291-8F8C-BF7F422D7A31}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFFF00"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{0D6AD115-243B-4B46-AB1C-7C3B4032F9C7}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K10)))</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00CC99"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{7A4BEAA1-8461-4A23-B0AD-C2596CF2E10E}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K10)))</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.59996337778862885"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K10</xm:sqref>
+          <xm:sqref>K11</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -15539,7 +15590,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E28:E43 F10:F27</xm:sqref>
+          <xm:sqref>E29:E44 F11:F28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15549,10 +15600,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A27DBF-2298-4509-84AE-DCEFED147711}">
-  <dimension ref="B2:U28"/>
+  <dimension ref="B2:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15589,179 +15640,143 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="26">
-        <f>IFERROR(MIN(1-PRODUCT(M10:M26),MAX(O10:O26)),"GR")</f>
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="26">
+        <f>IFERROR(MIN(1-PRODUCT(M11:M27),MAX(O11:O27)),"GR")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="26">
-        <f>MIN(1-PRODUCT(N10:N26),MAX(P10:P26))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+      <c r="C6" s="26">
+        <f>MIN(1-PRODUCT(N11:N27),MAX(P11:P27))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="17" t="str">
-        <f>IF(1-PRODUCT(N10:N26)&gt;MAX(P10:P26),"Ja","Nee")</f>
+      <c r="C7" s="17" t="str">
+        <f>IF(1-PRODUCT(N11:N27)&gt;MAX(P11:P27),"Ja","Nee")</f>
         <v>Nee</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M8" t="s">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="36" t="s">
+      <c r="L10" s="2"/>
+      <c r="M10" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N10" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O10" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P10" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q10" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="39" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="U9" s="35"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="U10" s="35"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>5.7050000000000001</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="3" t="s">
+      <c r="G11" s="25"/>
+      <c r="H11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="5">
-        <f>IF($E10="Nee",0,IF(ISNUMBER(I10),I10,IF(ISNUMBER(G10),G10,"-")))</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="30" t="str">
-        <f t="shared" ref="K10" si="0">IF(ISNUMBER($J10),S10,IF($T10,"D","ND"))</f>
-        <v>+III</v>
-      </c>
-      <c r="M10" s="31">
-        <f t="shared" ref="M10:M11" si="1">IF(AND(F10="Geen faalkans",H10="Nee"),1,1-J10)</f>
-        <v>1</v>
-      </c>
-      <c r="N10" s="10">
-        <f t="shared" ref="N10:N11" si="2">IF(J10="-",1,M10)</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="10">
-        <f>IF(AND(F10="Geen faalkans",H10="Nee"),0,J10*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <f>IF(J10="-",0,O10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="array" ref="Q10">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J10,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
-      </c>
-      <c r="R10" s="9">
-        <f>IFERROR(MATCH($Q10,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S10" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R10)</f>
-        <v>+III</v>
-      </c>
-      <c r="T10" s="12" t="b">
-        <f>IF($E10="Ja",IF($H10="Ja",NOT(ISNUMBER($I10)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="32"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="5">
+        <f>IF($E11="Nee",0,IF(ISNUMBER(I11),I11,IF(ISNUMBER(G11),G11,"-")))</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="30" t="str">
+        <f t="shared" ref="K11" si="0">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
+        <v>+III</v>
+      </c>
       <c r="M11" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M11:M12" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N11:N12" si="2">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11:O12" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f>IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
-        <f t="shared" ref="P11:P12" si="4">IF(J11="-",0,O11)</f>
+        <f>IF(J11="-",0,O11)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="9">
@@ -15777,7 +15792,7 @@
         <v>+III</v>
       </c>
       <c r="T11" s="12" t="b">
-        <f t="shared" ref="T11:T22" si="5">IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
+        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -15793,19 +15808,19 @@
       <c r="J12" s="10"/>
       <c r="K12" s="32"/>
       <c r="M12" s="31">
-        <f t="shared" ref="M12:M22" si="6">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" ref="N12:N22" si="7">IF(J12="-",1,M12)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O12:O13" si="3">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="P12:P13" si="4">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
@@ -15821,7 +15836,7 @@
         <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="T12:T23" si="5">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -15837,19 +15852,19 @@
       <c r="J13" s="10"/>
       <c r="K13" s="32"/>
       <c r="M13" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M13:M23" si="6">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
         <v>1</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N13:N23" si="7">IF(J13="-",1,M13)</f>
         <v>1</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" ref="O13:O22" si="8">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" ref="P13:P22" si="9">IF(J13="-",0,O13)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q13" s="9">
@@ -15889,11 +15904,11 @@
         <v>1</v>
       </c>
       <c r="O14" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="O14:O23" si="8">IF(AND(F14="Geen faalkans",H14="Nee"),0,J14*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P14:P23" si="9">IF(J14="-",0,O14)</f>
         <v>0</v>
       </c>
       <c r="Q14" s="9">
@@ -15919,7 +15934,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="23"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="82"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="8"/>
       <c r="I15" s="26"/>
       <c r="J15" s="10"/>
@@ -15963,7 +15978,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="23"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="26"/>
+      <c r="G16" s="82"/>
       <c r="H16" s="8"/>
       <c r="I16" s="26"/>
       <c r="J16" s="10"/>
@@ -16276,16 +16291,40 @@
       <c r="I23" s="26"/>
       <c r="J23" s="10"/>
       <c r="K23" s="32"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="12"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M23" s="31">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>1.111111111111111E-5</v>
+      </c>
+      <c r="R23" s="9">
+        <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S23" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R23)</f>
+        <v>+III</v>
+      </c>
+      <c r="T23" s="12" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -16325,44 +16364,64 @@
       <c r="S25" s="9"/>
       <c r="T25" s="12"/>
     </row>
-    <row r="26" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="34"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="17"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="M27" s="1"/>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="32"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="12"/>
+    </row>
+    <row r="27" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="34"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="17"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M28" s="1"/>
     </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M29" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G11:G14 G16:G26">
+  <conditionalFormatting sqref="G12:G15 G17:G27">
     <cfRule type="expression" dxfId="26" priority="16">
-      <formula>IF($E11="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E12="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I26">
+  <conditionalFormatting sqref="I12:I27">
     <cfRule type="expression" dxfId="25" priority="15">
-      <formula>IF($H11="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H12="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K26">
+  <conditionalFormatting sqref="K12:K27">
     <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -16373,7 +16432,7 @@
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
+  <conditionalFormatting sqref="K11">
     <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -16384,14 +16443,14 @@
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="G11">
     <cfRule type="expression" dxfId="18" priority="5">
-      <formula>IF($E10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
+  <conditionalFormatting sqref="I11">
     <cfRule type="expression" dxfId="17" priority="4">
-      <formula>IF($H10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16401,6 +16460,75 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="17" operator="endsWith" id="{9FC208BF-EAC7-4689-9C69-B4C0AF97788A}">
+            <xm:f>RIGHT(K12,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="18" operator="endsWith" id="{C5FD292B-C2DC-4845-B28E-24E6E20098B8}">
+            <xm:f>RIGHT(K12,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="19" operator="endsWith" id="{108B8320-33E6-4019-B0C6-D42133630008}">
+            <xm:f>RIGHT(K12,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="20" operator="endsWith" id="{6D9F7B0D-8F82-4139-BF58-3DF997FB327D}">
+            <xm:f>RIGHT(K12,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{695ED08F-7F5E-4AA0-B9EC-1C679CD14FF4}">
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K12)))</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00CC99"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{7A0DEDA9-62F6-4584-A60C-AC430DA6FB4A}">
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K12)))</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K12:K27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="6" operator="endsWith" id="{C322DAE5-F729-4340-A0EA-D8390FF4AD08}">
             <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
@@ -16411,7 +16539,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="18" operator="endsWith" id="{C5FD292B-C2DC-4845-B28E-24E6E20098B8}">
+          <x14:cfRule type="endsWith" priority="7" operator="endsWith" id="{F3CC01A3-4C89-461C-A641-DF5BAA3BB6D5}">
             <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
@@ -16422,7 +16550,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="19" operator="endsWith" id="{108B8320-33E6-4019-B0C6-D42133630008}">
+          <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{B6863F44-D28C-4542-A0D6-D72826D52F60}">
             <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
@@ -16433,7 +16561,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="20" operator="endsWith" id="{6D9F7B0D-8F82-4139-BF58-3DF997FB327D}">
+          <x14:cfRule type="endsWith" priority="9" operator="endsWith" id="{2F738001-0792-492C-8848-C9BDAAEF5448}">
             <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
@@ -16444,7 +16572,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{695ED08F-7F5E-4AA0-B9EC-1C679CD14FF4}">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{5FAA576A-9D02-4921-841F-B62C95F12920}">
             <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
@@ -16455,7 +16583,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{7A0DEDA9-62F6-4584-A60C-AC430DA6FB4A}">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{2ED689C0-CAAF-4013-A19B-4FF78A1233DC}">
             <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
@@ -16466,76 +16594,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K11:K26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="endsWith" priority="6" operator="endsWith" id="{C322DAE5-F729-4340-A0EA-D8390FF4AD08}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF7030A0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="7" operator="endsWith" id="{F3CC01A3-4C89-461C-A641-DF5BAA3BB6D5}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{B6863F44-D28C-4542-A0D6-D72826D52F60}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="9" operator="endsWith" id="{2F738001-0792-492C-8848-C9BDAAEF5448}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFFF00"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{5FAA576A-9D02-4921-841F-B62C95F12920}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K10)))</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00CC99"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{2ED689C0-CAAF-4013-A19B-4FF78A1233DC}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K10)))</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.59996337778862885"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K10</xm:sqref>
+          <xm:sqref>K11</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -16545,7 +16604,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E27:E42 F10:F26</xm:sqref>
+          <xm:sqref>E28:E43 F11:F27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/benchmarktests/testdefinitions/Benchmartktest_traject 13-2.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 13-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C39465A-4197-41A8-9536-4665EB7B0966}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BD9E56-E684-4F8C-836A-7A7F63919F33}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="7950" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="1" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="1" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="136">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -239,9 +239,6 @@
   </si>
   <si>
     <t>+0</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>-I</t>
@@ -482,7 +479,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,12 +525,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8EDA97"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -794,10 +785,9 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1948,19 +1938,19 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="48" t="s">
+      <c r="E2" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="49" t="s">
         <v>93</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -1968,7 +1958,7 @@
         <v>58</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>28</v>
@@ -1982,10 +1972,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>28</v>
@@ -1999,10 +1989,10 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>29</v>
@@ -2011,21 +2001,21 @@
         <v>28</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>29</v>
@@ -2033,16 +2023,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>29</v>
@@ -2050,10 +2040,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>29</v>
@@ -2067,16 +2057,16 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>29</v>
@@ -2084,16 +2074,16 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>29</v>
@@ -2101,10 +2091,10 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>29</v>
@@ -2118,10 +2108,10 @@
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>29</v>
@@ -2130,7 +2120,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2194,7 +2184,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1">
         <f>IFERROR(1-PRODUCT(G7:G12),"GR")</f>
@@ -2215,7 +2205,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1">
         <f>1-PRODUCT(H7:H12)</f>
@@ -2236,7 +2226,7 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2248,18 +2238,18 @@
         <v>49</v>
       </c>
       <c r="E6" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="H6" s="35" t="s">
         <v>87</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="29">
         <f>STPH!C5</f>
@@ -2281,7 +2271,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="31">
         <f>STBI!C5</f>
@@ -2303,7 +2293,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="31">
         <f>GEKB!C5</f>
@@ -2325,7 +2315,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="31">
         <f>DA!C5</f>
@@ -2347,7 +2337,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="31">
         <f>STKWp!C5</f>
@@ -2369,7 +2359,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="31">
         <f>HTKW!C5</f>
@@ -2506,29 +2496,29 @@
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="64" t="s">
-        <v>115</v>
+      <c r="D2" s="63" t="s">
+        <v>114</v>
       </c>
       <c r="E2" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="G2" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="H2" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="I2" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="J2" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="49" t="s">
         <v>82</v>
-      </c>
-      <c r="J2" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" s="49" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -4945,7 +4935,7 @@
   <dimension ref="A2:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4960,7 +4950,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>48</v>
@@ -4992,7 +4982,7 @@
         <f>1/3000</f>
         <v>3.3333333333333332E-4</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="58" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="5">
@@ -5005,12 +4995,12 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="9">
         <v>5.7050000000000001</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="59" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="10">
@@ -5023,7 +5013,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="60" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="10">
@@ -5036,7 +5026,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="61" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="10">
@@ -5049,7 +5039,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="62" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="15">
@@ -5062,12 +5052,12 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E12" s="49" t="s">
         <v>47</v>
@@ -5078,8 +5068,8 @@
         <v>62</v>
       </c>
       <c r="E13" s="26">
-        <f>1/30*B3</f>
-        <v>1.111111111111111E-5</v>
+        <f>1/1000*B3</f>
+        <v>3.3333333333333335E-7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5087,8 +5077,8 @@
         <v>63</v>
       </c>
       <c r="E14" s="26">
-        <f>1/10*B3</f>
-        <v>3.3333333333333335E-5</v>
+        <f>1/100*B3</f>
+        <v>3.3333333333333333E-6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5096,8 +5086,8 @@
         <v>64</v>
       </c>
       <c r="E15" s="26">
-        <f>1/3*B3</f>
-        <v>1.111111111111111E-4</v>
+        <f>1/10*B3</f>
+        <v>3.3333333333333335E-5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5123,38 +5113,32 @@
         <v>67</v>
       </c>
       <c r="E18" s="26">
-        <f>3*B4</f>
-        <v>1E-3</v>
+        <f>10*B4</f>
+        <v>3.3333333333333331E-3</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D19" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="26">
-        <f>10*B4</f>
-        <v>3.3333333333333331E-3</v>
+      <c r="E19" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="17"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D23" s="28"/>
@@ -5229,7 +5213,7 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>28</v>
@@ -5264,7 +5248,7 @@
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5275,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>3</v>
@@ -5324,14 +5308,14 @@
         <v>54</v>
       </c>
       <c r="U10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="V10" s="38" t="s">
         <v>71</v>
-      </c>
-      <c r="V10" s="38" t="s">
-        <v>72</v>
       </c>
       <c r="W10" s="4"/>
       <c r="X10" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y10" s="35"/>
     </row>
@@ -5392,7 +5376,7 @@
       </c>
       <c r="U11" s="9">
         <f t="array" ref="U11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V11" s="9">
         <f>IFERROR(MATCH($U11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -5440,7 +5424,7 @@
       </c>
       <c r="U12" s="9">
         <f t="array" ref="U12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V12" s="9">
         <f>IFERROR(MATCH($U12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -5488,7 +5472,7 @@
       </c>
       <c r="U13" s="9">
         <f t="array" ref="U13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V13" s="9">
         <f>IFERROR(MATCH($U13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -5536,7 +5520,7 @@
       </c>
       <c r="U14" s="9">
         <f t="array" ref="U14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V14" s="9">
         <f>IFERROR(MATCH($U14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -5584,7 +5568,7 @@
       </c>
       <c r="U15" s="9">
         <f t="array" ref="U15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V15" s="9">
         <f>IFERROR(MATCH($U15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -5632,7 +5616,7 @@
       </c>
       <c r="U16" s="9">
         <f t="array" ref="U16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V16" s="9">
         <f>IFERROR(MATCH($U16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -5680,7 +5664,7 @@
       </c>
       <c r="U17" s="9">
         <f t="array" ref="U17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V17" s="9">
         <f>IFERROR(MATCH($U17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -5728,7 +5712,7 @@
       </c>
       <c r="U18" s="9">
         <f t="array" ref="U18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V18" s="9">
         <f>IFERROR(MATCH($U18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -5776,7 +5760,7 @@
       </c>
       <c r="U19" s="9">
         <f t="array" ref="U19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V19" s="9">
         <f>IFERROR(MATCH($U19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -5824,7 +5808,7 @@
       </c>
       <c r="U20" s="9">
         <f t="array" ref="U20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V20" s="9">
         <f>IFERROR(MATCH($U20,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -5872,7 +5856,7 @@
       </c>
       <c r="U21" s="9">
         <f t="array" ref="U21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V21" s="9">
         <f>IFERROR(MATCH($U21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -5920,7 +5904,7 @@
       </c>
       <c r="U22" s="9">
         <f t="array" ref="U22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V22" s="9">
         <f>IFERROR(MATCH($U22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -5968,7 +5952,7 @@
       </c>
       <c r="U23" s="9">
         <f t="array" ref="U23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V23" s="9">
         <f>IFERROR(MATCH($U23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -6016,7 +6000,7 @@
       </c>
       <c r="U24" s="9">
         <f t="array" ref="U24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V24" s="9">
         <f>IFERROR(MATCH($U24,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -6064,7 +6048,7 @@
       </c>
       <c r="U25" s="9">
         <f t="array" ref="U25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V25" s="9">
         <f>IFERROR(MATCH($U25,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -6112,7 +6096,7 @@
       </c>
       <c r="U26" s="9">
         <f t="array" ref="U26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V26" s="9">
         <f>IFERROR(MATCH($U26,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -6160,7 +6144,7 @@
       </c>
       <c r="U27" s="9">
         <f t="array" ref="U27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V27" s="9">
         <f>IFERROR(MATCH($U27,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -6208,7 +6192,7 @@
       </c>
       <c r="U28" s="9">
         <f t="array" ref="U28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V28" s="9">
         <f>IFERROR(MATCH($U28,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -6256,7 +6240,7 @@
       </c>
       <c r="U29" s="9">
         <f t="array" ref="U29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M29,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V29" s="9">
         <f>IFERROR(MATCH($U29,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -6304,7 +6288,7 @@
       </c>
       <c r="U30" s="14">
         <f t="array" ref="U30">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M30,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V30" s="14">
         <f>IFERROR(MATCH($U30,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -6470,7 +6454,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
@@ -6483,7 +6467,7 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>28</v>
@@ -6518,7 +6502,7 @@
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6529,7 +6513,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>3</v>
@@ -6578,14 +6562,14 @@
         <v>54</v>
       </c>
       <c r="U10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="V10" s="38" t="s">
         <v>71</v>
-      </c>
-      <c r="V10" s="38" t="s">
-        <v>72</v>
       </c>
       <c r="W10" s="4"/>
       <c r="X10" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y10" s="35"/>
     </row>
@@ -6646,7 +6630,7 @@
       </c>
       <c r="U11" s="9">
         <f t="array" ref="U11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V11" s="9">
         <f>IFERROR(MATCH($U11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -6694,7 +6678,7 @@
       </c>
       <c r="U12" s="9">
         <f t="array" ref="U12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V12" s="9">
         <f>IFERROR(MATCH($U12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -6742,7 +6726,7 @@
       </c>
       <c r="U13" s="9">
         <f t="array" ref="U13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V13" s="9">
         <f>IFERROR(MATCH($U13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -6790,7 +6774,7 @@
       </c>
       <c r="U14" s="9">
         <f t="array" ref="U14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V14" s="9">
         <f>IFERROR(MATCH($U14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -6838,7 +6822,7 @@
       </c>
       <c r="U15" s="9">
         <f t="array" ref="U15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V15" s="9">
         <f>IFERROR(MATCH($U15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -6886,7 +6870,7 @@
       </c>
       <c r="U16" s="9">
         <f t="array" ref="U16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V16" s="9">
         <f>IFERROR(MATCH($U16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -6934,7 +6918,7 @@
       </c>
       <c r="U17" s="9">
         <f t="array" ref="U17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V17" s="9">
         <f>IFERROR(MATCH($U17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -6982,7 +6966,7 @@
       </c>
       <c r="U18" s="9">
         <f t="array" ref="U18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V18" s="9">
         <f>IFERROR(MATCH($U18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -7030,7 +7014,7 @@
       </c>
       <c r="U19" s="9">
         <f t="array" ref="U19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V19" s="9">
         <f>IFERROR(MATCH($U19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -7078,7 +7062,7 @@
       </c>
       <c r="U20" s="9">
         <f t="array" ref="U20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V20" s="9">
         <f>IFERROR(MATCH($U20,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -7126,7 +7110,7 @@
       </c>
       <c r="U21" s="9">
         <f t="array" ref="U21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V21" s="9">
         <f>IFERROR(MATCH($U21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -7174,7 +7158,7 @@
       </c>
       <c r="U22" s="9">
         <f t="array" ref="U22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V22" s="9">
         <f>IFERROR(MATCH($U22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -7222,7 +7206,7 @@
       </c>
       <c r="U23" s="9">
         <f t="array" ref="U23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V23" s="9">
         <f>IFERROR(MATCH($U23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -7270,7 +7254,7 @@
       </c>
       <c r="U24" s="9">
         <f t="array" ref="U24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V24" s="9">
         <f>IFERROR(MATCH($U24,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -7318,7 +7302,7 @@
       </c>
       <c r="U25" s="9">
         <f t="array" ref="U25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V25" s="9">
         <f>IFERROR(MATCH($U25,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -7366,7 +7350,7 @@
       </c>
       <c r="U26" s="9">
         <f t="array" ref="U26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V26" s="9">
         <f>IFERROR(MATCH($U26,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -7624,7 +7608,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -7637,7 +7621,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -7672,7 +7656,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7714,26 +7698,26 @@
         <v>51</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>91</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>71</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>72</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U10" s="35"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -7778,7 +7762,7 @@
       </c>
       <c r="Q11" s="9">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R11" s="9">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -7822,7 +7806,7 @@
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R12" s="9">
         <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -7866,7 +7850,7 @@
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R13" s="9">
         <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -7910,7 +7894,7 @@
       </c>
       <c r="Q14" s="9">
         <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R14" s="9">
         <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -7954,7 +7938,7 @@
       </c>
       <c r="Q15" s="9">
         <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R15" s="9">
         <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -7998,7 +7982,7 @@
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R16" s="9">
         <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8042,7 +8026,7 @@
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R17" s="9">
         <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8086,7 +8070,7 @@
       </c>
       <c r="Q18" s="9">
         <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R18" s="9">
         <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8130,7 +8114,7 @@
       </c>
       <c r="Q19" s="9">
         <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R19" s="9">
         <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8174,7 +8158,7 @@
       </c>
       <c r="Q20" s="9">
         <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R20" s="9">
         <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8218,7 +8202,7 @@
       </c>
       <c r="Q21" s="9">
         <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R21" s="9">
         <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8262,7 +8246,7 @@
       </c>
       <c r="Q22" s="9">
         <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R22" s="9">
         <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8306,7 +8290,7 @@
       </c>
       <c r="Q23" s="9">
         <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R23" s="9">
         <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8350,7 +8334,7 @@
       </c>
       <c r="Q24" s="9">
         <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R24" s="9">
         <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8394,7 +8378,7 @@
       </c>
       <c r="Q25" s="9">
         <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R25" s="9">
         <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8438,7 +8422,7 @@
       </c>
       <c r="Q26" s="9">
         <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R26" s="9">
         <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8482,7 +8466,7 @@
       </c>
       <c r="Q27" s="9">
         <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R27" s="9">
         <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8526,7 +8510,7 @@
       </c>
       <c r="Q28" s="9">
         <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R28" s="9">
         <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8570,7 +8554,7 @@
       </c>
       <c r="Q29" s="9">
         <f t="array" ref="Q29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J29,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R29" s="9">
         <f>IFERROR(MATCH($Q29,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8614,7 +8598,7 @@
       </c>
       <c r="Q30" s="9">
         <f t="array" ref="Q30">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J30,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R30" s="9">
         <f>IFERROR(MATCH($Q30,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8658,7 +8642,7 @@
       </c>
       <c r="Q31" s="9">
         <f t="array" ref="Q31">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J31,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R31" s="9">
         <f>IFERROR(MATCH($Q31,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8702,7 +8686,7 @@
       </c>
       <c r="Q32" s="9">
         <f t="array" ref="Q32">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J32,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R32" s="9">
         <f>IFERROR(MATCH($Q32,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8746,7 +8730,7 @@
       </c>
       <c r="Q33" s="9">
         <f t="array" ref="Q33">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J33,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R33" s="9">
         <f>IFERROR(MATCH($Q33,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8790,7 +8774,7 @@
       </c>
       <c r="Q34" s="9">
         <f t="array" ref="Q34">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J34,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R34" s="9">
         <f>IFERROR(MATCH($Q34,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8834,7 +8818,7 @@
       </c>
       <c r="Q35" s="9">
         <f t="array" ref="Q35">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J35,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R35" s="9">
         <f>IFERROR(MATCH($Q35,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8878,7 +8862,7 @@
       </c>
       <c r="Q36" s="9">
         <f t="array" ref="Q36">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J36,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R36" s="9">
         <f>IFERROR(MATCH($Q36,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8922,7 +8906,7 @@
       </c>
       <c r="Q37" s="9">
         <f t="array" ref="Q37">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J37,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R37" s="9">
         <f>IFERROR(MATCH($Q37,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8966,7 +8950,7 @@
       </c>
       <c r="Q38" s="9">
         <f t="array" ref="Q38">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J38,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R38" s="9">
         <f>IFERROR(MATCH($Q38,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9010,7 +8994,7 @@
       </c>
       <c r="Q39" s="9">
         <f t="array" ref="Q39">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J39,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R39" s="9">
         <f>IFERROR(MATCH($Q39,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9054,7 +9038,7 @@
       </c>
       <c r="Q40" s="9">
         <f t="array" ref="Q40">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J40,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R40" s="9">
         <f>IFERROR(MATCH($Q40,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9098,7 +9082,7 @@
       </c>
       <c r="Q41" s="9">
         <f t="array" ref="Q41">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J41,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R41" s="9">
         <f>IFERROR(MATCH($Q41,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9142,7 +9126,7 @@
       </c>
       <c r="Q42" s="9">
         <f t="array" ref="Q42">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J42,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R42" s="9">
         <f>IFERROR(MATCH($Q42,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9186,7 +9170,7 @@
       </c>
       <c r="Q43" s="9">
         <f t="array" ref="Q43">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J43,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R43" s="9">
         <f>IFERROR(MATCH($Q43,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9230,7 +9214,7 @@
       </c>
       <c r="Q44" s="9">
         <f t="array" ref="Q44">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J44,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R44" s="9">
         <f>IFERROR(MATCH($Q44,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9274,7 +9258,7 @@
       </c>
       <c r="Q45" s="9">
         <f t="array" ref="Q45">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J45,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R45" s="9">
         <f>IFERROR(MATCH($Q45,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9318,7 +9302,7 @@
       </c>
       <c r="Q46" s="9">
         <f t="array" ref="Q46">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J46,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R46" s="9">
         <f>IFERROR(MATCH($Q46,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9362,7 +9346,7 @@
       </c>
       <c r="Q47" s="9">
         <f t="array" ref="Q47">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J47,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R47" s="9">
         <f>IFERROR(MATCH($Q47,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9406,7 +9390,7 @@
       </c>
       <c r="Q48" s="9">
         <f t="array" ref="Q48">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J48,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R48" s="9">
         <f>IFERROR(MATCH($Q48,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9450,7 +9434,7 @@
       </c>
       <c r="Q49" s="9">
         <f t="array" ref="Q49">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J49,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R49" s="9">
         <f>IFERROR(MATCH($Q49,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9494,7 +9478,7 @@
       </c>
       <c r="Q50" s="9">
         <f t="array" ref="Q50">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J50,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R50" s="9">
         <f>IFERROR(MATCH($Q50,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9538,7 +9522,7 @@
       </c>
       <c r="Q51" s="9">
         <f t="array" ref="Q51">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J51,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R51" s="9">
         <f>IFERROR(MATCH($Q51,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9582,7 +9566,7 @@
       </c>
       <c r="Q52" s="9">
         <f t="array" ref="Q52">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J52,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R52" s="9">
         <f>IFERROR(MATCH($Q52,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9626,7 +9610,7 @@
       </c>
       <c r="Q53" s="9">
         <f t="array" ref="Q53">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J53,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R53" s="9">
         <f>IFERROR(MATCH($Q53,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9670,7 +9654,7 @@
       </c>
       <c r="Q54" s="9">
         <f t="array" ref="Q54">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J54,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R54" s="9">
         <f>IFERROR(MATCH($Q54,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9714,7 +9698,7 @@
       </c>
       <c r="Q55" s="9">
         <f t="array" ref="Q55">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J55,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R55" s="9">
         <f>IFERROR(MATCH($Q55,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9758,7 +9742,7 @@
       </c>
       <c r="Q56" s="9">
         <f t="array" ref="Q56">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J56,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R56" s="9">
         <f>IFERROR(MATCH($Q56,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9802,7 +9786,7 @@
       </c>
       <c r="Q57" s="9">
         <f t="array" ref="Q57">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J57,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R57" s="9">
         <f>IFERROR(MATCH($Q57,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9846,7 +9830,7 @@
       </c>
       <c r="Q58" s="9">
         <f t="array" ref="Q58">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J58,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R58" s="9">
         <f>IFERROR(MATCH($Q58,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9890,7 +9874,7 @@
       </c>
       <c r="Q59" s="9">
         <f t="array" ref="Q59">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J59,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R59" s="9">
         <f>IFERROR(MATCH($Q59,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9934,7 +9918,7 @@
       </c>
       <c r="Q60" s="9">
         <f t="array" ref="Q60">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J60,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R60" s="9">
         <f>IFERROR(MATCH($Q60,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9978,7 +9962,7 @@
       </c>
       <c r="Q61" s="9">
         <f t="array" ref="Q61">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J61,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R61" s="9">
         <f>IFERROR(MATCH($Q61,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -10022,7 +10006,7 @@
       </c>
       <c r="Q62" s="9">
         <f t="array" ref="Q62">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J62,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R62" s="9">
         <f>IFERROR(MATCH($Q62,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -10066,7 +10050,7 @@
       </c>
       <c r="Q63" s="9">
         <f t="array" ref="Q63">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J63,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R63" s="9">
         <f>IFERROR(MATCH($Q63,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -10110,7 +10094,7 @@
       </c>
       <c r="Q64" s="9">
         <f t="array" ref="Q64">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J64,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R64" s="9">
         <f>IFERROR(MATCH($Q64,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -10154,7 +10138,7 @@
       </c>
       <c r="Q65" s="9">
         <f t="array" ref="Q65">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J65,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R65" s="9">
         <f>IFERROR(MATCH($Q65,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -10198,7 +10182,7 @@
       </c>
       <c r="Q66" s="9">
         <f t="array" ref="Q66">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J66,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R66" s="9">
         <f>IFERROR(MATCH($Q66,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -10242,7 +10226,7 @@
       </c>
       <c r="Q67" s="9">
         <f t="array" ref="Q67">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J67,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R67" s="9">
         <f>IFERROR(MATCH($Q67,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -10286,7 +10270,7 @@
       </c>
       <c r="Q68" s="9">
         <f t="array" ref="Q68">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J68,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R68" s="9">
         <f>IFERROR(MATCH($Q68,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -10330,7 +10314,7 @@
       </c>
       <c r="Q69" s="9">
         <f t="array" ref="Q69">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J69,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R69" s="9">
         <f>IFERROR(MATCH($Q69,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -10533,7 +10517,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -10546,7 +10530,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -10581,7 +10565,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10629,45 +10613,45 @@
         <v>54</v>
       </c>
       <c r="Q10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>71</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>72</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U10" s="35"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="73">
-        <v>0</v>
-      </c>
-      <c r="D11" s="73">
+      <c r="C11" s="72">
+        <v>0</v>
+      </c>
+      <c r="D11" s="72">
         <v>0.27700000000000002</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="77" t="s">
+      <c r="F11" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="81">
+      <c r="G11" s="80">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H11" s="77" t="s">
+      <c r="H11" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="68"/>
-      <c r="J11" s="73">
+      <c r="I11" s="67"/>
+      <c r="J11" s="72">
         <f>IF($E11="Nee",0,IF(ISNUMBER(I11),I11,IF(ISNUMBER(G11),G11,"-")))</f>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K11" s="79" t="str">
+      <c r="K11" s="78" t="str">
         <f t="shared" ref="K11:K48" si="0">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
         <v>+III</v>
       </c>
@@ -10690,7 +10674,7 @@
       </c>
       <c r="Q11" s="9">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R11" s="9">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -10707,33 +10691,33 @@
       <c r="U11" s="35"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="75">
+      <c r="C12" s="74">
         <v>0.27700000000000002</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="74">
         <v>0.53200000000000003</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="78" t="s">
+      <c r="F12" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="80">
+      <c r="G12" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H12" s="78" t="s">
+      <c r="H12" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="72"/>
-      <c r="J12" s="75">
+      <c r="I12" s="71"/>
+      <c r="J12" s="74">
         <f t="shared" ref="J12:J48" si="5">IF($E12="Nee",0,IF(ISNUMBER(I12),I12,IF(ISNUMBER(G12),G12,"-")))</f>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K12" s="80" t="str">
+      <c r="K12" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -10756,7 +10740,7 @@
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R12" s="9">
         <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -10773,33 +10757,33 @@
       <c r="U12" s="35"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="75">
+      <c r="C13" s="74">
         <v>0.53200000000000003</v>
       </c>
-      <c r="D13" s="75">
+      <c r="D13" s="74">
         <v>0.755</v>
       </c>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="78" t="s">
+      <c r="F13" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="80">
+      <c r="G13" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H13" s="78" t="s">
+      <c r="H13" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="72"/>
-      <c r="J13" s="75">
+      <c r="I13" s="71"/>
+      <c r="J13" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K13" s="80" t="str">
+      <c r="K13" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -10822,7 +10806,7 @@
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R13" s="9">
         <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -10839,33 +10823,33 @@
       <c r="U13" s="35"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="75">
+      <c r="C14" s="74">
         <v>0.755</v>
       </c>
-      <c r="D14" s="75">
+      <c r="D14" s="74">
         <v>0.91300000000000003</v>
       </c>
-      <c r="E14" s="76" t="s">
+      <c r="E14" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="78" t="s">
+      <c r="F14" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="80">
+      <c r="G14" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H14" s="78" t="s">
+      <c r="H14" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="72"/>
-      <c r="J14" s="75">
+      <c r="I14" s="71"/>
+      <c r="J14" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K14" s="80" t="str">
+      <c r="K14" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -10888,7 +10872,7 @@
       </c>
       <c r="Q14" s="9">
         <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R14" s="9">
         <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -10905,33 +10889,33 @@
       <c r="U14" s="35"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="75">
+      <c r="C15" s="74">
         <v>0.91300000000000003</v>
       </c>
-      <c r="D15" s="75">
+      <c r="D15" s="74">
         <v>1.0509999999999999</v>
       </c>
-      <c r="E15" s="76" t="s">
+      <c r="E15" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="78" t="s">
+      <c r="F15" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="80">
+      <c r="G15" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H15" s="78" t="s">
+      <c r="H15" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="72"/>
-      <c r="J15" s="75">
+      <c r="I15" s="71"/>
+      <c r="J15" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K15" s="80" t="str">
+      <c r="K15" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -10954,7 +10938,7 @@
       </c>
       <c r="Q15" s="9">
         <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R15" s="9">
         <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -10971,33 +10955,33 @@
       <c r="U15" s="35"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="75">
+      <c r="C16" s="74">
         <v>1.0509999999999999</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="74">
         <v>1.214</v>
       </c>
-      <c r="E16" s="76" t="s">
+      <c r="E16" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="78" t="s">
+      <c r="F16" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="80">
+      <c r="G16" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H16" s="78" t="s">
+      <c r="H16" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="72"/>
-      <c r="J16" s="75">
+      <c r="I16" s="71"/>
+      <c r="J16" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K16" s="80" t="str">
+      <c r="K16" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -11020,7 +11004,7 @@
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R16" s="9">
         <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11037,33 +11021,33 @@
       <c r="U16" s="35"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="75">
+      <c r="C17" s="74">
         <v>1.214</v>
       </c>
-      <c r="D17" s="75">
+      <c r="D17" s="74">
         <v>1.383</v>
       </c>
-      <c r="E17" s="76" t="s">
+      <c r="E17" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="78" t="s">
+      <c r="F17" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="80">
+      <c r="G17" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H17" s="78" t="s">
+      <c r="H17" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="72"/>
-      <c r="J17" s="75">
+      <c r="I17" s="71"/>
+      <c r="J17" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K17" s="80" t="str">
+      <c r="K17" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -11086,7 +11070,7 @@
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R17" s="9">
         <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11103,33 +11087,33 @@
       <c r="U17" s="35"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="75">
+      <c r="C18" s="74">
         <v>1.383</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="74">
         <v>1.5289999999999999</v>
       </c>
-      <c r="E18" s="76" t="s">
+      <c r="E18" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="78" t="s">
+      <c r="F18" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="80">
+      <c r="G18" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H18" s="78" t="s">
+      <c r="H18" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="72"/>
-      <c r="J18" s="75">
+      <c r="I18" s="71"/>
+      <c r="J18" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K18" s="80" t="str">
+      <c r="K18" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -11152,7 +11136,7 @@
       </c>
       <c r="Q18" s="9">
         <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R18" s="9">
         <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11169,33 +11153,33 @@
       <c r="U18" s="35"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="75">
+      <c r="C19" s="74">
         <v>1.5289999999999999</v>
       </c>
-      <c r="D19" s="75">
+      <c r="D19" s="74">
         <v>1.661</v>
       </c>
-      <c r="E19" s="76" t="s">
+      <c r="E19" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="78" t="s">
+      <c r="F19" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="80">
+      <c r="G19" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H19" s="78" t="s">
+      <c r="H19" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="72"/>
-      <c r="J19" s="75">
+      <c r="I19" s="71"/>
+      <c r="J19" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K19" s="80" t="str">
+      <c r="K19" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -11218,7 +11202,7 @@
       </c>
       <c r="Q19" s="9">
         <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R19" s="9">
         <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11235,33 +11219,33 @@
       <c r="U19" s="35"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="75">
+      <c r="C20" s="74">
         <v>1.661</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="74">
         <v>1.79</v>
       </c>
-      <c r="E20" s="76" t="s">
+      <c r="E20" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="78" t="s">
+      <c r="F20" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="80">
+      <c r="G20" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H20" s="78" t="s">
+      <c r="H20" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="72"/>
-      <c r="J20" s="75">
+      <c r="I20" s="71"/>
+      <c r="J20" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K20" s="80" t="str">
+      <c r="K20" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -11284,7 +11268,7 @@
       </c>
       <c r="Q20" s="9">
         <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R20" s="9">
         <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11301,33 +11285,33 @@
       <c r="U20" s="35"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="75">
+      <c r="C21" s="74">
         <v>1.79</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="74">
         <v>1.929</v>
       </c>
-      <c r="E21" s="76" t="s">
+      <c r="E21" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="78" t="s">
+      <c r="F21" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="80">
+      <c r="G21" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H21" s="78" t="s">
+      <c r="H21" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="72"/>
-      <c r="J21" s="75">
+      <c r="I21" s="71"/>
+      <c r="J21" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K21" s="80" t="str">
+      <c r="K21" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -11350,7 +11334,7 @@
       </c>
       <c r="Q21" s="9">
         <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R21" s="9">
         <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11367,33 +11351,33 @@
       <c r="U21" s="35"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="75">
+      <c r="C22" s="74">
         <v>1.929</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="74">
         <v>2.0910000000000002</v>
       </c>
-      <c r="E22" s="76" t="s">
+      <c r="E22" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="78" t="s">
+      <c r="F22" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="80">
+      <c r="G22" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H22" s="78" t="s">
+      <c r="H22" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="72"/>
-      <c r="J22" s="75">
+      <c r="I22" s="71"/>
+      <c r="J22" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K22" s="80" t="str">
+      <c r="K22" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -11416,7 +11400,7 @@
       </c>
       <c r="Q22" s="9">
         <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R22" s="9">
         <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11433,33 +11417,33 @@
       <c r="U22" s="35"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="75">
+      <c r="C23" s="74">
         <v>2.0910000000000002</v>
       </c>
-      <c r="D23" s="75">
+      <c r="D23" s="74">
         <v>2.254</v>
       </c>
-      <c r="E23" s="76" t="s">
+      <c r="E23" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="78" t="s">
+      <c r="F23" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="80">
+      <c r="G23" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H23" s="78" t="s">
+      <c r="H23" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="72"/>
-      <c r="J23" s="75">
+      <c r="I23" s="71"/>
+      <c r="J23" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K23" s="80" t="str">
+      <c r="K23" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -11482,7 +11466,7 @@
       </c>
       <c r="Q23" s="9">
         <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R23" s="9">
         <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11499,33 +11483,33 @@
       <c r="U23" s="35"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="75">
+      <c r="C24" s="74">
         <v>2.254</v>
       </c>
-      <c r="D24" s="75">
+      <c r="D24" s="74">
         <v>2.395</v>
       </c>
-      <c r="E24" s="76" t="s">
+      <c r="E24" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="78" t="s">
+      <c r="F24" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="80">
+      <c r="G24" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H24" s="78" t="s">
+      <c r="H24" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="72"/>
-      <c r="J24" s="75">
+      <c r="I24" s="71"/>
+      <c r="J24" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K24" s="80" t="str">
+      <c r="K24" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -11548,7 +11532,7 @@
       </c>
       <c r="Q24" s="9">
         <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R24" s="9">
         <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11565,33 +11549,33 @@
       <c r="U24" s="35"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="75">
+      <c r="C25" s="74">
         <v>2.395</v>
       </c>
-      <c r="D25" s="75">
+      <c r="D25" s="74">
         <v>2.524</v>
       </c>
-      <c r="E25" s="76" t="s">
+      <c r="E25" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="78" t="s">
+      <c r="F25" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="80">
+      <c r="G25" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H25" s="78" t="s">
+      <c r="H25" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="72"/>
-      <c r="J25" s="75">
+      <c r="I25" s="71"/>
+      <c r="J25" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K25" s="80" t="str">
+      <c r="K25" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -11614,7 +11598,7 @@
       </c>
       <c r="Q25" s="9">
         <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R25" s="9">
         <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11631,33 +11615,33 @@
       <c r="U25" s="35"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="75">
+      <c r="C26" s="74">
         <v>2.524</v>
       </c>
-      <c r="D26" s="75">
+      <c r="D26" s="74">
         <v>2.6560000000000001</v>
       </c>
-      <c r="E26" s="76" t="s">
+      <c r="E26" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="78" t="s">
+      <c r="F26" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="80">
+      <c r="G26" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H26" s="78" t="s">
+      <c r="H26" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="72"/>
-      <c r="J26" s="75">
+      <c r="I26" s="71"/>
+      <c r="J26" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K26" s="80" t="str">
+      <c r="K26" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -11680,7 +11664,7 @@
       </c>
       <c r="Q26" s="9">
         <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R26" s="9">
         <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11697,33 +11681,33 @@
       <c r="U26" s="35"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="75">
+      <c r="C27" s="74">
         <v>2.6560000000000001</v>
       </c>
-      <c r="D27" s="75">
+      <c r="D27" s="74">
         <v>2.7959999999999998</v>
       </c>
-      <c r="E27" s="76" t="s">
+      <c r="E27" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="78" t="s">
+      <c r="F27" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="80">
+      <c r="G27" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H27" s="78" t="s">
+      <c r="H27" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="72"/>
-      <c r="J27" s="75">
+      <c r="I27" s="71"/>
+      <c r="J27" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K27" s="80" t="str">
+      <c r="K27" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -11746,7 +11730,7 @@
       </c>
       <c r="Q27" s="9">
         <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R27" s="9">
         <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11763,33 +11747,33 @@
       <c r="U27" s="35"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="75">
+      <c r="C28" s="74">
         <v>2.7959999999999998</v>
       </c>
-      <c r="D28" s="75">
+      <c r="D28" s="74">
         <v>2.9569999999999999</v>
       </c>
-      <c r="E28" s="76" t="s">
+      <c r="E28" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="78" t="s">
+      <c r="F28" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="80">
+      <c r="G28" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H28" s="78" t="s">
+      <c r="H28" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="72"/>
-      <c r="J28" s="75">
+      <c r="I28" s="71"/>
+      <c r="J28" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K28" s="80" t="str">
+      <c r="K28" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -11812,7 +11796,7 @@
       </c>
       <c r="Q28" s="9">
         <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R28" s="9">
         <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11829,33 +11813,33 @@
       <c r="U28" s="35"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="75">
+      <c r="C29" s="74">
         <v>2.9569999999999999</v>
       </c>
-      <c r="D29" s="75">
+      <c r="D29" s="74">
         <v>3.129</v>
       </c>
-      <c r="E29" s="76" t="s">
+      <c r="E29" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="78" t="s">
+      <c r="F29" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="80">
+      <c r="G29" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H29" s="78" t="s">
+      <c r="H29" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="72"/>
-      <c r="J29" s="75">
+      <c r="I29" s="71"/>
+      <c r="J29" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K29" s="80" t="str">
+      <c r="K29" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -11878,7 +11862,7 @@
       </c>
       <c r="Q29" s="9">
         <f t="array" ref="Q29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J29,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R29" s="9">
         <f>IFERROR(MATCH($Q29,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11895,33 +11879,33 @@
       <c r="U29" s="35"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="75">
+      <c r="C30" s="74">
         <v>3.129</v>
       </c>
-      <c r="D30" s="75">
+      <c r="D30" s="74">
         <v>3.302</v>
       </c>
-      <c r="E30" s="76" t="s">
+      <c r="E30" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="78" t="s">
+      <c r="F30" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="80">
+      <c r="G30" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H30" s="78" t="s">
+      <c r="H30" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I30" s="72"/>
-      <c r="J30" s="75">
+      <c r="I30" s="71"/>
+      <c r="J30" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K30" s="80" t="str">
+      <c r="K30" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -11944,7 +11928,7 @@
       </c>
       <c r="Q30" s="9">
         <f t="array" ref="Q30">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J30,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R30" s="9">
         <f>IFERROR(MATCH($Q30,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11961,33 +11945,33 @@
       <c r="U30" s="35"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="78" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="75">
+      <c r="B31" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="74">
         <v>3.302</v>
       </c>
-      <c r="D31" s="75">
+      <c r="D31" s="74">
         <v>3.4630000000000001</v>
       </c>
-      <c r="E31" s="76" t="s">
+      <c r="E31" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="78" t="s">
+      <c r="F31" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="80">
+      <c r="G31" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H31" s="78" t="s">
+      <c r="H31" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="72"/>
-      <c r="J31" s="75">
+      <c r="I31" s="71"/>
+      <c r="J31" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K31" s="80" t="str">
+      <c r="K31" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -12010,7 +11994,7 @@
       </c>
       <c r="Q31" s="9">
         <f t="array" ref="Q31">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J31,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R31" s="9">
         <f>IFERROR(MATCH($Q31,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12027,33 +12011,33 @@
       <c r="U31" s="35"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="75">
+      <c r="B32" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="74">
         <v>3.4630000000000001</v>
       </c>
-      <c r="D32" s="75">
+      <c r="D32" s="74">
         <v>3.5960000000000001</v>
       </c>
-      <c r="E32" s="76" t="s">
+      <c r="E32" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="78" t="s">
+      <c r="F32" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="80">
+      <c r="G32" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H32" s="78" t="s">
+      <c r="H32" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="72"/>
-      <c r="J32" s="75">
+      <c r="I32" s="71"/>
+      <c r="J32" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K32" s="80" t="str">
+      <c r="K32" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -12076,7 +12060,7 @@
       </c>
       <c r="Q32" s="9">
         <f t="array" ref="Q32">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J32,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R32" s="9">
         <f>IFERROR(MATCH($Q32,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12093,33 +12077,33 @@
       <c r="U32" s="35"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="78" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="75">
+      <c r="B33" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="74">
         <v>3.5960000000000001</v>
       </c>
-      <c r="D33" s="75">
+      <c r="D33" s="74">
         <v>3.726</v>
       </c>
-      <c r="E33" s="76" t="s">
+      <c r="E33" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="78" t="s">
+      <c r="F33" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="80">
+      <c r="G33" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H33" s="78" t="s">
+      <c r="H33" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="72"/>
-      <c r="J33" s="75">
+      <c r="I33" s="71"/>
+      <c r="J33" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K33" s="80" t="str">
+      <c r="K33" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -12142,7 +12126,7 @@
       </c>
       <c r="Q33" s="9">
         <f t="array" ref="Q33">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J33,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R33" s="9">
         <f>IFERROR(MATCH($Q33,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12159,33 +12143,33 @@
       <c r="U33" s="35"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="75">
+      <c r="B34" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="74">
         <v>3.726</v>
       </c>
-      <c r="D34" s="75">
+      <c r="D34" s="74">
         <v>3.8559999999999999</v>
       </c>
-      <c r="E34" s="76" t="s">
+      <c r="E34" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="78" t="s">
+      <c r="F34" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="80">
+      <c r="G34" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H34" s="78" t="s">
+      <c r="H34" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I34" s="72"/>
-      <c r="J34" s="75">
+      <c r="I34" s="71"/>
+      <c r="J34" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K34" s="80" t="str">
+      <c r="K34" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -12208,7 +12192,7 @@
       </c>
       <c r="Q34" s="9">
         <f t="array" ref="Q34">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J34,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R34" s="9">
         <f>IFERROR(MATCH($Q34,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12225,33 +12209,33 @@
       <c r="U34" s="35"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B35" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="75">
+      <c r="B35" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="74">
         <v>3.8559999999999999</v>
       </c>
-      <c r="D35" s="75">
+      <c r="D35" s="74">
         <v>3.9809999999999999</v>
       </c>
-      <c r="E35" s="76" t="s">
+      <c r="E35" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="78" t="s">
+      <c r="F35" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="80">
+      <c r="G35" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H35" s="78" t="s">
+      <c r="H35" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="72"/>
-      <c r="J35" s="75">
+      <c r="I35" s="71"/>
+      <c r="J35" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K35" s="80" t="str">
+      <c r="K35" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -12274,7 +12258,7 @@
       </c>
       <c r="Q35" s="9">
         <f t="array" ref="Q35">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J35,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R35" s="9">
         <f>IFERROR(MATCH($Q35,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12291,33 +12275,33 @@
       <c r="U35" s="35"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="75">
+      <c r="B36" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="74">
         <v>3.9809999999999999</v>
       </c>
-      <c r="D36" s="75">
+      <c r="D36" s="74">
         <v>4.1050000000000004</v>
       </c>
-      <c r="E36" s="76" t="s">
+      <c r="E36" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="78" t="s">
+      <c r="F36" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="80">
+      <c r="G36" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H36" s="78" t="s">
+      <c r="H36" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="72"/>
-      <c r="J36" s="75">
+      <c r="I36" s="71"/>
+      <c r="J36" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K36" s="80" t="str">
+      <c r="K36" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -12340,7 +12324,7 @@
       </c>
       <c r="Q36" s="9">
         <f t="array" ref="Q36">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J36,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R36" s="9">
         <f>IFERROR(MATCH($Q36,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12357,33 +12341,33 @@
       <c r="U36" s="35"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="75">
+      <c r="B37" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="74">
         <v>4.1050000000000004</v>
       </c>
-      <c r="D37" s="75">
+      <c r="D37" s="74">
         <v>4.2359999999999998</v>
       </c>
-      <c r="E37" s="76" t="s">
+      <c r="E37" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="78" t="s">
+      <c r="F37" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G37" s="80">
+      <c r="G37" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H37" s="78" t="s">
+      <c r="H37" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I37" s="72"/>
-      <c r="J37" s="75">
+      <c r="I37" s="71"/>
+      <c r="J37" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K37" s="80" t="str">
+      <c r="K37" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -12406,7 +12390,7 @@
       </c>
       <c r="Q37" s="9">
         <f t="array" ref="Q37">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J37,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R37" s="9">
         <f>IFERROR(MATCH($Q37,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12423,33 +12407,33 @@
       <c r="U37" s="35"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B38" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="75">
+      <c r="B38" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="74">
         <v>4.2359999999999998</v>
       </c>
-      <c r="D38" s="75">
+      <c r="D38" s="74">
         <v>4.38</v>
       </c>
-      <c r="E38" s="76" t="s">
+      <c r="E38" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="78" t="s">
+      <c r="F38" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G38" s="80">
+      <c r="G38" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H38" s="78" t="s">
+      <c r="H38" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I38" s="72"/>
-      <c r="J38" s="75">
+      <c r="I38" s="71"/>
+      <c r="J38" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K38" s="80" t="str">
+      <c r="K38" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -12472,7 +12456,7 @@
       </c>
       <c r="Q38" s="9">
         <f t="array" ref="Q38">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J38,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R38" s="9">
         <f>IFERROR(MATCH($Q38,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12489,33 +12473,33 @@
       <c r="U38" s="35"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B39" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="75">
+      <c r="B39" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="74">
         <v>4.38</v>
       </c>
-      <c r="D39" s="75">
+      <c r="D39" s="74">
         <v>4.5129999999999999</v>
       </c>
-      <c r="E39" s="76" t="s">
+      <c r="E39" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="78" t="s">
+      <c r="F39" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G39" s="80">
+      <c r="G39" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H39" s="78" t="s">
+      <c r="H39" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I39" s="72"/>
-      <c r="J39" s="75">
+      <c r="I39" s="71"/>
+      <c r="J39" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K39" s="80" t="str">
+      <c r="K39" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -12538,7 +12522,7 @@
       </c>
       <c r="Q39" s="9">
         <f t="array" ref="Q39">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J39,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R39" s="9">
         <f>IFERROR(MATCH($Q39,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12555,33 +12539,33 @@
       <c r="U39" s="35"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="78" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="75">
+      <c r="B40" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="74">
         <v>4.5129999999999999</v>
       </c>
-      <c r="D40" s="75">
+      <c r="D40" s="74">
         <v>4.6340000000000003</v>
       </c>
-      <c r="E40" s="76" t="s">
+      <c r="E40" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="78" t="s">
+      <c r="F40" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="80">
+      <c r="G40" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H40" s="78" t="s">
+      <c r="H40" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I40" s="72"/>
-      <c r="J40" s="75">
+      <c r="I40" s="71"/>
+      <c r="J40" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K40" s="80" t="str">
+      <c r="K40" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -12604,7 +12588,7 @@
       </c>
       <c r="Q40" s="9">
         <f t="array" ref="Q40">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J40,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R40" s="9">
         <f>IFERROR(MATCH($Q40,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12621,33 +12605,33 @@
       <c r="U40" s="35"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B41" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" s="75">
+      <c r="B41" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="74">
         <v>4.6340000000000003</v>
       </c>
-      <c r="D41" s="75">
+      <c r="D41" s="74">
         <v>4.7480000000000002</v>
       </c>
-      <c r="E41" s="76" t="s">
+      <c r="E41" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="78" t="s">
+      <c r="F41" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="80">
+      <c r="G41" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H41" s="78" t="s">
+      <c r="H41" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I41" s="72"/>
-      <c r="J41" s="75">
+      <c r="I41" s="71"/>
+      <c r="J41" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K41" s="80" t="str">
+      <c r="K41" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -12670,7 +12654,7 @@
       </c>
       <c r="Q41" s="9">
         <f t="array" ref="Q41">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J41,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R41" s="9">
         <f>IFERROR(MATCH($Q41,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12687,33 +12671,33 @@
       <c r="U41" s="35"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B42" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="75">
+      <c r="B42" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="74">
         <v>4.7480000000000002</v>
       </c>
-      <c r="D42" s="75">
+      <c r="D42" s="74">
         <v>4.8609999999999998</v>
       </c>
-      <c r="E42" s="76" t="s">
+      <c r="E42" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="78" t="s">
+      <c r="F42" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="80">
+      <c r="G42" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H42" s="78" t="s">
+      <c r="H42" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I42" s="72"/>
-      <c r="J42" s="75">
+      <c r="I42" s="71"/>
+      <c r="J42" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K42" s="80" t="str">
+      <c r="K42" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -12736,7 +12720,7 @@
       </c>
       <c r="Q42" s="9">
         <f t="array" ref="Q42">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J42,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R42" s="9">
         <f>IFERROR(MATCH($Q42,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12753,33 +12737,33 @@
       <c r="U42" s="35"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B43" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="75">
+      <c r="B43" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="74">
         <v>4.8609999999999998</v>
       </c>
-      <c r="D43" s="75">
+      <c r="D43" s="74">
         <v>4.9749999999999996</v>
       </c>
-      <c r="E43" s="76" t="s">
+      <c r="E43" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="78" t="s">
+      <c r="F43" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G43" s="80">
+      <c r="G43" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H43" s="78" t="s">
+      <c r="H43" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I43" s="72"/>
-      <c r="J43" s="75">
+      <c r="I43" s="71"/>
+      <c r="J43" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K43" s="80" t="str">
+      <c r="K43" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -12802,7 +12786,7 @@
       </c>
       <c r="Q43" s="9">
         <f t="array" ref="Q43">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J43,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R43" s="9">
         <f>IFERROR(MATCH($Q43,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12819,33 +12803,33 @@
       <c r="U43" s="35"/>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B44" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="75">
+      <c r="B44" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="74">
         <v>4.9749999999999996</v>
       </c>
-      <c r="D44" s="75">
+      <c r="D44" s="74">
         <v>5.0910000000000002</v>
       </c>
-      <c r="E44" s="76" t="s">
+      <c r="E44" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="78" t="s">
+      <c r="F44" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="80">
+      <c r="G44" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H44" s="78" t="s">
+      <c r="H44" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I44" s="72"/>
-      <c r="J44" s="75">
+      <c r="I44" s="71"/>
+      <c r="J44" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K44" s="80" t="str">
+      <c r="K44" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -12868,7 +12852,7 @@
       </c>
       <c r="Q44" s="9">
         <f t="array" ref="Q44">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J44,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R44" s="9">
         <f>IFERROR(MATCH($Q44,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12885,33 +12869,33 @@
       <c r="U44" s="35"/>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B45" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="75">
+      <c r="B45" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="74">
         <v>5.0910000000000002</v>
       </c>
-      <c r="D45" s="75">
+      <c r="D45" s="74">
         <v>5.2140000000000004</v>
       </c>
-      <c r="E45" s="76" t="s">
+      <c r="E45" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="78" t="s">
+      <c r="F45" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G45" s="80">
+      <c r="G45" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H45" s="78" t="s">
+      <c r="H45" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I45" s="72"/>
-      <c r="J45" s="75">
+      <c r="I45" s="71"/>
+      <c r="J45" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K45" s="80" t="str">
+      <c r="K45" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -12934,7 +12918,7 @@
       </c>
       <c r="Q45" s="9">
         <f t="array" ref="Q45">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J45,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R45" s="9">
         <f>IFERROR(MATCH($Q45,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12951,33 +12935,33 @@
       <c r="U45" s="35"/>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B46" s="78" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="75">
+      <c r="B46" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="74">
         <v>5.2140000000000004</v>
       </c>
-      <c r="D46" s="75">
+      <c r="D46" s="74">
         <v>5.3390000000000004</v>
       </c>
-      <c r="E46" s="76" t="s">
+      <c r="E46" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="78" t="s">
+      <c r="F46" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G46" s="80">
+      <c r="G46" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H46" s="78" t="s">
+      <c r="H46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I46" s="72"/>
-      <c r="J46" s="75">
+      <c r="I46" s="71"/>
+      <c r="J46" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K46" s="80" t="str">
+      <c r="K46" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -13000,7 +12984,7 @@
       </c>
       <c r="Q46" s="9">
         <f t="array" ref="Q46">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J46,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R46" s="9">
         <f>IFERROR(MATCH($Q46,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13017,33 +13001,33 @@
       <c r="U46" s="35"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B47" s="78" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="75">
+      <c r="B47" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="74">
         <v>5.3390000000000004</v>
       </c>
-      <c r="D47" s="75">
+      <c r="D47" s="74">
         <v>5.4950000000000001</v>
       </c>
-      <c r="E47" s="76" t="s">
+      <c r="E47" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="78" t="s">
+      <c r="F47" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G47" s="80">
+      <c r="G47" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H47" s="78" t="s">
+      <c r="H47" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I47" s="72"/>
-      <c r="J47" s="75">
+      <c r="I47" s="71"/>
+      <c r="J47" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K47" s="80" t="str">
+      <c r="K47" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -13066,7 +13050,7 @@
       </c>
       <c r="Q47" s="9">
         <f t="array" ref="Q47">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J47,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R47" s="9">
         <f>IFERROR(MATCH($Q47,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13083,33 +13067,33 @@
       <c r="U47" s="35"/>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B48" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="75">
+      <c r="B48" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="74">
         <v>5.4950000000000001</v>
       </c>
-      <c r="D48" s="75">
+      <c r="D48" s="74">
         <v>5.7050000000000001</v>
       </c>
-      <c r="E48" s="76" t="s">
+      <c r="E48" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="78" t="s">
+      <c r="F48" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G48" s="80">
+      <c r="G48" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H48" s="78" t="s">
+      <c r="H48" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I48" s="72"/>
-      <c r="J48" s="75">
+      <c r="I48" s="71"/>
+      <c r="J48" s="74">
         <f t="shared" si="5"/>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K48" s="80" t="str">
+      <c r="K48" s="79" t="str">
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
@@ -13132,7 +13116,7 @@
       </c>
       <c r="Q48" s="9">
         <f t="array" ref="Q48">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J48,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R48" s="9">
         <f>IFERROR(MATCH($Q48,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13149,25 +13133,25 @@
       <c r="U48" s="35"/>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B49" s="69"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="72"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="71"/>
       <c r="L49" s="2"/>
       <c r="M49" s="40"/>
-      <c r="N49" s="65"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="65"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="64"/>
       <c r="Q49" s="35"/>
       <c r="R49" s="35"/>
       <c r="S49" s="9"/>
-      <c r="T49" s="66"/>
+      <c r="T49" s="65"/>
       <c r="U49" s="35"/>
     </row>
     <row r="50" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13199,7 +13183,7 @@
       </c>
       <c r="Q50" s="14">
         <f t="array" ref="Q50">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J50,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R50" s="14">
         <f>IFERROR(MATCH($Q50,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13224,7 +13208,7 @@
       <c r="H51" s="9"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
-      <c r="K51" s="67"/>
+      <c r="K51" s="66"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
@@ -13244,7 +13228,7 @@
       <c r="H52" s="9"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
-      <c r="K52" s="67"/>
+      <c r="K52" s="66"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
@@ -13409,7 +13393,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -13422,7 +13406,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -13457,7 +13441,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13499,20 +13483,20 @@
         <v>51</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>91</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>71</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>72</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -13563,7 +13547,7 @@
       </c>
       <c r="Q11" s="9">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R11" s="9">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13607,7 +13591,7 @@
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R12" s="9">
         <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13651,7 +13635,7 @@
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R13" s="9">
         <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13695,7 +13679,7 @@
       </c>
       <c r="Q14" s="9">
         <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R14" s="9">
         <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13739,7 +13723,7 @@
       </c>
       <c r="Q15" s="9">
         <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R15" s="9">
         <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13783,7 +13767,7 @@
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R16" s="9">
         <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13827,7 +13811,7 @@
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R17" s="9">
         <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13871,7 +13855,7 @@
       </c>
       <c r="Q18" s="9">
         <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R18" s="9">
         <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13915,7 +13899,7 @@
       </c>
       <c r="Q19" s="9">
         <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R19" s="9">
         <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13959,7 +13943,7 @@
       </c>
       <c r="Q20" s="9">
         <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R20" s="9">
         <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14003,7 +13987,7 @@
       </c>
       <c r="Q21" s="9">
         <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R21" s="9">
         <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14047,7 +14031,7 @@
       </c>
       <c r="Q22" s="9">
         <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R22" s="9">
         <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14091,7 +14075,7 @@
       </c>
       <c r="Q23" s="9">
         <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R23" s="9">
         <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14135,7 +14119,7 @@
       </c>
       <c r="Q24" s="9">
         <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R24" s="9">
         <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14179,7 +14163,7 @@
       </c>
       <c r="Q25" s="9">
         <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R25" s="9">
         <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14223,7 +14207,7 @@
       </c>
       <c r="Q26" s="9">
         <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R26" s="9">
         <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14267,7 +14251,7 @@
       </c>
       <c r="Q27" s="9">
         <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R27" s="9">
         <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14311,7 +14295,7 @@
       </c>
       <c r="Q28" s="9">
         <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R28" s="9">
         <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14473,7 +14457,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -14486,7 +14470,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -14521,7 +14505,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14563,20 +14547,20 @@
         <v>51</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>91</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>71</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>72</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -14627,7 +14611,7 @@
       </c>
       <c r="Q11" s="9">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R11" s="9">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14671,7 +14655,7 @@
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R12" s="9">
         <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14715,7 +14699,7 @@
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R13" s="9">
         <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14759,7 +14743,7 @@
       </c>
       <c r="Q14" s="9">
         <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R14" s="9">
         <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14803,7 +14787,7 @@
       </c>
       <c r="Q15" s="9">
         <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R15" s="9">
         <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14847,7 +14831,7 @@
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R16" s="9">
         <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14891,7 +14875,7 @@
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R17" s="9">
         <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14935,7 +14919,7 @@
       </c>
       <c r="Q18" s="9">
         <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R18" s="9">
         <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14979,7 +14963,7 @@
       </c>
       <c r="Q19" s="9">
         <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R19" s="9">
         <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15023,7 +15007,7 @@
       </c>
       <c r="Q20" s="9">
         <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R20" s="9">
         <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15067,7 +15051,7 @@
       </c>
       <c r="Q21" s="9">
         <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R21" s="9">
         <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15111,7 +15095,7 @@
       </c>
       <c r="Q22" s="9">
         <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R22" s="9">
         <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15155,7 +15139,7 @@
       </c>
       <c r="Q23" s="9">
         <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R23" s="9">
         <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15199,7 +15183,7 @@
       </c>
       <c r="Q24" s="9">
         <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R24" s="9">
         <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15243,7 +15227,7 @@
       </c>
       <c r="Q25" s="9">
         <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R25" s="9">
         <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15287,7 +15271,7 @@
       </c>
       <c r="Q26" s="9">
         <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R26" s="9">
         <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15331,7 +15315,7 @@
       </c>
       <c r="Q27" s="9">
         <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R27" s="9">
         <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15375,7 +15359,7 @@
       </c>
       <c r="Q28" s="9">
         <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R28" s="9">
         <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15627,7 +15611,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -15640,7 +15624,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -15675,7 +15659,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15717,20 +15701,20 @@
         <v>51</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>91</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>71</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>72</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -15781,7 +15765,7 @@
       </c>
       <c r="Q11" s="9">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R11" s="9">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15825,7 +15809,7 @@
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R12" s="9">
         <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15869,7 +15853,7 @@
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R13" s="9">
         <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15913,7 +15897,7 @@
       </c>
       <c r="Q14" s="9">
         <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R14" s="9">
         <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15957,7 +15941,7 @@
       </c>
       <c r="Q15" s="9">
         <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R15" s="9">
         <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15978,7 +15962,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="23"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="82"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="8"/>
       <c r="I16" s="26"/>
       <c r="J16" s="10"/>
@@ -16001,7 +15985,7 @@
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R16" s="9">
         <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -16045,7 +16029,7 @@
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R17" s="9">
         <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -16089,7 +16073,7 @@
       </c>
       <c r="Q18" s="9">
         <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R18" s="9">
         <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -16133,7 +16117,7 @@
       </c>
       <c r="Q19" s="9">
         <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R19" s="9">
         <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -16177,7 +16161,7 @@
       </c>
       <c r="Q20" s="9">
         <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R20" s="9">
         <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -16221,7 +16205,7 @@
       </c>
       <c r="Q21" s="9">
         <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R21" s="9">
         <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -16265,7 +16249,7 @@
       </c>
       <c r="Q22" s="9">
         <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R22" s="9">
         <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -16309,7 +16293,7 @@
       </c>
       <c r="Q23" s="9">
         <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R23" s="9">
         <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>

--- a/benchmarktests/testdefinitions/Benchmartktest_traject 13-2.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 13-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BD9E56-E684-4F8C-836A-7A7F63919F33}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4447A6-DE8A-4B9B-8F9B-07C27E9443C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="1" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="137">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>Lengte-effect</t>
+  </si>
+  <si>
+    <t>Gecombineerd (tussentijds)</t>
   </si>
 </sst>
 </file>
@@ -2477,51 +2480,55 @@
   <sheetPr>
     <tabColor rgb="FF9900FF"/>
   </sheetPr>
-  <dimension ref="B1:K135"/>
+  <dimension ref="B1:L135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
       <c r="C2" s="14"/>
       <c r="D2" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="G2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="H2" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="I2" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="J2" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="K2" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="L2" s="49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -2529,39 +2536,43 @@
         <v>0.27700000000000002</v>
       </c>
       <c r="D3" s="22" t="str">
-        <f t="shared" ref="D3:D40" si="0">IF(COUNTIF(E3:K3,"D")&gt;0,"D",IF(COUNTIF(E3:K3,"-III")&gt;0,"-III",IF(COUNTIF(E3:K3,"-II")&gt;0,"-II",IF(COUNTIF(E3:K3,"-I")&gt;0,"-I",IF(COUNTIF(E3:K3,"+0")&gt;0,"+0",IF(COUNTIF(E3:K3,"+I")&gt;0,"+I",IF(COUNTIF(E3:K3,"+II")&gt;0,"+II",IF(COUNTIF(E3:K3,"+III")&gt;0,"+III","ND"))))))))</f>
+        <f t="shared" ref="D3:D40" si="0">IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND"))))))))</f>
         <v>+0</v>
       </c>
-      <c r="E3" s="4" t="str">
-        <f t="array" ref="E3">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B3,C3),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E3" s="22" t="str">
+        <f t="shared" ref="E3:E40" si="1">IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND")))))))</f>
+        <v>+0</v>
       </c>
       <c r="F3" s="4" t="str">
-        <f t="array" ref="F3">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B3,C3),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F3">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B3,C3),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="array" ref="G3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H3" s="4">
-        <f t="array" ref="H3">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B3,C3),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="str">
-        <f t="array" ref="I3">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B3,C3),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G3">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B3,C3),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f t="array" ref="H3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="array" ref="I3">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B3,C3),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="array" ref="J3">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B3,C3),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K3" s="7" t="str">
-        <f t="array" ref="K3">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B3,C3),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J3">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B3,C3),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K3" s="4" t="str">
+        <f t="array" ref="K3">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B3,C3),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L3" s="7" t="str">
+        <f t="array" ref="L3">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B3,C3),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <v>0.27700000000000002</v>
       </c>
@@ -2572,36 +2583,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E4" s="9" t="str">
-        <f t="array" ref="E4">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B4,C4),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E4" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F4" s="9" t="str">
-        <f t="array" ref="F4">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B4,C4),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F4">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B4,C4),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G4" s="9" t="str">
-        <f t="array" ref="G4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H4" s="9">
-        <f t="array" ref="H4">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B4,C4),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="9" t="str">
-        <f t="array" ref="I4">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B4,C4),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G4">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B4,C4),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H4" s="9" t="str">
+        <f t="array" ref="H4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="array" ref="I4">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B4,C4),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J4" s="9" t="str">
-        <f t="array" ref="J4">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B4,C4),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K4" s="12" t="str">
-        <f t="array" ref="K4">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B4,C4),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J4">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B4,C4),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K4" s="9" t="str">
+        <f t="array" ref="K4">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B4,C4),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L4" s="12" t="str">
+        <f t="array" ref="L4">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B4,C4),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>0.53200000000000003</v>
       </c>
@@ -2612,36 +2627,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E5" s="9" t="str">
-        <f t="array" ref="E5">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B5,C5),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E5" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F5" s="9" t="str">
-        <f t="array" ref="F5">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B5,C5),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F5">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B5,C5),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G5" s="9" t="str">
-        <f t="array" ref="G5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H5" s="9">
-        <f t="array" ref="H5">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B5,C5),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="str">
-        <f t="array" ref="I5">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B5,C5),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G5">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B5,C5),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H5" s="9" t="str">
+        <f t="array" ref="H5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="array" ref="I5">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B5,C5),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J5" s="9" t="str">
-        <f t="array" ref="J5">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B5,C5),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K5" s="12" t="str">
-        <f t="array" ref="K5">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B5,C5),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J5">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B5,C5),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K5" s="9" t="str">
+        <f t="array" ref="K5">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B5,C5),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L5" s="12" t="str">
+        <f t="array" ref="L5">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B5,C5),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>0.755</v>
       </c>
@@ -2652,36 +2671,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E6" s="9" t="str">
-        <f t="array" ref="E6">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B6,C6),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E6" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F6" s="9" t="str">
-        <f t="array" ref="F6">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B6,C6),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F6">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B6,C6),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G6" s="9" t="str">
-        <f t="array" ref="G6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H6" s="9">
-        <f t="array" ref="H6">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B6,C6),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="str">
-        <f t="array" ref="I6">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B6,C6),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G6">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B6,C6),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H6" s="9" t="str">
+        <f t="array" ref="H6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="array" ref="I6">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B6,C6),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J6" s="9" t="str">
-        <f t="array" ref="J6">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B6,C6),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K6" s="12" t="str">
-        <f t="array" ref="K6">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B6,C6),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J6">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B6,C6),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K6" s="9" t="str">
+        <f t="array" ref="K6">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B6,C6),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L6" s="12" t="str">
+        <f t="array" ref="L6">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B6,C6),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>0.91300000000000003</v>
       </c>
@@ -2692,36 +2715,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E7" s="9" t="str">
-        <f t="array" ref="E7">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B7,C7),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E7" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F7" s="9" t="str">
-        <f t="array" ref="F7">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B7,C7),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F7">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B7,C7),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G7" s="9" t="str">
-        <f t="array" ref="G7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H7" s="9">
-        <f t="array" ref="H7">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B7,C7),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="9" t="str">
-        <f t="array" ref="I7">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G7">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B7,C7),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H7" s="9" t="str">
+        <f t="array" ref="H7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="array" ref="I7">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B7,C7),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J7" s="9" t="str">
-        <f t="array" ref="J7">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B7,C7),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K7" s="12" t="str">
-        <f t="array" ref="K7">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B7,C7),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J7">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K7" s="9" t="str">
+        <f t="array" ref="K7">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B7,C7),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f t="array" ref="L7">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B7,C7),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>1.0509999999999999</v>
       </c>
@@ -2732,36 +2759,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E8" s="9" t="str">
-        <f t="array" ref="E8">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B8,C8),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E8" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F8" s="9" t="str">
-        <f t="array" ref="F8">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B8,C8),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F8">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B8,C8),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G8" s="9" t="str">
-        <f t="array" ref="G8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H8" s="9">
-        <f t="array" ref="H8">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B8,C8),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="9" t="str">
-        <f t="array" ref="I8">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B8,C8),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G8">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B8,C8),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H8" s="9" t="str">
+        <f t="array" ref="H8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="array" ref="I8">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B8,C8),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J8" s="9" t="str">
-        <f t="array" ref="J8">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B8,C8),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K8" s="12" t="str">
-        <f t="array" ref="K8">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B8,C8),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J8">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B8,C8),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K8" s="9" t="str">
+        <f t="array" ref="K8">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B8,C8),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L8" s="12" t="str">
+        <f t="array" ref="L8">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B8,C8),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>1.214</v>
       </c>
@@ -2772,36 +2803,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E9" s="9" t="str">
-        <f t="array" ref="E9">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B9,C9),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E9" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F9" s="9" t="str">
-        <f t="array" ref="F9">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B9,C9),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F9">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B9,C9),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G9" s="9" t="str">
-        <f t="array" ref="G9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H9" s="9">
-        <f t="array" ref="H9">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B9,C9),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="9" t="str">
-        <f t="array" ref="I9">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G9">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B9,C9),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H9" s="9" t="str">
+        <f t="array" ref="H9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="array" ref="I9">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B9,C9),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J9" s="9" t="str">
-        <f t="array" ref="J9">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B9,C9),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K9" s="12" t="str">
-        <f t="array" ref="K9">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B9,C9),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J9">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K9" s="9" t="str">
+        <f t="array" ref="K9">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B9,C9),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L9" s="12" t="str">
+        <f t="array" ref="L9">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B9,C9),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <v>1.383</v>
       </c>
@@ -2812,36 +2847,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E10" s="9" t="str">
-        <f t="array" ref="E10">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B10,C10),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E10" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F10" s="9" t="str">
-        <f t="array" ref="F10">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B10,C10),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F10">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B10,C10),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G10" s="9" t="str">
-        <f t="array" ref="G10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H10" s="9">
-        <f t="array" ref="H10">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B10,C10),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="9" t="str">
-        <f t="array" ref="I10">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B10,C10),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G10">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B10,C10),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H10" s="9" t="str">
+        <f t="array" ref="H10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="array" ref="I10">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B10,C10),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J10" s="9" t="str">
-        <f t="array" ref="J10">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B10,C10),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K10" s="12" t="str">
-        <f t="array" ref="K10">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B10,C10),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J10">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B10,C10),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K10" s="9" t="str">
+        <f t="array" ref="K10">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B10,C10),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L10" s="12" t="str">
+        <f t="array" ref="L10">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B10,C10),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <v>1.5289999999999999</v>
       </c>
@@ -2852,36 +2891,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E11" s="9" t="str">
-        <f t="array" ref="E11">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B11,C11),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E11" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F11" s="9" t="str">
-        <f t="array" ref="F11">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B11,C11),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F11">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B11,C11),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G11" s="9" t="str">
-        <f t="array" ref="G11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H11" s="9">
-        <f t="array" ref="H11">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B11,C11),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="9" t="str">
-        <f t="array" ref="I11">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G11">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B11,C11),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H11" s="9" t="str">
+        <f t="array" ref="H11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="array" ref="I11">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B11,C11),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J11" s="9" t="str">
-        <f t="array" ref="J11">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B11,C11),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K11" s="12" t="str">
-        <f t="array" ref="K11">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B11,C11),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J11">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K11" s="9" t="str">
+        <f t="array" ref="K11">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B11,C11),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L11" s="12" t="str">
+        <f t="array" ref="L11">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B11,C11),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>1.661</v>
       </c>
@@ -2892,36 +2935,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E12" s="9" t="str">
-        <f t="array" ref="E12">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B12,C12),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E12" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F12" s="9" t="str">
-        <f t="array" ref="F12">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B12,C12),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F12">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B12,C12),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G12" s="9" t="str">
-        <f t="array" ref="G12">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B12,C12),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H12" s="9">
-        <f t="array" ref="H12">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B12,C12),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="9" t="str">
-        <f t="array" ref="I12">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B12,C12),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G12">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B12,C12),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H12" s="9" t="str">
+        <f t="array" ref="H12">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B12,C12),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="array" ref="I12">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B12,C12),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J12" s="9" t="str">
-        <f t="array" ref="J12">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B12,C12),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K12" s="12" t="str">
-        <f t="array" ref="K12">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B12,C12),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J12">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B12,C12),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K12" s="9" t="str">
+        <f t="array" ref="K12">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B12,C12),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L12" s="12" t="str">
+        <f t="array" ref="L12">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B12,C12),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>1.79</v>
       </c>
@@ -2932,36 +2979,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E13" s="9" t="str">
-        <f t="array" ref="E13">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B13,C13),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E13" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F13" s="9" t="str">
-        <f t="array" ref="F13">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B13,C13),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F13">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B13,C13),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G13" s="9" t="str">
-        <f t="array" ref="G13">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B13,C13),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H13" s="9">
-        <f t="array" ref="H13">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B13,C13),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="9" t="str">
-        <f t="array" ref="I13">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B13,C13),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G13">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B13,C13),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H13" s="9" t="str">
+        <f t="array" ref="H13">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B13,C13),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="array" ref="I13">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B13,C13),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J13" s="9" t="str">
-        <f t="array" ref="J13">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B13,C13),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K13" s="12" t="str">
-        <f t="array" ref="K13">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B13,C13),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J13">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B13,C13),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K13" s="9" t="str">
+        <f t="array" ref="K13">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B13,C13),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L13" s="12" t="str">
+        <f t="array" ref="L13">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B13,C13),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>1.929</v>
       </c>
@@ -2972,36 +3023,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E14" s="9" t="str">
-        <f t="array" ref="E14">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B14,C14),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E14" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F14" s="9" t="str">
-        <f t="array" ref="F14">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B14,C14),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F14">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B14,C14),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G14" s="9" t="str">
-        <f t="array" ref="G14">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B14,C14),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H14" s="9">
-        <f t="array" ref="H14">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B14,C14),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="9" t="str">
-        <f t="array" ref="I14">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B14,C14),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G14">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B14,C14),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H14" s="9" t="str">
+        <f t="array" ref="H14">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B14,C14),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="array" ref="I14">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B14,C14),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J14" s="9" t="str">
-        <f t="array" ref="J14">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B14,C14),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K14" s="12" t="str">
-        <f t="array" ref="K14">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B14,C14),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J14">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B14,C14),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K14" s="9" t="str">
+        <f t="array" ref="K14">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B14,C14),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L14" s="12" t="str">
+        <f t="array" ref="L14">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B14,C14),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>2.0910000000000002</v>
       </c>
@@ -3012,36 +3067,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E15" s="9" t="str">
-        <f t="array" ref="E15">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B15,C15),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E15" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F15" s="9" t="str">
-        <f t="array" ref="F15">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B15,C15),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F15">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B15,C15),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G15" s="9" t="str">
-        <f t="array" ref="G15">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B15,C15),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H15" s="9">
-        <f t="array" ref="H15">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B15,C15),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="9" t="str">
-        <f t="array" ref="I15">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B15,C15),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G15">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B15,C15),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H15" s="9" t="str">
+        <f t="array" ref="H15">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B15,C15),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I15" s="9">
+        <f t="array" ref="I15">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B15,C15),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J15" s="9" t="str">
-        <f t="array" ref="J15">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B15,C15),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K15" s="12" t="str">
-        <f t="array" ref="K15">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B15,C15),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J15">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B15,C15),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K15" s="9" t="str">
+        <f t="array" ref="K15">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B15,C15),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L15" s="12" t="str">
+        <f t="array" ref="L15">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B15,C15),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>2.254</v>
       </c>
@@ -3052,36 +3111,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E16" s="9" t="str">
-        <f t="array" ref="E16">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B16,C16),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E16" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F16" s="9" t="str">
-        <f t="array" ref="F16">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B16,C16),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F16">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B16,C16),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G16" s="9" t="str">
-        <f t="array" ref="G16">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B16,C16),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H16" s="9">
-        <f t="array" ref="H16">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B16,C16),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="9" t="str">
-        <f t="array" ref="I16">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B16,C16),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G16">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B16,C16),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H16" s="9" t="str">
+        <f t="array" ref="H16">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B16,C16),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="array" ref="I16">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B16,C16),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J16" s="9" t="str">
-        <f t="array" ref="J16">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B16,C16),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K16" s="12" t="str">
-        <f t="array" ref="K16">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B16,C16),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J16">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B16,C16),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K16" s="9" t="str">
+        <f t="array" ref="K16">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B16,C16),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L16" s="12" t="str">
+        <f t="array" ref="L16">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B16,C16),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>2.395</v>
       </c>
@@ -3092,36 +3155,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E17" s="9" t="str">
-        <f t="array" ref="E17">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B17,C17),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E17" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F17" s="9" t="str">
-        <f t="array" ref="F17">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B17,C17),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F17">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B17,C17),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G17" s="9" t="str">
-        <f t="array" ref="G17">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B17,C17),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H17" s="9">
-        <f t="array" ref="H17">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B17,C17),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="9" t="str">
-        <f t="array" ref="I17">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B17,C17),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G17">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B17,C17),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H17" s="9" t="str">
+        <f t="array" ref="H17">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B17,C17),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I17" s="9">
+        <f t="array" ref="I17">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B17,C17),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J17" s="9" t="str">
-        <f t="array" ref="J17">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B17,C17),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K17" s="12" t="str">
-        <f t="array" ref="K17">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B17,C17),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J17">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B17,C17),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K17" s="9" t="str">
+        <f t="array" ref="K17">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B17,C17),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L17" s="12" t="str">
+        <f t="array" ref="L17">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B17,C17),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>2.524</v>
       </c>
@@ -3132,36 +3199,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E18" s="9" t="str">
-        <f t="array" ref="E18">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B18,C18),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E18" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F18" s="9" t="str">
-        <f t="array" ref="F18">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B18,C18),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F18">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B18,C18),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G18" s="9" t="str">
-        <f t="array" ref="G18">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B18,C18),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H18" s="9">
-        <f t="array" ref="H18">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B18,C18),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="9" t="str">
-        <f t="array" ref="I18">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B18,C18),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G18">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B18,C18),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H18" s="9" t="str">
+        <f t="array" ref="H18">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B18,C18),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="array" ref="I18">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B18,C18),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J18" s="9" t="str">
-        <f t="array" ref="J18">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B18,C18),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K18" s="12" t="str">
-        <f t="array" ref="K18">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B18,C18),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J18">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B18,C18),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K18" s="9" t="str">
+        <f t="array" ref="K18">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B18,C18),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L18" s="12" t="str">
+        <f t="array" ref="L18">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B18,C18),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <v>2.6560000000000001</v>
       </c>
@@ -3172,36 +3243,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E19" s="9" t="str">
-        <f t="array" ref="E19">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B19,C19),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E19" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F19" s="9" t="str">
-        <f t="array" ref="F19">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B19,C19),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F19">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B19,C19),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G19" s="9" t="str">
-        <f t="array" ref="G19">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B19,C19),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H19" s="9">
-        <f t="array" ref="H19">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B19,C19),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="9" t="str">
-        <f t="array" ref="I19">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B19,C19),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G19">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B19,C19),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H19" s="9" t="str">
+        <f t="array" ref="H19">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B19,C19),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I19" s="9">
+        <f t="array" ref="I19">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B19,C19),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J19" s="9" t="str">
-        <f t="array" ref="J19">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B19,C19),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K19" s="12" t="str">
-        <f t="array" ref="K19">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B19,C19),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J19">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B19,C19),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K19" s="9" t="str">
+        <f t="array" ref="K19">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B19,C19),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L19" s="12" t="str">
+        <f t="array" ref="L19">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B19,C19),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <v>2.7959999999999998</v>
       </c>
@@ -3212,36 +3287,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E20" s="9" t="str">
-        <f t="array" ref="E20">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B20,C20),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E20" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F20" s="9" t="str">
-        <f t="array" ref="F20">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B20,C20),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F20">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B20,C20),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G20" s="9" t="str">
-        <f t="array" ref="G20">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B20,C20),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H20" s="9">
-        <f t="array" ref="H20">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B20,C20),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="9" t="str">
-        <f t="array" ref="I20">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B20,C20),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G20">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B20,C20),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H20" s="9" t="str">
+        <f t="array" ref="H20">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B20,C20),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I20" s="9">
+        <f t="array" ref="I20">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B20,C20),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J20" s="9" t="str">
-        <f t="array" ref="J20">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B20,C20),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K20" s="12" t="str">
-        <f t="array" ref="K20">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B20,C20),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J20">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B20,C20),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K20" s="9" t="str">
+        <f t="array" ref="K20">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B20,C20),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L20" s="12" t="str">
+        <f t="array" ref="L20">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B20,C20),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
         <v>2.9569999999999999</v>
       </c>
@@ -3252,36 +3331,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E21" s="9" t="str">
-        <f t="array" ref="E21">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B21,C21),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E21" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F21" s="9" t="str">
-        <f t="array" ref="F21">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B21,C21),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F21">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B21,C21),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G21" s="9" t="str">
-        <f t="array" ref="G21">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B21,C21),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H21" s="9">
-        <f t="array" ref="H21">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B21,C21),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="9" t="str">
-        <f t="array" ref="I21">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B21,C21),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G21">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B21,C21),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H21" s="9" t="str">
+        <f t="array" ref="H21">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B21,C21),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="array" ref="I21">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B21,C21),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J21" s="9" t="str">
-        <f t="array" ref="J21">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B21,C21),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K21" s="12" t="str">
-        <f t="array" ref="K21">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B21,C21),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J21">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B21,C21),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K21" s="9" t="str">
+        <f t="array" ref="K21">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B21,C21),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L21" s="12" t="str">
+        <f t="array" ref="L21">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B21,C21),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
         <v>3.129</v>
       </c>
@@ -3292,36 +3375,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E22" s="9" t="str">
-        <f t="array" ref="E22">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B22,C22),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E22" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F22" s="9" t="str">
-        <f t="array" ref="F22">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B22,C22),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F22">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B22,C22),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G22" s="9" t="str">
-        <f t="array" ref="G22">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B22,C22),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H22" s="9">
-        <f t="array" ref="H22">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B22,C22),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="9" t="str">
-        <f t="array" ref="I22">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B22,C22),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G22">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B22,C22),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H22" s="9" t="str">
+        <f t="array" ref="H22">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B22,C22),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="array" ref="I22">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B22,C22),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J22" s="9" t="str">
-        <f t="array" ref="J22">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B22,C22),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K22" s="12" t="str">
-        <f t="array" ref="K22">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B22,C22),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J22">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B22,C22),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K22" s="9" t="str">
+        <f t="array" ref="K22">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B22,C22),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L22" s="12" t="str">
+        <f t="array" ref="L22">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B22,C22),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
         <v>3.302</v>
       </c>
@@ -3332,36 +3419,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E23" s="9" t="str">
-        <f t="array" ref="E23">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B23,C23),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E23" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F23" s="9" t="str">
-        <f t="array" ref="F23">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B23,C23),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F23">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B23,C23),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G23" s="9" t="str">
-        <f t="array" ref="G23">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B23,C23),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H23" s="9">
-        <f t="array" ref="H23">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B23,C23),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="9" t="str">
-        <f t="array" ref="I23">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B23,C23),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G23">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B23,C23),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H23" s="9" t="str">
+        <f t="array" ref="H23">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B23,C23),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="array" ref="I23">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B23,C23),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J23" s="9" t="str">
-        <f t="array" ref="J23">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B23,C23),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K23" s="12" t="str">
-        <f t="array" ref="K23">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B23,C23),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J23">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B23,C23),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K23" s="9" t="str">
+        <f t="array" ref="K23">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B23,C23),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L23" s="12" t="str">
+        <f t="array" ref="L23">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B23,C23),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
         <v>3.4630000000000001</v>
       </c>
@@ -3372,36 +3463,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E24" s="9" t="str">
-        <f t="array" ref="E24">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B24,C24),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E24" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F24" s="9" t="str">
-        <f t="array" ref="F24">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B24,C24),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F24">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B24,C24),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G24" s="9" t="str">
-        <f t="array" ref="G24">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B24,C24),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H24" s="9">
-        <f t="array" ref="H24">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B24,C24),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="9" t="str">
-        <f t="array" ref="I24">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B24,C24),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G24">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B24,C24),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H24" s="9" t="str">
+        <f t="array" ref="H24">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B24,C24),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="array" ref="I24">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B24,C24),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J24" s="9" t="str">
-        <f t="array" ref="J24">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B24,C24),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K24" s="12" t="str">
-        <f t="array" ref="K24">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B24,C24),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J24">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B24,C24),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K24" s="9" t="str">
+        <f t="array" ref="K24">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B24,C24),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L24" s="12" t="str">
+        <f t="array" ref="L24">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B24,C24),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="8">
         <v>3.5960000000000001</v>
       </c>
@@ -3412,36 +3507,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E25" s="9" t="str">
-        <f t="array" ref="E25">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B25,C25),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E25" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F25" s="9" t="str">
-        <f t="array" ref="F25">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B25,C25),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F25">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B25,C25),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G25" s="9" t="str">
-        <f t="array" ref="G25">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B25,C25),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H25" s="9">
-        <f t="array" ref="H25">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B25,C25),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="9" t="str">
-        <f t="array" ref="I25">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B25,C25),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G25">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B25,C25),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H25" s="9" t="str">
+        <f t="array" ref="H25">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B25,C25),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="array" ref="I25">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B25,C25),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J25" s="9" t="str">
-        <f t="array" ref="J25">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B25,C25),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K25" s="12" t="str">
-        <f t="array" ref="K25">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B25,C25),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J25">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B25,C25),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K25" s="9" t="str">
+        <f t="array" ref="K25">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B25,C25),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L25" s="12" t="str">
+        <f t="array" ref="L25">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B25,C25),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
         <v>3.726</v>
       </c>
@@ -3452,36 +3551,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E26" s="9" t="str">
-        <f t="array" ref="E26">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B26,C26),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E26" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F26" s="9" t="str">
-        <f t="array" ref="F26">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B26,C26),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F26">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B26,C26),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G26" s="9" t="str">
-        <f t="array" ref="G26">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B26,C26),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H26" s="9">
-        <f t="array" ref="H26">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B26,C26),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="9" t="str">
-        <f t="array" ref="I26">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B26,C26),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G26">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B26,C26),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H26" s="9" t="str">
+        <f t="array" ref="H26">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B26,C26),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="array" ref="I26">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B26,C26),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J26" s="9" t="str">
-        <f t="array" ref="J26">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B26,C26),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K26" s="12" t="str">
-        <f t="array" ref="K26">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B26,C26),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J26">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B26,C26),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K26" s="9" t="str">
+        <f t="array" ref="K26">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B26,C26),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L26" s="12" t="str">
+        <f t="array" ref="L26">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B26,C26),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
         <v>3.8559999999999999</v>
       </c>
@@ -3492,36 +3595,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E27" s="9" t="str">
-        <f t="array" ref="E27">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B27,C27),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E27" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F27" s="9" t="str">
-        <f t="array" ref="F27">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B27,C27),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F27">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B27,C27),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G27" s="9" t="str">
-        <f t="array" ref="G27">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B27,C27),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H27" s="9">
-        <f t="array" ref="H27">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B27,C27),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="9" t="str">
-        <f t="array" ref="I27">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B27,C27),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G27">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B27,C27),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H27" s="9" t="str">
+        <f t="array" ref="H27">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B27,C27),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="array" ref="I27">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B27,C27),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J27" s="9" t="str">
-        <f t="array" ref="J27">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B27,C27),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K27" s="12" t="str">
-        <f t="array" ref="K27">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B27,C27),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J27">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B27,C27),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K27" s="9" t="str">
+        <f t="array" ref="K27">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B27,C27),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L27" s="12" t="str">
+        <f t="array" ref="L27">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B27,C27),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
         <v>3.9809999999999999</v>
       </c>
@@ -3532,36 +3639,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E28" s="9" t="str">
-        <f t="array" ref="E28">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B28,C28),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E28" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F28" s="9" t="str">
-        <f t="array" ref="F28">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B28,C28),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F28">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B28,C28),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G28" s="9" t="str">
-        <f t="array" ref="G28">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B28,C28),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H28" s="9">
-        <f t="array" ref="H28">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B28,C28),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="9" t="str">
-        <f t="array" ref="I28">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B28,C28),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G28">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B28,C28),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H28" s="9" t="str">
+        <f t="array" ref="H28">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B28,C28),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="array" ref="I28">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B28,C28),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J28" s="9" t="str">
-        <f t="array" ref="J28">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B28,C28),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K28" s="12" t="str">
-        <f t="array" ref="K28">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B28,C28),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J28">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B28,C28),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K28" s="9" t="str">
+        <f t="array" ref="K28">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B28,C28),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L28" s="12" t="str">
+        <f t="array" ref="L28">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B28,C28),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="8">
         <v>4.1050000000000004</v>
       </c>
@@ -3572,36 +3683,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E29" s="9" t="str">
-        <f t="array" ref="E29">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B29,C29),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E29" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F29" s="9" t="str">
-        <f t="array" ref="F29">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B29,C29),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F29">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B29,C29),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G29" s="9" t="str">
-        <f t="array" ref="G29">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B29,C29),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H29" s="9">
-        <f t="array" ref="H29">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B29,C29),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="9" t="str">
-        <f t="array" ref="I29">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B29,C29),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G29">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B29,C29),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H29" s="9" t="str">
+        <f t="array" ref="H29">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B29,C29),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I29" s="9">
+        <f t="array" ref="I29">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B29,C29),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J29" s="9" t="str">
-        <f t="array" ref="J29">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B29,C29),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K29" s="12" t="str">
-        <f t="array" ref="K29">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B29,C29),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J29">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B29,C29),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K29" s="9" t="str">
+        <f t="array" ref="K29">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B29,C29),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L29" s="12" t="str">
+        <f t="array" ref="L29">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B29,C29),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="8">
         <v>4.2359999999999998</v>
       </c>
@@ -3612,36 +3727,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E30" s="9" t="str">
-        <f t="array" ref="E30">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B30,C30),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E30" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F30" s="9" t="str">
-        <f t="array" ref="F30">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B30,C30),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F30">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B30,C30),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G30" s="9" t="str">
-        <f t="array" ref="G30">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B30,C30),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H30" s="9">
-        <f t="array" ref="H30">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B30,C30),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="9" t="str">
-        <f t="array" ref="I30">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B30,C30),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G30">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B30,C30),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H30" s="9" t="str">
+        <f t="array" ref="H30">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B30,C30),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I30" s="9">
+        <f t="array" ref="I30">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B30,C30),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J30" s="9" t="str">
-        <f t="array" ref="J30">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B30,C30),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K30" s="12" t="str">
-        <f t="array" ref="K30">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B30,C30),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J30">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B30,C30),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K30" s="9" t="str">
+        <f t="array" ref="K30">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B30,C30),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L30" s="12" t="str">
+        <f t="array" ref="L30">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B30,C30),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
         <v>4.38</v>
       </c>
@@ -3652,36 +3771,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E31" s="9" t="str">
-        <f t="array" ref="E31">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B31,C31),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E31" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F31" s="9" t="str">
-        <f t="array" ref="F31">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B31,C31),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F31">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B31,C31),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G31" s="9" t="str">
-        <f t="array" ref="G31">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B31,C31),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H31" s="9">
-        <f t="array" ref="H31">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B31,C31),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="9" t="str">
-        <f t="array" ref="I31">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B31,C31),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G31">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B31,C31),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H31" s="9" t="str">
+        <f t="array" ref="H31">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B31,C31),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="array" ref="I31">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B31,C31),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J31" s="9" t="str">
-        <f t="array" ref="J31">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B31,C31),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K31" s="12" t="str">
-        <f t="array" ref="K31">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B31,C31),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J31">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B31,C31),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K31" s="9" t="str">
+        <f t="array" ref="K31">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B31,C31),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L31" s="12" t="str">
+        <f t="array" ref="L31">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B31,C31),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="8">
         <v>4.5129999999999999</v>
       </c>
@@ -3692,36 +3815,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E32" s="9" t="str">
-        <f t="array" ref="E32">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B32,C32),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E32" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F32" s="9" t="str">
-        <f t="array" ref="F32">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B32,C32),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F32">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B32,C32),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G32" s="9" t="str">
-        <f t="array" ref="G32">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B32,C32),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H32" s="9">
-        <f t="array" ref="H32">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B32,C32),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="9" t="str">
-        <f t="array" ref="I32">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B32,C32),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G32">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B32,C32),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H32" s="9" t="str">
+        <f t="array" ref="H32">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B32,C32),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="array" ref="I32">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B32,C32),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J32" s="9" t="str">
-        <f t="array" ref="J32">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B32,C32),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K32" s="12" t="str">
-        <f t="array" ref="K32">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B32,C32),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J32">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B32,C32),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K32" s="9" t="str">
+        <f t="array" ref="K32">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B32,C32),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L32" s="12" t="str">
+        <f t="array" ref="L32">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B32,C32),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="8">
         <v>4.6340000000000003</v>
       </c>
@@ -3732,36 +3859,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E33" s="9" t="str">
-        <f t="array" ref="E33">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B33,C33),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E33" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F33" s="9" t="str">
-        <f t="array" ref="F33">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B33,C33),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F33">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B33,C33),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G33" s="9" t="str">
-        <f t="array" ref="G33">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B33,C33),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H33" s="9">
-        <f t="array" ref="H33">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B33,C33),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="9" t="str">
-        <f t="array" ref="I33">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B33,C33),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G33">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B33,C33),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H33" s="9" t="str">
+        <f t="array" ref="H33">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B33,C33),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="array" ref="I33">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B33,C33),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J33" s="9" t="str">
-        <f t="array" ref="J33">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B33,C33),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K33" s="12" t="str">
-        <f t="array" ref="K33">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B33,C33),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J33">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B33,C33),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K33" s="9" t="str">
+        <f t="array" ref="K33">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B33,C33),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L33" s="12" t="str">
+        <f t="array" ref="L33">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B33,C33),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="8">
         <v>4.7480000000000002</v>
       </c>
@@ -3772,36 +3903,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E34" s="9" t="str">
-        <f t="array" ref="E34">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B34,C34),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E34" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F34" s="9" t="str">
-        <f t="array" ref="F34">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B34,C34),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F34">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B34,C34),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G34" s="9" t="str">
-        <f t="array" ref="G34">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B34,C34),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H34" s="9">
-        <f t="array" ref="H34">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B34,C34),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="9" t="str">
-        <f t="array" ref="I34">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B34,C34),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G34">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B34,C34),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H34" s="9" t="str">
+        <f t="array" ref="H34">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B34,C34),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I34" s="9">
+        <f t="array" ref="I34">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B34,C34),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J34" s="9" t="str">
-        <f t="array" ref="J34">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B34,C34),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K34" s="12" t="str">
-        <f t="array" ref="K34">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B34,C34),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J34">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B34,C34),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K34" s="9" t="str">
+        <f t="array" ref="K34">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B34,C34),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L34" s="12" t="str">
+        <f t="array" ref="L34">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B34,C34),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="8">
         <v>4.8609999999999998</v>
       </c>
@@ -3812,36 +3947,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E35" s="9" t="str">
-        <f t="array" ref="E35">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B35,C35),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E35" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F35" s="9" t="str">
-        <f t="array" ref="F35">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B35,C35),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F35">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B35,C35),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G35" s="9" t="str">
-        <f t="array" ref="G35">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B35,C35),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H35" s="9">
-        <f t="array" ref="H35">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B35,C35),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="9" t="str">
-        <f t="array" ref="I35">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B35,C35),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G35">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B35,C35),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H35" s="9" t="str">
+        <f t="array" ref="H35">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B35,C35),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="array" ref="I35">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B35,C35),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J35" s="9" t="str">
-        <f t="array" ref="J35">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B35,C35),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K35" s="12" t="str">
-        <f t="array" ref="K35">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B35,C35),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J35">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B35,C35),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K35" s="9" t="str">
+        <f t="array" ref="K35">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B35,C35),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L35" s="12" t="str">
+        <f t="array" ref="L35">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B35,C35),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
         <v>4.9749999999999996</v>
       </c>
@@ -3852,36 +3991,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E36" s="9" t="str">
-        <f t="array" ref="E36">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B36,C36),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F36" s="9" t="str">
-        <f t="array" ref="F36">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B36,C36),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F36">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B36,C36),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G36" s="9" t="str">
-        <f t="array" ref="G36">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B36,C36),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H36" s="9">
-        <f t="array" ref="H36">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B36,C36),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="9" t="str">
-        <f t="array" ref="I36">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B36,C36),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G36">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B36,C36),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H36" s="9" t="str">
+        <f t="array" ref="H36">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B36,C36),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I36" s="9">
+        <f t="array" ref="I36">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B36,C36),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J36" s="9" t="str">
-        <f t="array" ref="J36">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B36,C36),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K36" s="12" t="str">
-        <f t="array" ref="K36">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B36,C36),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J36">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B36,C36),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K36" s="9" t="str">
+        <f t="array" ref="K36">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B36,C36),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L36" s="12" t="str">
+        <f t="array" ref="L36">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B36,C36),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="8">
         <v>5.0910000000000002</v>
       </c>
@@ -3892,36 +4035,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E37" s="9" t="str">
-        <f t="array" ref="E37">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B37,C37),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E37" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F37" s="9" t="str">
-        <f t="array" ref="F37">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B37,C37),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F37">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B37,C37),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G37" s="9" t="str">
-        <f t="array" ref="G37">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B37,C37),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H37" s="9">
-        <f t="array" ref="H37">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B37,C37),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="9" t="str">
-        <f t="array" ref="I37">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B37,C37),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G37">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B37,C37),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H37" s="9" t="str">
+        <f t="array" ref="H37">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B37,C37),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I37" s="9">
+        <f t="array" ref="I37">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B37,C37),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J37" s="9" t="str">
-        <f t="array" ref="J37">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B37,C37),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K37" s="12" t="str">
-        <f t="array" ref="K37">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B37,C37),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J37">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B37,C37),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K37" s="9" t="str">
+        <f t="array" ref="K37">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B37,C37),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L37" s="12" t="str">
+        <f t="array" ref="L37">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B37,C37),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="8">
         <v>5.2140000000000004</v>
       </c>
@@ -3932,36 +4079,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E38" s="9" t="str">
-        <f t="array" ref="E38">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B38,C38),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E38" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F38" s="9" t="str">
-        <f t="array" ref="F38">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B38,C38),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F38">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B38,C38),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G38" s="9" t="str">
-        <f t="array" ref="G38">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B38,C38),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H38" s="9">
-        <f t="array" ref="H38">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B38,C38),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="9" t="str">
-        <f t="array" ref="I38">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B38,C38),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G38">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B38,C38),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H38" s="9" t="str">
+        <f t="array" ref="H38">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B38,C38),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I38" s="9">
+        <f t="array" ref="I38">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B38,C38),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J38" s="9" t="str">
-        <f t="array" ref="J38">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B38,C38),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K38" s="12" t="str">
-        <f t="array" ref="K38">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B38,C38),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J38">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B38,C38),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K38" s="9" t="str">
+        <f t="array" ref="K38">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B38,C38),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L38" s="12" t="str">
+        <f t="array" ref="L38">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B38,C38),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="8">
         <v>5.3390000000000004</v>
       </c>
@@ -3972,36 +4123,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E39" s="9" t="str">
-        <f t="array" ref="E39">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B39,C39),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E39" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F39" s="9" t="str">
-        <f t="array" ref="F39">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B39,C39),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F39">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B39,C39),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G39" s="9" t="str">
-        <f t="array" ref="G39">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B39,C39),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H39" s="9">
-        <f t="array" ref="H39">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B39,C39),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="9" t="str">
-        <f t="array" ref="I39">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B39,C39),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G39">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B39,C39),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H39" s="9" t="str">
+        <f t="array" ref="H39">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B39,C39),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I39" s="9">
+        <f t="array" ref="I39">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B39,C39),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J39" s="9" t="str">
-        <f t="array" ref="J39">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B39,C39),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K39" s="12" t="str">
-        <f t="array" ref="K39">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B39,C39),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J39">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B39,C39),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K39" s="9" t="str">
+        <f t="array" ref="K39">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B39,C39),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L39" s="12" t="str">
+        <f t="array" ref="L39">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B39,C39),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="8">
         <v>5.4950000000000001</v>
       </c>
@@ -4012,844 +4167,914 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E40" s="9" t="str">
-        <f t="array" ref="E40">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B40,C40),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E40" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
       </c>
       <c r="F40" s="9" t="str">
-        <f t="array" ref="F40">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B40,C40),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F40">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B40,C40),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G40" s="9" t="str">
-        <f t="array" ref="G40">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B40,C40),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H40" s="9">
-        <f t="array" ref="H40">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B40,C40),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="9" t="str">
-        <f t="array" ref="I40">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B40,C40),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G40">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B40,C40),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H40" s="9" t="str">
+        <f t="array" ref="H40">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B40,C40),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I40" s="9">
+        <f t="array" ref="I40">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B40,C40),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
+        <v>0</v>
       </c>
       <c r="J40" s="9" t="str">
-        <f t="array" ref="J40">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B40,C40),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K40" s="12" t="str">
-        <f t="array" ref="K40">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B40,C40),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J40">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B40,C40),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K40" s="9" t="str">
+        <f t="array" ref="K40">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B40,C40),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L40" s="12" t="str">
+        <f t="array" ref="L40">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B40,C40),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
       <c r="D41" s="23"/>
-      <c r="E41" s="9"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="12"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="9"/>
+      <c r="L41" s="12"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
       <c r="D42" s="23"/>
-      <c r="E42" s="9"/>
+      <c r="E42" s="23"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="12"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="9"/>
+      <c r="L42" s="12"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
       <c r="D43" s="23"/>
-      <c r="E43" s="9"/>
+      <c r="E43" s="23"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
-      <c r="K43" s="12"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="9"/>
+      <c r="L43" s="12"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
       <c r="D44" s="23"/>
-      <c r="E44" s="9"/>
+      <c r="E44" s="23"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
-      <c r="K44" s="12"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="9"/>
+      <c r="L44" s="12"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
       <c r="D45" s="23"/>
-      <c r="E45" s="9"/>
+      <c r="E45" s="23"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
-      <c r="K45" s="12"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="9"/>
+      <c r="L45" s="12"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
       <c r="D46" s="23"/>
-      <c r="E46" s="9"/>
+      <c r="E46" s="23"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
-      <c r="K46" s="12"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="9"/>
+      <c r="L46" s="12"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
       <c r="D47" s="23"/>
-      <c r="E47" s="9"/>
+      <c r="E47" s="23"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
-      <c r="K47" s="12"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="9"/>
+      <c r="L47" s="12"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
       <c r="D48" s="23"/>
-      <c r="E48" s="9"/>
+      <c r="E48" s="23"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
-      <c r="K48" s="12"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K48" s="9"/>
+      <c r="L48" s="12"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
       <c r="D49" s="23"/>
-      <c r="E49" s="9"/>
+      <c r="E49" s="23"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
-      <c r="K49" s="12"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="9"/>
+      <c r="L49" s="12"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
       <c r="D50" s="23"/>
-      <c r="E50" s="9"/>
+      <c r="E50" s="23"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
-      <c r="K50" s="12"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="9"/>
+      <c r="L50" s="12"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
       <c r="D51" s="23"/>
-      <c r="E51" s="9"/>
+      <c r="E51" s="23"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
-      <c r="K51" s="12"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K51" s="9"/>
+      <c r="L51" s="12"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
       <c r="D52" s="23"/>
-      <c r="E52" s="9"/>
+      <c r="E52" s="23"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
-      <c r="K52" s="12"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K52" s="9"/>
+      <c r="L52" s="12"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
       <c r="D53" s="23"/>
-      <c r="E53" s="9"/>
+      <c r="E53" s="23"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
-      <c r="K53" s="12"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="9"/>
+      <c r="L53" s="12"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
       <c r="D54" s="23"/>
-      <c r="E54" s="9"/>
+      <c r="E54" s="23"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
-      <c r="K54" s="12"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K54" s="9"/>
+      <c r="L54" s="12"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
       <c r="D55" s="23"/>
-      <c r="E55" s="9"/>
+      <c r="E55" s="23"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
-      <c r="K55" s="12"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K55" s="9"/>
+      <c r="L55" s="12"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
       <c r="D56" s="23"/>
-      <c r="E56" s="9"/>
+      <c r="E56" s="23"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
-      <c r="K56" s="12"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K56" s="9"/>
+      <c r="L56" s="12"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
       <c r="D57" s="23"/>
-      <c r="E57" s="9"/>
+      <c r="E57" s="23"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
-      <c r="K57" s="12"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="9"/>
+      <c r="L57" s="12"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
       <c r="D58" s="23"/>
-      <c r="E58" s="9"/>
+      <c r="E58" s="23"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
-      <c r="K58" s="12"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K58" s="9"/>
+      <c r="L58" s="12"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
       <c r="D59" s="23"/>
-      <c r="E59" s="9"/>
+      <c r="E59" s="23"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
-      <c r="K59" s="12"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K59" s="9"/>
+      <c r="L59" s="12"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
       <c r="D60" s="23"/>
-      <c r="E60" s="9"/>
+      <c r="E60" s="23"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
-      <c r="K60" s="12"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K60" s="9"/>
+      <c r="L60" s="12"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
       <c r="D61" s="23"/>
-      <c r="E61" s="9"/>
+      <c r="E61" s="23"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
-      <c r="K61" s="12"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K61" s="9"/>
+      <c r="L61" s="12"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
       <c r="D62" s="23"/>
-      <c r="E62" s="9"/>
+      <c r="E62" s="23"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
-      <c r="K62" s="12"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K62" s="9"/>
+      <c r="L62" s="12"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
       <c r="C63" s="9"/>
       <c r="D63" s="23"/>
-      <c r="E63" s="9"/>
+      <c r="E63" s="23"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
-      <c r="K63" s="12"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K63" s="9"/>
+      <c r="L63" s="12"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
       <c r="D64" s="23"/>
-      <c r="E64" s="9"/>
+      <c r="E64" s="23"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
-      <c r="K64" s="12"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="9"/>
+      <c r="L64" s="12"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
       <c r="D65" s="23"/>
-      <c r="E65" s="9"/>
+      <c r="E65" s="23"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
-      <c r="K65" s="12"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K65" s="9"/>
+      <c r="L65" s="12"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
       <c r="D66" s="23"/>
-      <c r="E66" s="9"/>
+      <c r="E66" s="23"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
-      <c r="K66" s="12"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K66" s="9"/>
+      <c r="L66" s="12"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
       <c r="D67" s="23"/>
-      <c r="E67" s="9"/>
+      <c r="E67" s="23"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
-      <c r="K67" s="12"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K67" s="9"/>
+      <c r="L67" s="12"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
       <c r="C68" s="9"/>
       <c r="D68" s="23"/>
-      <c r="E68" s="9"/>
+      <c r="E68" s="23"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
-      <c r="K68" s="12"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K68" s="9"/>
+      <c r="L68" s="12"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
       <c r="D69" s="23"/>
-      <c r="E69" s="9"/>
+      <c r="E69" s="23"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
-      <c r="K69" s="12"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K69" s="9"/>
+      <c r="L69" s="12"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="C70" s="9"/>
       <c r="D70" s="23"/>
-      <c r="E70" s="9"/>
+      <c r="E70" s="23"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
-      <c r="K70" s="12"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="9"/>
+      <c r="L70" s="12"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
       <c r="D71" s="23"/>
-      <c r="E71" s="9"/>
+      <c r="E71" s="23"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
-      <c r="K71" s="12"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K71" s="9"/>
+      <c r="L71" s="12"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
       <c r="C72" s="9"/>
       <c r="D72" s="23"/>
-      <c r="E72" s="9"/>
+      <c r="E72" s="23"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
-      <c r="K72" s="12"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K72" s="9"/>
+      <c r="L72" s="12"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="C73" s="9"/>
       <c r="D73" s="23"/>
-      <c r="E73" s="9"/>
+      <c r="E73" s="23"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
-      <c r="K73" s="12"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K73" s="9"/>
+      <c r="L73" s="12"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
       <c r="D74" s="23"/>
-      <c r="E74" s="9"/>
+      <c r="E74" s="23"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
-      <c r="K74" s="12"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K74" s="9"/>
+      <c r="L74" s="12"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
       <c r="D75" s="23"/>
-      <c r="E75" s="9"/>
+      <c r="E75" s="23"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
-      <c r="K75" s="12"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K75" s="9"/>
+      <c r="L75" s="12"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="C76" s="9"/>
       <c r="D76" s="23"/>
-      <c r="E76" s="9"/>
+      <c r="E76" s="23"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
-      <c r="K76" s="12"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K76" s="9"/>
+      <c r="L76" s="12"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="C77" s="9"/>
       <c r="D77" s="23"/>
-      <c r="E77" s="9"/>
+      <c r="E77" s="23"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
-      <c r="K77" s="12"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K77" s="9"/>
+      <c r="L77" s="12"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" s="8"/>
       <c r="C78" s="9"/>
       <c r="D78" s="23"/>
-      <c r="E78" s="9"/>
+      <c r="E78" s="23"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
-      <c r="K78" s="12"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="9"/>
+      <c r="L78" s="12"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="C79" s="9"/>
       <c r="D79" s="23"/>
-      <c r="E79" s="9"/>
+      <c r="E79" s="23"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
-      <c r="K79" s="12"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K79" s="9"/>
+      <c r="L79" s="12"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" s="8"/>
       <c r="C80" s="9"/>
       <c r="D80" s="23"/>
-      <c r="E80" s="9"/>
+      <c r="E80" s="23"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
-      <c r="K80" s="12"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K80" s="9"/>
+      <c r="L80" s="12"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
       <c r="D81" s="23"/>
-      <c r="E81" s="9"/>
+      <c r="E81" s="23"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
-      <c r="K81" s="12"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K81" s="9"/>
+      <c r="L81" s="12"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="C82" s="9"/>
       <c r="D82" s="23"/>
-      <c r="E82" s="9"/>
+      <c r="E82" s="23"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
-      <c r="K82" s="12"/>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K82" s="9"/>
+      <c r="L82" s="12"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
       <c r="D83" s="23"/>
-      <c r="E83" s="9"/>
+      <c r="E83" s="23"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
-      <c r="K83" s="12"/>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K83" s="9"/>
+      <c r="L83" s="12"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
       <c r="C84" s="9"/>
       <c r="D84" s="23"/>
-      <c r="E84" s="9"/>
+      <c r="E84" s="23"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
-      <c r="K84" s="12"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K84" s="9"/>
+      <c r="L84" s="12"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="8"/>
       <c r="C85" s="9"/>
       <c r="D85" s="23"/>
-      <c r="E85" s="9"/>
+      <c r="E85" s="23"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
-      <c r="K85" s="12"/>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K85" s="9"/>
+      <c r="L85" s="12"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
       <c r="C86" s="9"/>
       <c r="D86" s="23"/>
-      <c r="E86" s="9"/>
+      <c r="E86" s="23"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
-      <c r="K86" s="12"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K86" s="9"/>
+      <c r="L86" s="12"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
       <c r="D87" s="23"/>
-      <c r="E87" s="9"/>
+      <c r="E87" s="23"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
-      <c r="K87" s="12"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K87" s="9"/>
+      <c r="L87" s="12"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
       <c r="D88" s="23"/>
-      <c r="E88" s="9"/>
+      <c r="E88" s="23"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
-      <c r="K88" s="12"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K88" s="9"/>
+      <c r="L88" s="12"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
       <c r="D89" s="23"/>
-      <c r="E89" s="9"/>
+      <c r="E89" s="23"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
-      <c r="K89" s="12"/>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K89" s="9"/>
+      <c r="L89" s="12"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
       <c r="D90" s="23"/>
-      <c r="E90" s="9"/>
+      <c r="E90" s="23"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
-      <c r="K90" s="12"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K90" s="9"/>
+      <c r="L90" s="12"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
       <c r="D91" s="23"/>
-      <c r="E91" s="9"/>
+      <c r="E91" s="23"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
-      <c r="K91" s="12"/>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K91" s="9"/>
+      <c r="L91" s="12"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
       <c r="C92" s="9"/>
       <c r="D92" s="23"/>
-      <c r="E92" s="9"/>
+      <c r="E92" s="23"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
-      <c r="K92" s="12"/>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K92" s="9"/>
+      <c r="L92" s="12"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="C93" s="9"/>
       <c r="D93" s="23"/>
-      <c r="E93" s="9"/>
+      <c r="E93" s="23"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
-      <c r="K93" s="12"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K93" s="9"/>
+      <c r="L93" s="12"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
       <c r="C94" s="9"/>
       <c r="D94" s="23"/>
-      <c r="E94" s="9"/>
+      <c r="E94" s="23"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
-      <c r="K94" s="12"/>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K94" s="9"/>
+      <c r="L94" s="12"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
       <c r="D95" s="23"/>
-      <c r="E95" s="9"/>
+      <c r="E95" s="23"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
-      <c r="K95" s="12"/>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K95" s="9"/>
+      <c r="L95" s="12"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
       <c r="D96" s="23"/>
-      <c r="E96" s="9"/>
+      <c r="E96" s="23"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
-      <c r="K96" s="12"/>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K96" s="9"/>
+      <c r="L96" s="12"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
       <c r="D97" s="23"/>
-      <c r="E97" s="9"/>
+      <c r="E97" s="23"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
-      <c r="K97" s="12"/>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K97" s="9"/>
+      <c r="L97" s="12"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" s="8"/>
       <c r="C98" s="9"/>
       <c r="D98" s="23"/>
-      <c r="E98" s="9"/>
+      <c r="E98" s="23"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
-      <c r="K98" s="12"/>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K98" s="9"/>
+      <c r="L98" s="12"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" s="8"/>
       <c r="C99" s="9"/>
       <c r="D99" s="23"/>
-      <c r="E99" s="9"/>
+      <c r="E99" s="23"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
-      <c r="K99" s="12"/>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K99" s="9"/>
+      <c r="L99" s="12"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
       <c r="C100" s="9"/>
       <c r="D100" s="23"/>
-      <c r="E100" s="9"/>
+      <c r="E100" s="23"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
-      <c r="K100" s="12"/>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K100" s="9"/>
+      <c r="L100" s="12"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" s="8"/>
       <c r="C101" s="9"/>
       <c r="D101" s="23"/>
-      <c r="E101" s="9"/>
+      <c r="E101" s="23"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
-      <c r="K101" s="12"/>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K101" s="9"/>
+      <c r="L101" s="12"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
       <c r="C102" s="9"/>
       <c r="D102" s="23"/>
-      <c r="E102" s="9"/>
+      <c r="E102" s="23"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
-      <c r="K102" s="12"/>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K102" s="9"/>
+      <c r="L102" s="12"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" s="8"/>
       <c r="C103" s="9"/>
       <c r="D103" s="23"/>
-      <c r="E103" s="9"/>
+      <c r="E103" s="23"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
-      <c r="K103" s="12"/>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K103" s="9"/>
+      <c r="L103" s="12"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
       <c r="C104" s="9"/>
       <c r="D104" s="23"/>
-      <c r="E104" s="9"/>
+      <c r="E104" s="23"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
-      <c r="K104" s="12"/>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K104" s="9"/>
+      <c r="L104" s="12"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B105" s="8"/>
       <c r="C105" s="9"/>
       <c r="D105" s="23"/>
-      <c r="E105" s="9"/>
+      <c r="E105" s="23"/>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
-      <c r="K105" s="12"/>
-    </row>
-    <row r="106" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K105" s="9"/>
+      <c r="L105" s="12"/>
+    </row>
+    <row r="106" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="13"/>
       <c r="C106" s="14"/>
       <c r="D106" s="24"/>
-      <c r="E106" s="14"/>
+      <c r="E106" s="24"/>
       <c r="F106" s="14"/>
       <c r="G106" s="14"/>
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
       <c r="J106" s="14"/>
-      <c r="K106" s="17"/>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K106" s="14"/>
+      <c r="L106" s="17"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C108" s="9"/>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C109" s="9"/>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C110" s="9"/>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C111" s="9"/>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C112" s="9"/>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
@@ -4934,7 +5159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBD9B7-2F4E-4E0F-B0DE-0C76068107FF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/benchmarktests/testdefinitions/Benchmartktest_traject 13-2.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 13-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4447A6-DE8A-4B9B-8F9B-07C27E9443C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB86B656-0805-4F4B-8D77-2935C707D521}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
   </bookViews>
@@ -2483,7 +2483,7 @@
   <dimension ref="B1:L135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E40"/>
+      <selection activeCell="D3" sqref="D3:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2536,24 +2536,24 @@
         <v>0.27700000000000002</v>
       </c>
       <c r="D3" s="22" t="str">
-        <f t="shared" ref="D3:D40" si="0">IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND"))))))))</f>
+        <f>IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E3" s="22" t="str">
-        <f t="shared" ref="E3:E40" si="1">IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND")))))))</f>
+        <f>IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="array" ref="F3">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B3,C3),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G3" s="4" t="str">
         <f t="array" ref="G3">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B3,C3),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H3" s="4" t="str">
         <f t="array" ref="H3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I3" s="4">
         <f t="array" ref="I3">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B3,C3),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -2561,15 +2561,15 @@
       </c>
       <c r="J3" s="4" t="str">
         <f t="array" ref="J3">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B3,C3),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K3" s="4" t="str">
         <f t="array" ref="K3">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B3,C3),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L3" s="7" t="str">
         <f t="array" ref="L3">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B3,C3),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -2580,24 +2580,24 @@
         <v>0.53200000000000003</v>
       </c>
       <c r="D4" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F4:L4,"D")&gt;0,"D",IF(COUNTIF(F4:L4,"-III")&gt;0,"-III",IF(COUNTIF(F4:L4,"-II")&gt;0,"-II",IF(COUNTIF(F4:L4,"-I")&gt;0,"-I",IF(COUNTIF(F4:L4,"+0")&gt;0,"+0",IF(COUNTIF(F4:L4,"+I")&gt;0,"+I",IF(COUNTIF(F4:L4,"+II")&gt;0,"+II",IF(COUNTIF(F4:L4,"+III")&gt;0,"+III",IF(COUNTIF(F4:L4,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E4" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F4:L4,"-III")&gt;0,"-III",IF(COUNTIF(F4:L4,"-II")&gt;0,"-II",IF(COUNTIF(F4:L4,"-I")&gt;0,"-I",IF(COUNTIF(F4:L4,"+0")&gt;0,"+0",IF(COUNTIF(F4:L4,"+I")&gt;0,"+I",IF(COUNTIF(F4:L4,"+II")&gt;0,"+II",IF(COUNTIF(F4:L4,"+III")&gt;0,"+III",IF(COUNTIF(F4:L4,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F4" s="9" t="str">
         <f t="array" ref="F4">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B4,C4),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G4" s="9" t="str">
         <f t="array" ref="G4">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B4,C4),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H4" s="9" t="str">
         <f t="array" ref="H4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I4" s="9">
         <f t="array" ref="I4">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B4,C4),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -2605,15 +2605,15 @@
       </c>
       <c r="J4" s="9" t="str">
         <f t="array" ref="J4">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B4,C4),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K4" s="9" t="str">
         <f t="array" ref="K4">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B4,C4),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L4" s="12" t="str">
         <f t="array" ref="L4">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B4,C4),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -2624,24 +2624,24 @@
         <v>0.755</v>
       </c>
       <c r="D5" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F5:L5,"D")&gt;0,"D",IF(COUNTIF(F5:L5,"-III")&gt;0,"-III",IF(COUNTIF(F5:L5,"-II")&gt;0,"-II",IF(COUNTIF(F5:L5,"-I")&gt;0,"-I",IF(COUNTIF(F5:L5,"+0")&gt;0,"+0",IF(COUNTIF(F5:L5,"+I")&gt;0,"+I",IF(COUNTIF(F5:L5,"+II")&gt;0,"+II",IF(COUNTIF(F5:L5,"+III")&gt;0,"+III",IF(COUNTIF(F5:L5,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E5" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F5:L5,"-III")&gt;0,"-III",IF(COUNTIF(F5:L5,"-II")&gt;0,"-II",IF(COUNTIF(F5:L5,"-I")&gt;0,"-I",IF(COUNTIF(F5:L5,"+0")&gt;0,"+0",IF(COUNTIF(F5:L5,"+I")&gt;0,"+I",IF(COUNTIF(F5:L5,"+II")&gt;0,"+II",IF(COUNTIF(F5:L5,"+III")&gt;0,"+III",IF(COUNTIF(F5:L5,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F5" s="9" t="str">
         <f t="array" ref="F5">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B5,C5),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G5" s="9" t="str">
         <f t="array" ref="G5">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B5,C5),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H5" s="9" t="str">
         <f t="array" ref="H5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I5" s="9">
         <f t="array" ref="I5">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B5,C5),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -2649,15 +2649,15 @@
       </c>
       <c r="J5" s="9" t="str">
         <f t="array" ref="J5">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B5,C5),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K5" s="9" t="str">
         <f t="array" ref="K5">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B5,C5),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L5" s="12" t="str">
         <f t="array" ref="L5">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B5,C5),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -2668,24 +2668,24 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="D6" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F6:L6,"D")&gt;0,"D",IF(COUNTIF(F6:L6,"-III")&gt;0,"-III",IF(COUNTIF(F6:L6,"-II")&gt;0,"-II",IF(COUNTIF(F6:L6,"-I")&gt;0,"-I",IF(COUNTIF(F6:L6,"+0")&gt;0,"+0",IF(COUNTIF(F6:L6,"+I")&gt;0,"+I",IF(COUNTIF(F6:L6,"+II")&gt;0,"+II",IF(COUNTIF(F6:L6,"+III")&gt;0,"+III",IF(COUNTIF(F6:L6,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E6" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F6:L6,"-III")&gt;0,"-III",IF(COUNTIF(F6:L6,"-II")&gt;0,"-II",IF(COUNTIF(F6:L6,"-I")&gt;0,"-I",IF(COUNTIF(F6:L6,"+0")&gt;0,"+0",IF(COUNTIF(F6:L6,"+I")&gt;0,"+I",IF(COUNTIF(F6:L6,"+II")&gt;0,"+II",IF(COUNTIF(F6:L6,"+III")&gt;0,"+III",IF(COUNTIF(F6:L6,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F6" s="9" t="str">
         <f t="array" ref="F6">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B6,C6),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G6" s="9" t="str">
         <f t="array" ref="G6">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B6,C6),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H6" s="9" t="str">
         <f t="array" ref="H6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I6" s="9">
         <f t="array" ref="I6">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B6,C6),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -2693,15 +2693,15 @@
       </c>
       <c r="J6" s="9" t="str">
         <f t="array" ref="J6">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B6,C6),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K6" s="9" t="str">
         <f t="array" ref="K6">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B6,C6),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L6" s="12" t="str">
         <f t="array" ref="L6">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B6,C6),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -2712,24 +2712,24 @@
         <v>1.0509999999999999</v>
       </c>
       <c r="D7" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F7:L7,"D")&gt;0,"D",IF(COUNTIF(F7:L7,"-III")&gt;0,"-III",IF(COUNTIF(F7:L7,"-II")&gt;0,"-II",IF(COUNTIF(F7:L7,"-I")&gt;0,"-I",IF(COUNTIF(F7:L7,"+0")&gt;0,"+0",IF(COUNTIF(F7:L7,"+I")&gt;0,"+I",IF(COUNTIF(F7:L7,"+II")&gt;0,"+II",IF(COUNTIF(F7:L7,"+III")&gt;0,"+III",IF(COUNTIF(F7:L7,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E7" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F7:L7,"-III")&gt;0,"-III",IF(COUNTIF(F7:L7,"-II")&gt;0,"-II",IF(COUNTIF(F7:L7,"-I")&gt;0,"-I",IF(COUNTIF(F7:L7,"+0")&gt;0,"+0",IF(COUNTIF(F7:L7,"+I")&gt;0,"+I",IF(COUNTIF(F7:L7,"+II")&gt;0,"+II",IF(COUNTIF(F7:L7,"+III")&gt;0,"+III",IF(COUNTIF(F7:L7,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F7" s="9" t="str">
         <f t="array" ref="F7">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B7,C7),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G7" s="9" t="str">
         <f t="array" ref="G7">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B7,C7),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H7" s="9" t="str">
         <f t="array" ref="H7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I7" s="9">
         <f t="array" ref="I7">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B7,C7),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -2737,15 +2737,15 @@
       </c>
       <c r="J7" s="9" t="str">
         <f t="array" ref="J7">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K7" s="9" t="str">
         <f t="array" ref="K7">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B7,C7),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L7" s="12" t="str">
         <f t="array" ref="L7">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B7,C7),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -2756,24 +2756,24 @@
         <v>1.214</v>
       </c>
       <c r="D8" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F8:L8,"D")&gt;0,"D",IF(COUNTIF(F8:L8,"-III")&gt;0,"-III",IF(COUNTIF(F8:L8,"-II")&gt;0,"-II",IF(COUNTIF(F8:L8,"-I")&gt;0,"-I",IF(COUNTIF(F8:L8,"+0")&gt;0,"+0",IF(COUNTIF(F8:L8,"+I")&gt;0,"+I",IF(COUNTIF(F8:L8,"+II")&gt;0,"+II",IF(COUNTIF(F8:L8,"+III")&gt;0,"+III",IF(COUNTIF(F8:L8,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E8" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F8:L8,"-III")&gt;0,"-III",IF(COUNTIF(F8:L8,"-II")&gt;0,"-II",IF(COUNTIF(F8:L8,"-I")&gt;0,"-I",IF(COUNTIF(F8:L8,"+0")&gt;0,"+0",IF(COUNTIF(F8:L8,"+I")&gt;0,"+I",IF(COUNTIF(F8:L8,"+II")&gt;0,"+II",IF(COUNTIF(F8:L8,"+III")&gt;0,"+III",IF(COUNTIF(F8:L8,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F8" s="9" t="str">
         <f t="array" ref="F8">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B8,C8),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G8" s="9" t="str">
         <f t="array" ref="G8">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B8,C8),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H8" s="9" t="str">
         <f t="array" ref="H8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I8" s="9">
         <f t="array" ref="I8">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B8,C8),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -2781,15 +2781,15 @@
       </c>
       <c r="J8" s="9" t="str">
         <f t="array" ref="J8">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B8,C8),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K8" s="9" t="str">
         <f t="array" ref="K8">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B8,C8),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="array" ref="L8">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B8,C8),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -2800,24 +2800,24 @@
         <v>1.383</v>
       </c>
       <c r="D9" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F9:L9,"D")&gt;0,"D",IF(COUNTIF(F9:L9,"-III")&gt;0,"-III",IF(COUNTIF(F9:L9,"-II")&gt;0,"-II",IF(COUNTIF(F9:L9,"-I")&gt;0,"-I",IF(COUNTIF(F9:L9,"+0")&gt;0,"+0",IF(COUNTIF(F9:L9,"+I")&gt;0,"+I",IF(COUNTIF(F9:L9,"+II")&gt;0,"+II",IF(COUNTIF(F9:L9,"+III")&gt;0,"+III",IF(COUNTIF(F9:L9,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E9" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F9:L9,"-III")&gt;0,"-III",IF(COUNTIF(F9:L9,"-II")&gt;0,"-II",IF(COUNTIF(F9:L9,"-I")&gt;0,"-I",IF(COUNTIF(F9:L9,"+0")&gt;0,"+0",IF(COUNTIF(F9:L9,"+I")&gt;0,"+I",IF(COUNTIF(F9:L9,"+II")&gt;0,"+II",IF(COUNTIF(F9:L9,"+III")&gt;0,"+III",IF(COUNTIF(F9:L9,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F9" s="9" t="str">
         <f t="array" ref="F9">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B9,C9),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G9" s="9" t="str">
         <f t="array" ref="G9">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B9,C9),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H9" s="9" t="str">
         <f t="array" ref="H9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I9" s="9">
         <f t="array" ref="I9">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B9,C9),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -2825,15 +2825,15 @@
       </c>
       <c r="J9" s="9" t="str">
         <f t="array" ref="J9">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K9" s="9" t="str">
         <f t="array" ref="K9">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B9,C9),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L9" s="12" t="str">
         <f t="array" ref="L9">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B9,C9),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -2844,24 +2844,24 @@
         <v>1.5289999999999999</v>
       </c>
       <c r="D10" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F10:L10,"D")&gt;0,"D",IF(COUNTIF(F10:L10,"-III")&gt;0,"-III",IF(COUNTIF(F10:L10,"-II")&gt;0,"-II",IF(COUNTIF(F10:L10,"-I")&gt;0,"-I",IF(COUNTIF(F10:L10,"+0")&gt;0,"+0",IF(COUNTIF(F10:L10,"+I")&gt;0,"+I",IF(COUNTIF(F10:L10,"+II")&gt;0,"+II",IF(COUNTIF(F10:L10,"+III")&gt;0,"+III",IF(COUNTIF(F10:L10,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E10" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F10:L10,"-III")&gt;0,"-III",IF(COUNTIF(F10:L10,"-II")&gt;0,"-II",IF(COUNTIF(F10:L10,"-I")&gt;0,"-I",IF(COUNTIF(F10:L10,"+0")&gt;0,"+0",IF(COUNTIF(F10:L10,"+I")&gt;0,"+I",IF(COUNTIF(F10:L10,"+II")&gt;0,"+II",IF(COUNTIF(F10:L10,"+III")&gt;0,"+III",IF(COUNTIF(F10:L10,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F10" s="9" t="str">
         <f t="array" ref="F10">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B10,C10),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G10" s="9" t="str">
         <f t="array" ref="G10">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B10,C10),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H10" s="9" t="str">
         <f t="array" ref="H10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I10" s="9">
         <f t="array" ref="I10">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B10,C10),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -2869,15 +2869,15 @@
       </c>
       <c r="J10" s="9" t="str">
         <f t="array" ref="J10">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B10,C10),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K10" s="9" t="str">
         <f t="array" ref="K10">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B10,C10),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L10" s="12" t="str">
         <f t="array" ref="L10">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B10,C10),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -2888,24 +2888,24 @@
         <v>1.661</v>
       </c>
       <c r="D11" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F11:L11,"D")&gt;0,"D",IF(COUNTIF(F11:L11,"-III")&gt;0,"-III",IF(COUNTIF(F11:L11,"-II")&gt;0,"-II",IF(COUNTIF(F11:L11,"-I")&gt;0,"-I",IF(COUNTIF(F11:L11,"+0")&gt;0,"+0",IF(COUNTIF(F11:L11,"+I")&gt;0,"+I",IF(COUNTIF(F11:L11,"+II")&gt;0,"+II",IF(COUNTIF(F11:L11,"+III")&gt;0,"+III",IF(COUNTIF(F11:L11,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E11" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F11:L11,"-III")&gt;0,"-III",IF(COUNTIF(F11:L11,"-II")&gt;0,"-II",IF(COUNTIF(F11:L11,"-I")&gt;0,"-I",IF(COUNTIF(F11:L11,"+0")&gt;0,"+0",IF(COUNTIF(F11:L11,"+I")&gt;0,"+I",IF(COUNTIF(F11:L11,"+II")&gt;0,"+II",IF(COUNTIF(F11:L11,"+III")&gt;0,"+III",IF(COUNTIF(F11:L11,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F11" s="9" t="str">
         <f t="array" ref="F11">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B11,C11),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G11" s="9" t="str">
         <f t="array" ref="G11">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B11,C11),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H11" s="9" t="str">
         <f t="array" ref="H11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I11" s="9">
         <f t="array" ref="I11">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B11,C11),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -2913,15 +2913,15 @@
       </c>
       <c r="J11" s="9" t="str">
         <f t="array" ref="J11">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K11" s="9" t="str">
         <f t="array" ref="K11">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B11,C11),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L11" s="12" t="str">
         <f t="array" ref="L11">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B11,C11),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -2932,24 +2932,24 @@
         <v>1.79</v>
       </c>
       <c r="D12" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F12:L12,"D")&gt;0,"D",IF(COUNTIF(F12:L12,"-III")&gt;0,"-III",IF(COUNTIF(F12:L12,"-II")&gt;0,"-II",IF(COUNTIF(F12:L12,"-I")&gt;0,"-I",IF(COUNTIF(F12:L12,"+0")&gt;0,"+0",IF(COUNTIF(F12:L12,"+I")&gt;0,"+I",IF(COUNTIF(F12:L12,"+II")&gt;0,"+II",IF(COUNTIF(F12:L12,"+III")&gt;0,"+III",IF(COUNTIF(F12:L12,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E12" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F12:L12,"-III")&gt;0,"-III",IF(COUNTIF(F12:L12,"-II")&gt;0,"-II",IF(COUNTIF(F12:L12,"-I")&gt;0,"-I",IF(COUNTIF(F12:L12,"+0")&gt;0,"+0",IF(COUNTIF(F12:L12,"+I")&gt;0,"+I",IF(COUNTIF(F12:L12,"+II")&gt;0,"+II",IF(COUNTIF(F12:L12,"+III")&gt;0,"+III",IF(COUNTIF(F12:L12,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F12" s="9" t="str">
         <f t="array" ref="F12">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B12,C12),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G12" s="9" t="str">
         <f t="array" ref="G12">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B12,C12),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H12" s="9" t="str">
         <f t="array" ref="H12">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B12,C12),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I12" s="9">
         <f t="array" ref="I12">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B12,C12),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -2957,15 +2957,15 @@
       </c>
       <c r="J12" s="9" t="str">
         <f t="array" ref="J12">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B12,C12),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K12" s="9" t="str">
         <f t="array" ref="K12">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B12,C12),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L12" s="12" t="str">
         <f t="array" ref="L12">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B12,C12),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -2976,24 +2976,24 @@
         <v>1.929</v>
       </c>
       <c r="D13" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F13:L13,"D")&gt;0,"D",IF(COUNTIF(F13:L13,"-III")&gt;0,"-III",IF(COUNTIF(F13:L13,"-II")&gt;0,"-II",IF(COUNTIF(F13:L13,"-I")&gt;0,"-I",IF(COUNTIF(F13:L13,"+0")&gt;0,"+0",IF(COUNTIF(F13:L13,"+I")&gt;0,"+I",IF(COUNTIF(F13:L13,"+II")&gt;0,"+II",IF(COUNTIF(F13:L13,"+III")&gt;0,"+III",IF(COUNTIF(F13:L13,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E13" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F13:L13,"-III")&gt;0,"-III",IF(COUNTIF(F13:L13,"-II")&gt;0,"-II",IF(COUNTIF(F13:L13,"-I")&gt;0,"-I",IF(COUNTIF(F13:L13,"+0")&gt;0,"+0",IF(COUNTIF(F13:L13,"+I")&gt;0,"+I",IF(COUNTIF(F13:L13,"+II")&gt;0,"+II",IF(COUNTIF(F13:L13,"+III")&gt;0,"+III",IF(COUNTIF(F13:L13,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F13" s="9" t="str">
         <f t="array" ref="F13">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B13,C13),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G13" s="9" t="str">
         <f t="array" ref="G13">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B13,C13),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H13" s="9" t="str">
         <f t="array" ref="H13">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B13,C13),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I13" s="9">
         <f t="array" ref="I13">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B13,C13),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -3001,15 +3001,15 @@
       </c>
       <c r="J13" s="9" t="str">
         <f t="array" ref="J13">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B13,C13),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K13" s="9" t="str">
         <f t="array" ref="K13">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B13,C13),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L13" s="12" t="str">
         <f t="array" ref="L13">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B13,C13),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -3020,24 +3020,24 @@
         <v>2.0910000000000002</v>
       </c>
       <c r="D14" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F14:L14,"D")&gt;0,"D",IF(COUNTIF(F14:L14,"-III")&gt;0,"-III",IF(COUNTIF(F14:L14,"-II")&gt;0,"-II",IF(COUNTIF(F14:L14,"-I")&gt;0,"-I",IF(COUNTIF(F14:L14,"+0")&gt;0,"+0",IF(COUNTIF(F14:L14,"+I")&gt;0,"+I",IF(COUNTIF(F14:L14,"+II")&gt;0,"+II",IF(COUNTIF(F14:L14,"+III")&gt;0,"+III",IF(COUNTIF(F14:L14,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E14" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F14:L14,"-III")&gt;0,"-III",IF(COUNTIF(F14:L14,"-II")&gt;0,"-II",IF(COUNTIF(F14:L14,"-I")&gt;0,"-I",IF(COUNTIF(F14:L14,"+0")&gt;0,"+0",IF(COUNTIF(F14:L14,"+I")&gt;0,"+I",IF(COUNTIF(F14:L14,"+II")&gt;0,"+II",IF(COUNTIF(F14:L14,"+III")&gt;0,"+III",IF(COUNTIF(F14:L14,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F14" s="9" t="str">
         <f t="array" ref="F14">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B14,C14),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G14" s="9" t="str">
         <f t="array" ref="G14">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B14,C14),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H14" s="9" t="str">
         <f t="array" ref="H14">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B14,C14),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I14" s="9">
         <f t="array" ref="I14">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B14,C14),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -3045,15 +3045,15 @@
       </c>
       <c r="J14" s="9" t="str">
         <f t="array" ref="J14">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B14,C14),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K14" s="9" t="str">
         <f t="array" ref="K14">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B14,C14),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L14" s="12" t="str">
         <f t="array" ref="L14">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B14,C14),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -3064,24 +3064,24 @@
         <v>2.254</v>
       </c>
       <c r="D15" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F15:L15,"D")&gt;0,"D",IF(COUNTIF(F15:L15,"-III")&gt;0,"-III",IF(COUNTIF(F15:L15,"-II")&gt;0,"-II",IF(COUNTIF(F15:L15,"-I")&gt;0,"-I",IF(COUNTIF(F15:L15,"+0")&gt;0,"+0",IF(COUNTIF(F15:L15,"+I")&gt;0,"+I",IF(COUNTIF(F15:L15,"+II")&gt;0,"+II",IF(COUNTIF(F15:L15,"+III")&gt;0,"+III",IF(COUNTIF(F15:L15,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E15" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F15:L15,"-III")&gt;0,"-III",IF(COUNTIF(F15:L15,"-II")&gt;0,"-II",IF(COUNTIF(F15:L15,"-I")&gt;0,"-I",IF(COUNTIF(F15:L15,"+0")&gt;0,"+0",IF(COUNTIF(F15:L15,"+I")&gt;0,"+I",IF(COUNTIF(F15:L15,"+II")&gt;0,"+II",IF(COUNTIF(F15:L15,"+III")&gt;0,"+III",IF(COUNTIF(F15:L15,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F15" s="9" t="str">
         <f t="array" ref="F15">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B15,C15),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G15" s="9" t="str">
         <f t="array" ref="G15">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B15,C15),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H15" s="9" t="str">
         <f t="array" ref="H15">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B15,C15),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I15" s="9">
         <f t="array" ref="I15">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B15,C15),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -3089,15 +3089,15 @@
       </c>
       <c r="J15" s="9" t="str">
         <f t="array" ref="J15">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B15,C15),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K15" s="9" t="str">
         <f t="array" ref="K15">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B15,C15),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L15" s="12" t="str">
         <f t="array" ref="L15">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B15,C15),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -3108,24 +3108,24 @@
         <v>2.395</v>
       </c>
       <c r="D16" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F16:L16,"D")&gt;0,"D",IF(COUNTIF(F16:L16,"-III")&gt;0,"-III",IF(COUNTIF(F16:L16,"-II")&gt;0,"-II",IF(COUNTIF(F16:L16,"-I")&gt;0,"-I",IF(COUNTIF(F16:L16,"+0")&gt;0,"+0",IF(COUNTIF(F16:L16,"+I")&gt;0,"+I",IF(COUNTIF(F16:L16,"+II")&gt;0,"+II",IF(COUNTIF(F16:L16,"+III")&gt;0,"+III",IF(COUNTIF(F16:L16,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E16" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F16:L16,"-III")&gt;0,"-III",IF(COUNTIF(F16:L16,"-II")&gt;0,"-II",IF(COUNTIF(F16:L16,"-I")&gt;0,"-I",IF(COUNTIF(F16:L16,"+0")&gt;0,"+0",IF(COUNTIF(F16:L16,"+I")&gt;0,"+I",IF(COUNTIF(F16:L16,"+II")&gt;0,"+II",IF(COUNTIF(F16:L16,"+III")&gt;0,"+III",IF(COUNTIF(F16:L16,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F16" s="9" t="str">
         <f t="array" ref="F16">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B16,C16),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G16" s="9" t="str">
         <f t="array" ref="G16">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B16,C16),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H16" s="9" t="str">
         <f t="array" ref="H16">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B16,C16),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I16" s="9">
         <f t="array" ref="I16">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B16,C16),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -3133,15 +3133,15 @@
       </c>
       <c r="J16" s="9" t="str">
         <f t="array" ref="J16">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B16,C16),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K16" s="9" t="str">
         <f t="array" ref="K16">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B16,C16),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L16" s="12" t="str">
         <f t="array" ref="L16">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B16,C16),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -3152,24 +3152,24 @@
         <v>2.524</v>
       </c>
       <c r="D17" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F17:L17,"D")&gt;0,"D",IF(COUNTIF(F17:L17,"-III")&gt;0,"-III",IF(COUNTIF(F17:L17,"-II")&gt;0,"-II",IF(COUNTIF(F17:L17,"-I")&gt;0,"-I",IF(COUNTIF(F17:L17,"+0")&gt;0,"+0",IF(COUNTIF(F17:L17,"+I")&gt;0,"+I",IF(COUNTIF(F17:L17,"+II")&gt;0,"+II",IF(COUNTIF(F17:L17,"+III")&gt;0,"+III",IF(COUNTIF(F17:L17,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E17" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F17:L17,"-III")&gt;0,"-III",IF(COUNTIF(F17:L17,"-II")&gt;0,"-II",IF(COUNTIF(F17:L17,"-I")&gt;0,"-I",IF(COUNTIF(F17:L17,"+0")&gt;0,"+0",IF(COUNTIF(F17:L17,"+I")&gt;0,"+I",IF(COUNTIF(F17:L17,"+II")&gt;0,"+II",IF(COUNTIF(F17:L17,"+III")&gt;0,"+III",IF(COUNTIF(F17:L17,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F17" s="9" t="str">
         <f t="array" ref="F17">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B17,C17),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G17" s="9" t="str">
         <f t="array" ref="G17">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B17,C17),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H17" s="9" t="str">
         <f t="array" ref="H17">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B17,C17),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I17" s="9">
         <f t="array" ref="I17">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B17,C17),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -3177,15 +3177,15 @@
       </c>
       <c r="J17" s="9" t="str">
         <f t="array" ref="J17">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B17,C17),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K17" s="9" t="str">
         <f t="array" ref="K17">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B17,C17),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L17" s="12" t="str">
         <f t="array" ref="L17">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B17,C17),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -3196,24 +3196,24 @@
         <v>2.6560000000000001</v>
       </c>
       <c r="D18" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F18:L18,"D")&gt;0,"D",IF(COUNTIF(F18:L18,"-III")&gt;0,"-III",IF(COUNTIF(F18:L18,"-II")&gt;0,"-II",IF(COUNTIF(F18:L18,"-I")&gt;0,"-I",IF(COUNTIF(F18:L18,"+0")&gt;0,"+0",IF(COUNTIF(F18:L18,"+I")&gt;0,"+I",IF(COUNTIF(F18:L18,"+II")&gt;0,"+II",IF(COUNTIF(F18:L18,"+III")&gt;0,"+III",IF(COUNTIF(F18:L18,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E18" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F18:L18,"-III")&gt;0,"-III",IF(COUNTIF(F18:L18,"-II")&gt;0,"-II",IF(COUNTIF(F18:L18,"-I")&gt;0,"-I",IF(COUNTIF(F18:L18,"+0")&gt;0,"+0",IF(COUNTIF(F18:L18,"+I")&gt;0,"+I",IF(COUNTIF(F18:L18,"+II")&gt;0,"+II",IF(COUNTIF(F18:L18,"+III")&gt;0,"+III",IF(COUNTIF(F18:L18,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F18" s="9" t="str">
         <f t="array" ref="F18">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B18,C18),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G18" s="9" t="str">
         <f t="array" ref="G18">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B18,C18),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H18" s="9" t="str">
         <f t="array" ref="H18">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B18,C18),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I18" s="9">
         <f t="array" ref="I18">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B18,C18),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -3221,15 +3221,15 @@
       </c>
       <c r="J18" s="9" t="str">
         <f t="array" ref="J18">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B18,C18),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K18" s="9" t="str">
         <f t="array" ref="K18">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B18,C18),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L18" s="12" t="str">
         <f t="array" ref="L18">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B18,C18),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -3240,24 +3240,24 @@
         <v>2.7959999999999998</v>
       </c>
       <c r="D19" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F19:L19,"D")&gt;0,"D",IF(COUNTIF(F19:L19,"-III")&gt;0,"-III",IF(COUNTIF(F19:L19,"-II")&gt;0,"-II",IF(COUNTIF(F19:L19,"-I")&gt;0,"-I",IF(COUNTIF(F19:L19,"+0")&gt;0,"+0",IF(COUNTIF(F19:L19,"+I")&gt;0,"+I",IF(COUNTIF(F19:L19,"+II")&gt;0,"+II",IF(COUNTIF(F19:L19,"+III")&gt;0,"+III",IF(COUNTIF(F19:L19,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E19" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F19:L19,"-III")&gt;0,"-III",IF(COUNTIF(F19:L19,"-II")&gt;0,"-II",IF(COUNTIF(F19:L19,"-I")&gt;0,"-I",IF(COUNTIF(F19:L19,"+0")&gt;0,"+0",IF(COUNTIF(F19:L19,"+I")&gt;0,"+I",IF(COUNTIF(F19:L19,"+II")&gt;0,"+II",IF(COUNTIF(F19:L19,"+III")&gt;0,"+III",IF(COUNTIF(F19:L19,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F19" s="9" t="str">
         <f t="array" ref="F19">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B19,C19),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G19" s="9" t="str">
         <f t="array" ref="G19">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B19,C19),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H19" s="9" t="str">
         <f t="array" ref="H19">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B19,C19),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I19" s="9">
         <f t="array" ref="I19">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B19,C19),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -3265,15 +3265,15 @@
       </c>
       <c r="J19" s="9" t="str">
         <f t="array" ref="J19">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B19,C19),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K19" s="9" t="str">
         <f t="array" ref="K19">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B19,C19),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L19" s="12" t="str">
         <f t="array" ref="L19">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B19,C19),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -3284,24 +3284,24 @@
         <v>2.9569999999999999</v>
       </c>
       <c r="D20" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F20:L20,"D")&gt;0,"D",IF(COUNTIF(F20:L20,"-III")&gt;0,"-III",IF(COUNTIF(F20:L20,"-II")&gt;0,"-II",IF(COUNTIF(F20:L20,"-I")&gt;0,"-I",IF(COUNTIF(F20:L20,"+0")&gt;0,"+0",IF(COUNTIF(F20:L20,"+I")&gt;0,"+I",IF(COUNTIF(F20:L20,"+II")&gt;0,"+II",IF(COUNTIF(F20:L20,"+III")&gt;0,"+III",IF(COUNTIF(F20:L20,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E20" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F20:L20,"-III")&gt;0,"-III",IF(COUNTIF(F20:L20,"-II")&gt;0,"-II",IF(COUNTIF(F20:L20,"-I")&gt;0,"-I",IF(COUNTIF(F20:L20,"+0")&gt;0,"+0",IF(COUNTIF(F20:L20,"+I")&gt;0,"+I",IF(COUNTIF(F20:L20,"+II")&gt;0,"+II",IF(COUNTIF(F20:L20,"+III")&gt;0,"+III",IF(COUNTIF(F20:L20,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F20" s="9" t="str">
         <f t="array" ref="F20">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B20,C20),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G20" s="9" t="str">
         <f t="array" ref="G20">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B20,C20),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H20" s="9" t="str">
         <f t="array" ref="H20">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B20,C20),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I20" s="9">
         <f t="array" ref="I20">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B20,C20),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -3309,15 +3309,15 @@
       </c>
       <c r="J20" s="9" t="str">
         <f t="array" ref="J20">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B20,C20),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K20" s="9" t="str">
         <f t="array" ref="K20">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B20,C20),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L20" s="12" t="str">
         <f t="array" ref="L20">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B20,C20),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -3328,24 +3328,24 @@
         <v>3.129</v>
       </c>
       <c r="D21" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F21:L21,"D")&gt;0,"D",IF(COUNTIF(F21:L21,"-III")&gt;0,"-III",IF(COUNTIF(F21:L21,"-II")&gt;0,"-II",IF(COUNTIF(F21:L21,"-I")&gt;0,"-I",IF(COUNTIF(F21:L21,"+0")&gt;0,"+0",IF(COUNTIF(F21:L21,"+I")&gt;0,"+I",IF(COUNTIF(F21:L21,"+II")&gt;0,"+II",IF(COUNTIF(F21:L21,"+III")&gt;0,"+III",IF(COUNTIF(F21:L21,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E21" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F21:L21,"-III")&gt;0,"-III",IF(COUNTIF(F21:L21,"-II")&gt;0,"-II",IF(COUNTIF(F21:L21,"-I")&gt;0,"-I",IF(COUNTIF(F21:L21,"+0")&gt;0,"+0",IF(COUNTIF(F21:L21,"+I")&gt;0,"+I",IF(COUNTIF(F21:L21,"+II")&gt;0,"+II",IF(COUNTIF(F21:L21,"+III")&gt;0,"+III",IF(COUNTIF(F21:L21,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F21" s="9" t="str">
         <f t="array" ref="F21">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B21,C21),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G21" s="9" t="str">
         <f t="array" ref="G21">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B21,C21),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H21" s="9" t="str">
         <f t="array" ref="H21">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B21,C21),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I21" s="9">
         <f t="array" ref="I21">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B21,C21),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -3353,15 +3353,15 @@
       </c>
       <c r="J21" s="9" t="str">
         <f t="array" ref="J21">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B21,C21),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K21" s="9" t="str">
         <f t="array" ref="K21">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B21,C21),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L21" s="12" t="str">
         <f t="array" ref="L21">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B21,C21),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -3372,24 +3372,24 @@
         <v>3.302</v>
       </c>
       <c r="D22" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F22:L22,"D")&gt;0,"D",IF(COUNTIF(F22:L22,"-III")&gt;0,"-III",IF(COUNTIF(F22:L22,"-II")&gt;0,"-II",IF(COUNTIF(F22:L22,"-I")&gt;0,"-I",IF(COUNTIF(F22:L22,"+0")&gt;0,"+0",IF(COUNTIF(F22:L22,"+I")&gt;0,"+I",IF(COUNTIF(F22:L22,"+II")&gt;0,"+II",IF(COUNTIF(F22:L22,"+III")&gt;0,"+III",IF(COUNTIF(F22:L22,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E22" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F22:L22,"-III")&gt;0,"-III",IF(COUNTIF(F22:L22,"-II")&gt;0,"-II",IF(COUNTIF(F22:L22,"-I")&gt;0,"-I",IF(COUNTIF(F22:L22,"+0")&gt;0,"+0",IF(COUNTIF(F22:L22,"+I")&gt;0,"+I",IF(COUNTIF(F22:L22,"+II")&gt;0,"+II",IF(COUNTIF(F22:L22,"+III")&gt;0,"+III",IF(COUNTIF(F22:L22,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F22" s="9" t="str">
         <f t="array" ref="F22">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B22,C22),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G22" s="9" t="str">
         <f t="array" ref="G22">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B22,C22),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H22" s="9" t="str">
         <f t="array" ref="H22">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B22,C22),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I22" s="9">
         <f t="array" ref="I22">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B22,C22),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -3397,15 +3397,15 @@
       </c>
       <c r="J22" s="9" t="str">
         <f t="array" ref="J22">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B22,C22),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K22" s="9" t="str">
         <f t="array" ref="K22">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B22,C22),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L22" s="12" t="str">
         <f t="array" ref="L22">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B22,C22),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -3416,24 +3416,24 @@
         <v>3.4630000000000001</v>
       </c>
       <c r="D23" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F23:L23,"D")&gt;0,"D",IF(COUNTIF(F23:L23,"-III")&gt;0,"-III",IF(COUNTIF(F23:L23,"-II")&gt;0,"-II",IF(COUNTIF(F23:L23,"-I")&gt;0,"-I",IF(COUNTIF(F23:L23,"+0")&gt;0,"+0",IF(COUNTIF(F23:L23,"+I")&gt;0,"+I",IF(COUNTIF(F23:L23,"+II")&gt;0,"+II",IF(COUNTIF(F23:L23,"+III")&gt;0,"+III",IF(COUNTIF(F23:L23,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E23" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F23:L23,"-III")&gt;0,"-III",IF(COUNTIF(F23:L23,"-II")&gt;0,"-II",IF(COUNTIF(F23:L23,"-I")&gt;0,"-I",IF(COUNTIF(F23:L23,"+0")&gt;0,"+0",IF(COUNTIF(F23:L23,"+I")&gt;0,"+I",IF(COUNTIF(F23:L23,"+II")&gt;0,"+II",IF(COUNTIF(F23:L23,"+III")&gt;0,"+III",IF(COUNTIF(F23:L23,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F23" s="9" t="str">
         <f t="array" ref="F23">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B23,C23),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G23" s="9" t="str">
         <f t="array" ref="G23">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B23,C23),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H23" s="9" t="str">
         <f t="array" ref="H23">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B23,C23),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I23" s="9">
         <f t="array" ref="I23">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B23,C23),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -3441,15 +3441,15 @@
       </c>
       <c r="J23" s="9" t="str">
         <f t="array" ref="J23">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B23,C23),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K23" s="9" t="str">
         <f t="array" ref="K23">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B23,C23),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L23" s="12" t="str">
         <f t="array" ref="L23">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B23,C23),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -3460,24 +3460,24 @@
         <v>3.5960000000000001</v>
       </c>
       <c r="D24" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F24:L24,"D")&gt;0,"D",IF(COUNTIF(F24:L24,"-III")&gt;0,"-III",IF(COUNTIF(F24:L24,"-II")&gt;0,"-II",IF(COUNTIF(F24:L24,"-I")&gt;0,"-I",IF(COUNTIF(F24:L24,"+0")&gt;0,"+0",IF(COUNTIF(F24:L24,"+I")&gt;0,"+I",IF(COUNTIF(F24:L24,"+II")&gt;0,"+II",IF(COUNTIF(F24:L24,"+III")&gt;0,"+III",IF(COUNTIF(F24:L24,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E24" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F24:L24,"-III")&gt;0,"-III",IF(COUNTIF(F24:L24,"-II")&gt;0,"-II",IF(COUNTIF(F24:L24,"-I")&gt;0,"-I",IF(COUNTIF(F24:L24,"+0")&gt;0,"+0",IF(COUNTIF(F24:L24,"+I")&gt;0,"+I",IF(COUNTIF(F24:L24,"+II")&gt;0,"+II",IF(COUNTIF(F24:L24,"+III")&gt;0,"+III",IF(COUNTIF(F24:L24,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F24" s="9" t="str">
         <f t="array" ref="F24">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B24,C24),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G24" s="9" t="str">
         <f t="array" ref="G24">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B24,C24),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H24" s="9" t="str">
         <f t="array" ref="H24">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B24,C24),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I24" s="9">
         <f t="array" ref="I24">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B24,C24),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -3485,15 +3485,15 @@
       </c>
       <c r="J24" s="9" t="str">
         <f t="array" ref="J24">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B24,C24),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K24" s="9" t="str">
         <f t="array" ref="K24">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B24,C24),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L24" s="12" t="str">
         <f t="array" ref="L24">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B24,C24),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -3504,24 +3504,24 @@
         <v>3.726</v>
       </c>
       <c r="D25" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F25:L25,"D")&gt;0,"D",IF(COUNTIF(F25:L25,"-III")&gt;0,"-III",IF(COUNTIF(F25:L25,"-II")&gt;0,"-II",IF(COUNTIF(F25:L25,"-I")&gt;0,"-I",IF(COUNTIF(F25:L25,"+0")&gt;0,"+0",IF(COUNTIF(F25:L25,"+I")&gt;0,"+I",IF(COUNTIF(F25:L25,"+II")&gt;0,"+II",IF(COUNTIF(F25:L25,"+III")&gt;0,"+III",IF(COUNTIF(F25:L25,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E25" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F25:L25,"-III")&gt;0,"-III",IF(COUNTIF(F25:L25,"-II")&gt;0,"-II",IF(COUNTIF(F25:L25,"-I")&gt;0,"-I",IF(COUNTIF(F25:L25,"+0")&gt;0,"+0",IF(COUNTIF(F25:L25,"+I")&gt;0,"+I",IF(COUNTIF(F25:L25,"+II")&gt;0,"+II",IF(COUNTIF(F25:L25,"+III")&gt;0,"+III",IF(COUNTIF(F25:L25,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F25" s="9" t="str">
         <f t="array" ref="F25">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B25,C25),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G25" s="9" t="str">
         <f t="array" ref="G25">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B25,C25),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H25" s="9" t="str">
         <f t="array" ref="H25">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B25,C25),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I25" s="9">
         <f t="array" ref="I25">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B25,C25),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -3529,15 +3529,15 @@
       </c>
       <c r="J25" s="9" t="str">
         <f t="array" ref="J25">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B25,C25),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K25" s="9" t="str">
         <f t="array" ref="K25">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B25,C25),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L25" s="12" t="str">
         <f t="array" ref="L25">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B25,C25),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -3548,24 +3548,24 @@
         <v>3.8559999999999999</v>
       </c>
       <c r="D26" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F26:L26,"D")&gt;0,"D",IF(COUNTIF(F26:L26,"-III")&gt;0,"-III",IF(COUNTIF(F26:L26,"-II")&gt;0,"-II",IF(COUNTIF(F26:L26,"-I")&gt;0,"-I",IF(COUNTIF(F26:L26,"+0")&gt;0,"+0",IF(COUNTIF(F26:L26,"+I")&gt;0,"+I",IF(COUNTIF(F26:L26,"+II")&gt;0,"+II",IF(COUNTIF(F26:L26,"+III")&gt;0,"+III",IF(COUNTIF(F26:L26,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E26" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F26:L26,"-III")&gt;0,"-III",IF(COUNTIF(F26:L26,"-II")&gt;0,"-II",IF(COUNTIF(F26:L26,"-I")&gt;0,"-I",IF(COUNTIF(F26:L26,"+0")&gt;0,"+0",IF(COUNTIF(F26:L26,"+I")&gt;0,"+I",IF(COUNTIF(F26:L26,"+II")&gt;0,"+II",IF(COUNTIF(F26:L26,"+III")&gt;0,"+III",IF(COUNTIF(F26:L26,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F26" s="9" t="str">
         <f t="array" ref="F26">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B26,C26),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G26" s="9" t="str">
         <f t="array" ref="G26">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B26,C26),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H26" s="9" t="str">
         <f t="array" ref="H26">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B26,C26),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I26" s="9">
         <f t="array" ref="I26">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B26,C26),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -3573,15 +3573,15 @@
       </c>
       <c r="J26" s="9" t="str">
         <f t="array" ref="J26">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B26,C26),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K26" s="9" t="str">
         <f t="array" ref="K26">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B26,C26),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L26" s="12" t="str">
         <f t="array" ref="L26">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B26,C26),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -3592,24 +3592,24 @@
         <v>3.9809999999999999</v>
       </c>
       <c r="D27" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F27:L27,"D")&gt;0,"D",IF(COUNTIF(F27:L27,"-III")&gt;0,"-III",IF(COUNTIF(F27:L27,"-II")&gt;0,"-II",IF(COUNTIF(F27:L27,"-I")&gt;0,"-I",IF(COUNTIF(F27:L27,"+0")&gt;0,"+0",IF(COUNTIF(F27:L27,"+I")&gt;0,"+I",IF(COUNTIF(F27:L27,"+II")&gt;0,"+II",IF(COUNTIF(F27:L27,"+III")&gt;0,"+III",IF(COUNTIF(F27:L27,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E27" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F27:L27,"-III")&gt;0,"-III",IF(COUNTIF(F27:L27,"-II")&gt;0,"-II",IF(COUNTIF(F27:L27,"-I")&gt;0,"-I",IF(COUNTIF(F27:L27,"+0")&gt;0,"+0",IF(COUNTIF(F27:L27,"+I")&gt;0,"+I",IF(COUNTIF(F27:L27,"+II")&gt;0,"+II",IF(COUNTIF(F27:L27,"+III")&gt;0,"+III",IF(COUNTIF(F27:L27,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F27" s="9" t="str">
         <f t="array" ref="F27">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B27,C27),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G27" s="9" t="str">
         <f t="array" ref="G27">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B27,C27),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H27" s="9" t="str">
         <f t="array" ref="H27">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B27,C27),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I27" s="9">
         <f t="array" ref="I27">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B27,C27),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -3617,15 +3617,15 @@
       </c>
       <c r="J27" s="9" t="str">
         <f t="array" ref="J27">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B27,C27),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K27" s="9" t="str">
         <f t="array" ref="K27">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B27,C27),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L27" s="12" t="str">
         <f t="array" ref="L27">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B27,C27),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -3636,24 +3636,24 @@
         <v>4.1050000000000004</v>
       </c>
       <c r="D28" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F28:L28,"D")&gt;0,"D",IF(COUNTIF(F28:L28,"-III")&gt;0,"-III",IF(COUNTIF(F28:L28,"-II")&gt;0,"-II",IF(COUNTIF(F28:L28,"-I")&gt;0,"-I",IF(COUNTIF(F28:L28,"+0")&gt;0,"+0",IF(COUNTIF(F28:L28,"+I")&gt;0,"+I",IF(COUNTIF(F28:L28,"+II")&gt;0,"+II",IF(COUNTIF(F28:L28,"+III")&gt;0,"+III",IF(COUNTIF(F28:L28,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E28" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F28:L28,"-III")&gt;0,"-III",IF(COUNTIF(F28:L28,"-II")&gt;0,"-II",IF(COUNTIF(F28:L28,"-I")&gt;0,"-I",IF(COUNTIF(F28:L28,"+0")&gt;0,"+0",IF(COUNTIF(F28:L28,"+I")&gt;0,"+I",IF(COUNTIF(F28:L28,"+II")&gt;0,"+II",IF(COUNTIF(F28:L28,"+III")&gt;0,"+III",IF(COUNTIF(F28:L28,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F28" s="9" t="str">
         <f t="array" ref="F28">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B28,C28),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G28" s="9" t="str">
         <f t="array" ref="G28">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B28,C28),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H28" s="9" t="str">
         <f t="array" ref="H28">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B28,C28),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I28" s="9">
         <f t="array" ref="I28">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B28,C28),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -3661,15 +3661,15 @@
       </c>
       <c r="J28" s="9" t="str">
         <f t="array" ref="J28">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B28,C28),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K28" s="9" t="str">
         <f t="array" ref="K28">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B28,C28),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L28" s="12" t="str">
         <f t="array" ref="L28">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B28,C28),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -3680,24 +3680,24 @@
         <v>4.2359999999999998</v>
       </c>
       <c r="D29" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F29:L29,"D")&gt;0,"D",IF(COUNTIF(F29:L29,"-III")&gt;0,"-III",IF(COUNTIF(F29:L29,"-II")&gt;0,"-II",IF(COUNTIF(F29:L29,"-I")&gt;0,"-I",IF(COUNTIF(F29:L29,"+0")&gt;0,"+0",IF(COUNTIF(F29:L29,"+I")&gt;0,"+I",IF(COUNTIF(F29:L29,"+II")&gt;0,"+II",IF(COUNTIF(F29:L29,"+III")&gt;0,"+III",IF(COUNTIF(F29:L29,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E29" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F29:L29,"-III")&gt;0,"-III",IF(COUNTIF(F29:L29,"-II")&gt;0,"-II",IF(COUNTIF(F29:L29,"-I")&gt;0,"-I",IF(COUNTIF(F29:L29,"+0")&gt;0,"+0",IF(COUNTIF(F29:L29,"+I")&gt;0,"+I",IF(COUNTIF(F29:L29,"+II")&gt;0,"+II",IF(COUNTIF(F29:L29,"+III")&gt;0,"+III",IF(COUNTIF(F29:L29,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F29" s="9" t="str">
         <f t="array" ref="F29">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B29,C29),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G29" s="9" t="str">
         <f t="array" ref="G29">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B29,C29),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H29" s="9" t="str">
         <f t="array" ref="H29">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B29,C29),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I29" s="9">
         <f t="array" ref="I29">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B29,C29),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -3705,15 +3705,15 @@
       </c>
       <c r="J29" s="9" t="str">
         <f t="array" ref="J29">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B29,C29),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K29" s="9" t="str">
         <f t="array" ref="K29">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B29,C29),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L29" s="12" t="str">
         <f t="array" ref="L29">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B29,C29),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -3724,24 +3724,24 @@
         <v>4.38</v>
       </c>
       <c r="D30" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F30:L30,"D")&gt;0,"D",IF(COUNTIF(F30:L30,"-III")&gt;0,"-III",IF(COUNTIF(F30:L30,"-II")&gt;0,"-II",IF(COUNTIF(F30:L30,"-I")&gt;0,"-I",IF(COUNTIF(F30:L30,"+0")&gt;0,"+0",IF(COUNTIF(F30:L30,"+I")&gt;0,"+I",IF(COUNTIF(F30:L30,"+II")&gt;0,"+II",IF(COUNTIF(F30:L30,"+III")&gt;0,"+III",IF(COUNTIF(F30:L30,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E30" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F30:L30,"-III")&gt;0,"-III",IF(COUNTIF(F30:L30,"-II")&gt;0,"-II",IF(COUNTIF(F30:L30,"-I")&gt;0,"-I",IF(COUNTIF(F30:L30,"+0")&gt;0,"+0",IF(COUNTIF(F30:L30,"+I")&gt;0,"+I",IF(COUNTIF(F30:L30,"+II")&gt;0,"+II",IF(COUNTIF(F30:L30,"+III")&gt;0,"+III",IF(COUNTIF(F30:L30,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F30" s="9" t="str">
         <f t="array" ref="F30">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B30,C30),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G30" s="9" t="str">
         <f t="array" ref="G30">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B30,C30),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H30" s="9" t="str">
         <f t="array" ref="H30">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B30,C30),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I30" s="9">
         <f t="array" ref="I30">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B30,C30),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -3749,15 +3749,15 @@
       </c>
       <c r="J30" s="9" t="str">
         <f t="array" ref="J30">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B30,C30),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K30" s="9" t="str">
         <f t="array" ref="K30">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B30,C30),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L30" s="12" t="str">
         <f t="array" ref="L30">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B30,C30),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
@@ -3768,24 +3768,24 @@
         <v>4.5129999999999999</v>
       </c>
       <c r="D31" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F31:L31,"D")&gt;0,"D",IF(COUNTIF(F31:L31,"-III")&gt;0,"-III",IF(COUNTIF(F31:L31,"-II")&gt;0,"-II",IF(COUNTIF(F31:L31,"-I")&gt;0,"-I",IF(COUNTIF(F31:L31,"+0")&gt;0,"+0",IF(COUNTIF(F31:L31,"+I")&gt;0,"+I",IF(COUNTIF(F31:L31,"+II")&gt;0,"+II",IF(COUNTIF(F31:L31,"+III")&gt;0,"+III",IF(COUNTIF(F31:L31,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E31" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F31:L31,"-III")&gt;0,"-III",IF(COUNTIF(F31:L31,"-II")&gt;0,"-II",IF(COUNTIF(F31:L31,"-I")&gt;0,"-I",IF(COUNTIF(F31:L31,"+0")&gt;0,"+0",IF(COUNTIF(F31:L31,"+I")&gt;0,"+I",IF(COUNTIF(F31:L31,"+II")&gt;0,"+II",IF(COUNTIF(F31:L31,"+III")&gt;0,"+III",IF(COUNTIF(F31:L31,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F31" s="9" t="str">
         <f t="array" ref="F31">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B31,C31),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G31" s="9" t="str">
         <f t="array" ref="G31">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B31,C31),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H31" s="9" t="str">
         <f t="array" ref="H31">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B31,C31),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I31" s="9">
         <f t="array" ref="I31">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B31,C31),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -3793,15 +3793,15 @@
       </c>
       <c r="J31" s="9" t="str">
         <f t="array" ref="J31">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B31,C31),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K31" s="9" t="str">
         <f t="array" ref="K31">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B31,C31),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L31" s="12" t="str">
         <f t="array" ref="L31">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B31,C31),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -3812,24 +3812,24 @@
         <v>4.6340000000000003</v>
       </c>
       <c r="D32" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F32:L32,"D")&gt;0,"D",IF(COUNTIF(F32:L32,"-III")&gt;0,"-III",IF(COUNTIF(F32:L32,"-II")&gt;0,"-II",IF(COUNTIF(F32:L32,"-I")&gt;0,"-I",IF(COUNTIF(F32:L32,"+0")&gt;0,"+0",IF(COUNTIF(F32:L32,"+I")&gt;0,"+I",IF(COUNTIF(F32:L32,"+II")&gt;0,"+II",IF(COUNTIF(F32:L32,"+III")&gt;0,"+III",IF(COUNTIF(F32:L32,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E32" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F32:L32,"-III")&gt;0,"-III",IF(COUNTIF(F32:L32,"-II")&gt;0,"-II",IF(COUNTIF(F32:L32,"-I")&gt;0,"-I",IF(COUNTIF(F32:L32,"+0")&gt;0,"+0",IF(COUNTIF(F32:L32,"+I")&gt;0,"+I",IF(COUNTIF(F32:L32,"+II")&gt;0,"+II",IF(COUNTIF(F32:L32,"+III")&gt;0,"+III",IF(COUNTIF(F32:L32,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F32" s="9" t="str">
         <f t="array" ref="F32">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B32,C32),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G32" s="9" t="str">
         <f t="array" ref="G32">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B32,C32),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H32" s="9" t="str">
         <f t="array" ref="H32">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B32,C32),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I32" s="9">
         <f t="array" ref="I32">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B32,C32),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -3837,15 +3837,15 @@
       </c>
       <c r="J32" s="9" t="str">
         <f t="array" ref="J32">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B32,C32),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K32" s="9" t="str">
         <f t="array" ref="K32">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B32,C32),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L32" s="12" t="str">
         <f t="array" ref="L32">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B32,C32),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -3856,24 +3856,24 @@
         <v>4.7480000000000002</v>
       </c>
       <c r="D33" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F33:L33,"D")&gt;0,"D",IF(COUNTIF(F33:L33,"-III")&gt;0,"-III",IF(COUNTIF(F33:L33,"-II")&gt;0,"-II",IF(COUNTIF(F33:L33,"-I")&gt;0,"-I",IF(COUNTIF(F33:L33,"+0")&gt;0,"+0",IF(COUNTIF(F33:L33,"+I")&gt;0,"+I",IF(COUNTIF(F33:L33,"+II")&gt;0,"+II",IF(COUNTIF(F33:L33,"+III")&gt;0,"+III",IF(COUNTIF(F33:L33,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E33" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F33:L33,"-III")&gt;0,"-III",IF(COUNTIF(F33:L33,"-II")&gt;0,"-II",IF(COUNTIF(F33:L33,"-I")&gt;0,"-I",IF(COUNTIF(F33:L33,"+0")&gt;0,"+0",IF(COUNTIF(F33:L33,"+I")&gt;0,"+I",IF(COUNTIF(F33:L33,"+II")&gt;0,"+II",IF(COUNTIF(F33:L33,"+III")&gt;0,"+III",IF(COUNTIF(F33:L33,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F33" s="9" t="str">
         <f t="array" ref="F33">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B33,C33),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G33" s="9" t="str">
         <f t="array" ref="G33">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B33,C33),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H33" s="9" t="str">
         <f t="array" ref="H33">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B33,C33),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I33" s="9">
         <f t="array" ref="I33">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B33,C33),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -3881,15 +3881,15 @@
       </c>
       <c r="J33" s="9" t="str">
         <f t="array" ref="J33">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B33,C33),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K33" s="9" t="str">
         <f t="array" ref="K33">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B33,C33),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L33" s="12" t="str">
         <f t="array" ref="L33">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B33,C33),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -3900,24 +3900,24 @@
         <v>4.8609999999999998</v>
       </c>
       <c r="D34" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F34:L34,"D")&gt;0,"D",IF(COUNTIF(F34:L34,"-III")&gt;0,"-III",IF(COUNTIF(F34:L34,"-II")&gt;0,"-II",IF(COUNTIF(F34:L34,"-I")&gt;0,"-I",IF(COUNTIF(F34:L34,"+0")&gt;0,"+0",IF(COUNTIF(F34:L34,"+I")&gt;0,"+I",IF(COUNTIF(F34:L34,"+II")&gt;0,"+II",IF(COUNTIF(F34:L34,"+III")&gt;0,"+III",IF(COUNTIF(F34:L34,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E34" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F34:L34,"-III")&gt;0,"-III",IF(COUNTIF(F34:L34,"-II")&gt;0,"-II",IF(COUNTIF(F34:L34,"-I")&gt;0,"-I",IF(COUNTIF(F34:L34,"+0")&gt;0,"+0",IF(COUNTIF(F34:L34,"+I")&gt;0,"+I",IF(COUNTIF(F34:L34,"+II")&gt;0,"+II",IF(COUNTIF(F34:L34,"+III")&gt;0,"+III",IF(COUNTIF(F34:L34,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F34" s="9" t="str">
         <f t="array" ref="F34">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B34,C34),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G34" s="9" t="str">
         <f t="array" ref="G34">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B34,C34),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H34" s="9" t="str">
         <f t="array" ref="H34">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B34,C34),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I34" s="9">
         <f t="array" ref="I34">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B34,C34),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -3925,15 +3925,15 @@
       </c>
       <c r="J34" s="9" t="str">
         <f t="array" ref="J34">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B34,C34),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K34" s="9" t="str">
         <f t="array" ref="K34">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B34,C34),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L34" s="12" t="str">
         <f t="array" ref="L34">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B34,C34),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
@@ -3944,24 +3944,24 @@
         <v>4.9749999999999996</v>
       </c>
       <c r="D35" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F35:L35,"D")&gt;0,"D",IF(COUNTIF(F35:L35,"-III")&gt;0,"-III",IF(COUNTIF(F35:L35,"-II")&gt;0,"-II",IF(COUNTIF(F35:L35,"-I")&gt;0,"-I",IF(COUNTIF(F35:L35,"+0")&gt;0,"+0",IF(COUNTIF(F35:L35,"+I")&gt;0,"+I",IF(COUNTIF(F35:L35,"+II")&gt;0,"+II",IF(COUNTIF(F35:L35,"+III")&gt;0,"+III",IF(COUNTIF(F35:L35,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E35" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F35:L35,"-III")&gt;0,"-III",IF(COUNTIF(F35:L35,"-II")&gt;0,"-II",IF(COUNTIF(F35:L35,"-I")&gt;0,"-I",IF(COUNTIF(F35:L35,"+0")&gt;0,"+0",IF(COUNTIF(F35:L35,"+I")&gt;0,"+I",IF(COUNTIF(F35:L35,"+II")&gt;0,"+II",IF(COUNTIF(F35:L35,"+III")&gt;0,"+III",IF(COUNTIF(F35:L35,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F35" s="9" t="str">
         <f t="array" ref="F35">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B35,C35),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G35" s="9" t="str">
         <f t="array" ref="G35">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B35,C35),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H35" s="9" t="str">
         <f t="array" ref="H35">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B35,C35),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I35" s="9">
         <f t="array" ref="I35">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B35,C35),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -3969,15 +3969,15 @@
       </c>
       <c r="J35" s="9" t="str">
         <f t="array" ref="J35">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B35,C35),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K35" s="9" t="str">
         <f t="array" ref="K35">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B35,C35),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L35" s="12" t="str">
         <f t="array" ref="L35">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B35,C35),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -3988,24 +3988,24 @@
         <v>5.0910000000000002</v>
       </c>
       <c r="D36" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F36:L36,"D")&gt;0,"D",IF(COUNTIF(F36:L36,"-III")&gt;0,"-III",IF(COUNTIF(F36:L36,"-II")&gt;0,"-II",IF(COUNTIF(F36:L36,"-I")&gt;0,"-I",IF(COUNTIF(F36:L36,"+0")&gt;0,"+0",IF(COUNTIF(F36:L36,"+I")&gt;0,"+I",IF(COUNTIF(F36:L36,"+II")&gt;0,"+II",IF(COUNTIF(F36:L36,"+III")&gt;0,"+III",IF(COUNTIF(F36:L36,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E36" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F36:L36,"-III")&gt;0,"-III",IF(COUNTIF(F36:L36,"-II")&gt;0,"-II",IF(COUNTIF(F36:L36,"-I")&gt;0,"-I",IF(COUNTIF(F36:L36,"+0")&gt;0,"+0",IF(COUNTIF(F36:L36,"+I")&gt;0,"+I",IF(COUNTIF(F36:L36,"+II")&gt;0,"+II",IF(COUNTIF(F36:L36,"+III")&gt;0,"+III",IF(COUNTIF(F36:L36,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F36" s="9" t="str">
         <f t="array" ref="F36">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B36,C36),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G36" s="9" t="str">
         <f t="array" ref="G36">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B36,C36),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H36" s="9" t="str">
         <f t="array" ref="H36">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B36,C36),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I36" s="9">
         <f t="array" ref="I36">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B36,C36),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -4013,15 +4013,15 @@
       </c>
       <c r="J36" s="9" t="str">
         <f t="array" ref="J36">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B36,C36),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K36" s="9" t="str">
         <f t="array" ref="K36">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B36,C36),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L36" s="12" t="str">
         <f t="array" ref="L36">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B36,C36),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -4032,24 +4032,24 @@
         <v>5.2140000000000004</v>
       </c>
       <c r="D37" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F37:L37,"D")&gt;0,"D",IF(COUNTIF(F37:L37,"-III")&gt;0,"-III",IF(COUNTIF(F37:L37,"-II")&gt;0,"-II",IF(COUNTIF(F37:L37,"-I")&gt;0,"-I",IF(COUNTIF(F37:L37,"+0")&gt;0,"+0",IF(COUNTIF(F37:L37,"+I")&gt;0,"+I",IF(COUNTIF(F37:L37,"+II")&gt;0,"+II",IF(COUNTIF(F37:L37,"+III")&gt;0,"+III",IF(COUNTIF(F37:L37,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E37" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F37:L37,"-III")&gt;0,"-III",IF(COUNTIF(F37:L37,"-II")&gt;0,"-II",IF(COUNTIF(F37:L37,"-I")&gt;0,"-I",IF(COUNTIF(F37:L37,"+0")&gt;0,"+0",IF(COUNTIF(F37:L37,"+I")&gt;0,"+I",IF(COUNTIF(F37:L37,"+II")&gt;0,"+II",IF(COUNTIF(F37:L37,"+III")&gt;0,"+III",IF(COUNTIF(F37:L37,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F37" s="9" t="str">
         <f t="array" ref="F37">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B37,C37),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G37" s="9" t="str">
         <f t="array" ref="G37">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B37,C37),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H37" s="9" t="str">
         <f t="array" ref="H37">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B37,C37),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I37" s="9">
         <f t="array" ref="I37">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B37,C37),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -4057,15 +4057,15 @@
       </c>
       <c r="J37" s="9" t="str">
         <f t="array" ref="J37">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B37,C37),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K37" s="9" t="str">
         <f t="array" ref="K37">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B37,C37),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L37" s="12" t="str">
         <f t="array" ref="L37">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B37,C37),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -4076,24 +4076,24 @@
         <v>5.3390000000000004</v>
       </c>
       <c r="D38" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F38:L38,"D")&gt;0,"D",IF(COUNTIF(F38:L38,"-III")&gt;0,"-III",IF(COUNTIF(F38:L38,"-II")&gt;0,"-II",IF(COUNTIF(F38:L38,"-I")&gt;0,"-I",IF(COUNTIF(F38:L38,"+0")&gt;0,"+0",IF(COUNTIF(F38:L38,"+I")&gt;0,"+I",IF(COUNTIF(F38:L38,"+II")&gt;0,"+II",IF(COUNTIF(F38:L38,"+III")&gt;0,"+III",IF(COUNTIF(F38:L38,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E38" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F38:L38,"-III")&gt;0,"-III",IF(COUNTIF(F38:L38,"-II")&gt;0,"-II",IF(COUNTIF(F38:L38,"-I")&gt;0,"-I",IF(COUNTIF(F38:L38,"+0")&gt;0,"+0",IF(COUNTIF(F38:L38,"+I")&gt;0,"+I",IF(COUNTIF(F38:L38,"+II")&gt;0,"+II",IF(COUNTIF(F38:L38,"+III")&gt;0,"+III",IF(COUNTIF(F38:L38,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F38" s="9" t="str">
         <f t="array" ref="F38">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B38,C38),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G38" s="9" t="str">
         <f t="array" ref="G38">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B38,C38),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H38" s="9" t="str">
         <f t="array" ref="H38">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B38,C38),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I38" s="9">
         <f t="array" ref="I38">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B38,C38),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -4101,15 +4101,15 @@
       </c>
       <c r="J38" s="9" t="str">
         <f t="array" ref="J38">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B38,C38),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K38" s="9" t="str">
         <f t="array" ref="K38">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B38,C38),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L38" s="12" t="str">
         <f t="array" ref="L38">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B38,C38),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
@@ -4120,24 +4120,24 @@
         <v>5.4950000000000001</v>
       </c>
       <c r="D39" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F39:L39,"D")&gt;0,"D",IF(COUNTIF(F39:L39,"-III")&gt;0,"-III",IF(COUNTIF(F39:L39,"-II")&gt;0,"-II",IF(COUNTIF(F39:L39,"-I")&gt;0,"-I",IF(COUNTIF(F39:L39,"+0")&gt;0,"+0",IF(COUNTIF(F39:L39,"+I")&gt;0,"+I",IF(COUNTIF(F39:L39,"+II")&gt;0,"+II",IF(COUNTIF(F39:L39,"+III")&gt;0,"+III",IF(COUNTIF(F39:L39,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E39" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F39:L39,"-III")&gt;0,"-III",IF(COUNTIF(F39:L39,"-II")&gt;0,"-II",IF(COUNTIF(F39:L39,"-I")&gt;0,"-I",IF(COUNTIF(F39:L39,"+0")&gt;0,"+0",IF(COUNTIF(F39:L39,"+I")&gt;0,"+I",IF(COUNTIF(F39:L39,"+II")&gt;0,"+II",IF(COUNTIF(F39:L39,"+III")&gt;0,"+III",IF(COUNTIF(F39:L39,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F39" s="9" t="str">
         <f t="array" ref="F39">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B39,C39),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G39" s="9" t="str">
         <f t="array" ref="G39">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B39,C39),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H39" s="9" t="str">
         <f t="array" ref="H39">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B39,C39),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I39" s="9">
         <f t="array" ref="I39">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B39,C39),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -4145,15 +4145,15 @@
       </c>
       <c r="J39" s="9" t="str">
         <f t="array" ref="J39">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B39,C39),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K39" s="9" t="str">
         <f t="array" ref="K39">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B39,C39),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L39" s="12" t="str">
         <f t="array" ref="L39">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B39,C39),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -4164,24 +4164,24 @@
         <v>5.7050000000000001</v>
       </c>
       <c r="D40" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F40:L40,"D")&gt;0,"D",IF(COUNTIF(F40:L40,"-III")&gt;0,"-III",IF(COUNTIF(F40:L40,"-II")&gt;0,"-II",IF(COUNTIF(F40:L40,"-I")&gt;0,"-I",IF(COUNTIF(F40:L40,"+0")&gt;0,"+0",IF(COUNTIF(F40:L40,"+I")&gt;0,"+I",IF(COUNTIF(F40:L40,"+II")&gt;0,"+II",IF(COUNTIF(F40:L40,"+III")&gt;0,"+III",IF(COUNTIF(F40:L40,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E40" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F40:L40,"-III")&gt;0,"-III",IF(COUNTIF(F40:L40,"-II")&gt;0,"-II",IF(COUNTIF(F40:L40,"-I")&gt;0,"-I",IF(COUNTIF(F40:L40,"+0")&gt;0,"+0",IF(COUNTIF(F40:L40,"+I")&gt;0,"+I",IF(COUNTIF(F40:L40,"+II")&gt;0,"+II",IF(COUNTIF(F40:L40,"+III")&gt;0,"+III",IF(COUNTIF(F40:L40,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F40" s="9" t="str">
         <f t="array" ref="F40">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B40,C40),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G40" s="9" t="str">
         <f t="array" ref="G40">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B40,C40),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H40" s="9" t="str">
         <f t="array" ref="H40">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B40,C40),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="I40" s="9">
         <f t="array" ref="I40">INDEX(DA!$K$50:$K$71,IFERROR(MATCH(MIN(IF(DA!$D$50:$D$71&gt;AVERAGE(B40,C40),DA!$D$50:$D$71)),DA!$D$50:$D$71),1))</f>
@@ -4189,15 +4189,15 @@
       </c>
       <c r="J40" s="9" t="str">
         <f t="array" ref="J40">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B40,C40),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K40" s="9" t="str">
         <f t="array" ref="K40">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B40,C40),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L40" s="12" t="str">
         <f t="array" ref="L40">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B40,C40),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -5397,7 +5397,7 @@
   <dimension ref="B2:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5580,11 +5580,11 @@
         <v>1</v>
       </c>
       <c r="O11" s="30" t="str">
-        <f t="shared" ref="O11" si="3">IF(ISNUMBER($M11),W11,IF($X11,"D","ND"))</f>
-        <v>+III</v>
+        <f>IF(E11="Nee","NR",IF(ISNUMBER($M11),W11,IF($X11,"D","ND")))</f>
+        <v>NR</v>
       </c>
       <c r="Q11" s="31">
-        <f t="shared" ref="Q11:Q29" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
+        <f t="shared" ref="Q11:Q29" si="3">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
         <v>1</v>
       </c>
       <c r="R11" s="10">
@@ -5592,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" ref="S11:S29" si="5">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
+        <f t="shared" ref="S11:S29" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="T11" s="10">
@@ -5632,19 +5632,19 @@
       <c r="N12" s="11"/>
       <c r="O12" s="32"/>
       <c r="Q12" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" ref="R12:R30" si="5">IF(M12="-",1,Q12)</f>
+        <v>1</v>
+      </c>
+      <c r="S12" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R12" s="10">
-        <f t="shared" ref="R12:R30" si="6">IF(M12="-",1,Q12)</f>
-        <v>1</v>
-      </c>
-      <c r="S12" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" ref="T12:T30" si="7">IF(L12="-",0,S12)</f>
+        <f t="shared" ref="T12:T30" si="6">IF(L12="-",0,S12)</f>
         <v>0</v>
       </c>
       <c r="U12" s="9">
@@ -5660,7 +5660,7 @@
         <v>+III</v>
       </c>
       <c r="X12" s="12" t="b">
-        <f t="shared" ref="X12:X30" si="8">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
+        <f t="shared" ref="X12:X30" si="7">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -5680,19 +5680,19 @@
       <c r="N13" s="11"/>
       <c r="O13" s="32"/>
       <c r="Q13" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R13" s="10">
+        <v>0</v>
+      </c>
+      <c r="T13" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S13" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U13" s="9">
@@ -5708,7 +5708,7 @@
         <v>+III</v>
       </c>
       <c r="X13" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5728,19 +5728,19 @@
       <c r="N14" s="11"/>
       <c r="O14" s="32"/>
       <c r="Q14" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S14" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R14" s="10">
+        <v>0</v>
+      </c>
+      <c r="T14" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S14" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U14" s="9">
@@ -5756,7 +5756,7 @@
         <v>+III</v>
       </c>
       <c r="X14" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5776,19 +5776,19 @@
       <c r="N15" s="11"/>
       <c r="O15" s="32"/>
       <c r="Q15" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S15" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R15" s="10">
+        <v>0</v>
+      </c>
+      <c r="T15" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S15" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U15" s="9">
@@ -5804,7 +5804,7 @@
         <v>+III</v>
       </c>
       <c r="X15" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5824,19 +5824,19 @@
       <c r="N16" s="11"/>
       <c r="O16" s="32"/>
       <c r="Q16" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R16" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S16" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R16" s="10">
+        <v>0</v>
+      </c>
+      <c r="T16" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S16" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U16" s="9">
@@ -5852,7 +5852,7 @@
         <v>+III</v>
       </c>
       <c r="X16" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5872,19 +5872,19 @@
       <c r="N17" s="11"/>
       <c r="O17" s="32"/>
       <c r="Q17" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R17" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S17" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R17" s="10">
+        <v>0</v>
+      </c>
+      <c r="T17" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S17" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U17" s="9">
@@ -5900,7 +5900,7 @@
         <v>+III</v>
       </c>
       <c r="X17" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5920,19 +5920,19 @@
       <c r="N18" s="11"/>
       <c r="O18" s="32"/>
       <c r="Q18" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R18" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S18" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R18" s="10">
+        <v>0</v>
+      </c>
+      <c r="T18" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S18" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U18" s="9">
@@ -5948,7 +5948,7 @@
         <v>+III</v>
       </c>
       <c r="X18" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5968,19 +5968,19 @@
       <c r="N19" s="11"/>
       <c r="O19" s="32"/>
       <c r="Q19" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S19" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R19" s="10">
+        <v>0</v>
+      </c>
+      <c r="T19" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S19" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U19" s="9">
@@ -5996,7 +5996,7 @@
         <v>+III</v>
       </c>
       <c r="X19" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6016,19 +6016,19 @@
       <c r="N20" s="11"/>
       <c r="O20" s="32"/>
       <c r="Q20" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R20" s="10">
+        <v>0</v>
+      </c>
+      <c r="T20" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S20" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U20" s="9">
@@ -6044,7 +6044,7 @@
         <v>+III</v>
       </c>
       <c r="X20" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6064,19 +6064,19 @@
       <c r="N21" s="11"/>
       <c r="O21" s="32"/>
       <c r="Q21" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R21" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S21" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R21" s="10">
+        <v>0</v>
+      </c>
+      <c r="T21" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S21" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U21" s="9">
@@ -6092,7 +6092,7 @@
         <v>+III</v>
       </c>
       <c r="X21" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6112,19 +6112,19 @@
       <c r="N22" s="11"/>
       <c r="O22" s="32"/>
       <c r="Q22" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S22" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R22" s="10">
+        <v>0</v>
+      </c>
+      <c r="T22" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S22" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U22" s="9">
@@ -6140,7 +6140,7 @@
         <v>+III</v>
       </c>
       <c r="X22" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6160,19 +6160,19 @@
       <c r="N23" s="11"/>
       <c r="O23" s="32"/>
       <c r="Q23" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R23" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S23" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R23" s="10">
+        <v>0</v>
+      </c>
+      <c r="T23" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S23" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U23" s="9">
@@ -6188,7 +6188,7 @@
         <v>+III</v>
       </c>
       <c r="X23" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6208,19 +6208,19 @@
       <c r="N24" s="11"/>
       <c r="O24" s="32"/>
       <c r="Q24" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S24" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R24" s="10">
+        <v>0</v>
+      </c>
+      <c r="T24" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S24" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U24" s="9">
@@ -6236,7 +6236,7 @@
         <v>+III</v>
       </c>
       <c r="X24" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6256,19 +6256,19 @@
       <c r="N25" s="11"/>
       <c r="O25" s="32"/>
       <c r="Q25" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R25" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S25" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R25" s="10">
+        <v>0</v>
+      </c>
+      <c r="T25" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S25" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U25" s="9">
@@ -6284,7 +6284,7 @@
         <v>+III</v>
       </c>
       <c r="X25" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6304,19 +6304,19 @@
       <c r="N26" s="11"/>
       <c r="O26" s="32"/>
       <c r="Q26" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S26" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R26" s="10">
+        <v>0</v>
+      </c>
+      <c r="T26" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U26" s="9">
@@ -6332,7 +6332,7 @@
         <v>+III</v>
       </c>
       <c r="X26" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6352,19 +6352,19 @@
       <c r="N27" s="11"/>
       <c r="O27" s="32"/>
       <c r="Q27" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S27" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R27" s="10">
+        <v>0</v>
+      </c>
+      <c r="T27" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S27" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U27" s="9">
@@ -6380,7 +6380,7 @@
         <v>+III</v>
       </c>
       <c r="X27" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6400,19 +6400,19 @@
       <c r="N28" s="11"/>
       <c r="O28" s="32"/>
       <c r="Q28" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R28" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S28" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R28" s="10">
+        <v>0</v>
+      </c>
+      <c r="T28" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S28" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U28" s="9">
@@ -6428,7 +6428,7 @@
         <v>+III</v>
       </c>
       <c r="X28" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6448,19 +6448,19 @@
       <c r="N29" s="11"/>
       <c r="O29" s="32"/>
       <c r="Q29" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R29" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S29" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R29" s="10">
+        <v>0</v>
+      </c>
+      <c r="T29" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S29" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U29" s="9">
@@ -6476,7 +6476,7 @@
         <v>+III</v>
       </c>
       <c r="X29" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6500,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="R30" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S30" s="15">
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U30" s="14">
@@ -6524,7 +6524,7 @@
         <v>+III</v>
       </c>
       <c r="X30" s="17" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6651,7 +6651,7 @@
   <dimension ref="B2:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6834,11 +6834,11 @@
         <v>1</v>
       </c>
       <c r="O11" s="30" t="str">
-        <f t="shared" ref="O11" si="2">IF(ISNUMBER($M11),W11,IF($X11,"D","ND"))</f>
-        <v>+III</v>
+        <f>IF(E11="Nee","NR",IF(ISNUMBER($M11),W11,IF($X11,"D","ND")))</f>
+        <v>NR</v>
       </c>
       <c r="Q11" s="31">
-        <f t="shared" ref="Q11:Q26" si="3">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
+        <f t="shared" ref="Q11:Q26" si="2">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
         <v>1</v>
       </c>
       <c r="R11" s="10">
@@ -6846,7 +6846,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" ref="S11:S26" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
+        <f t="shared" ref="S11:S26" si="3">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="T11" s="10">
@@ -6886,19 +6886,19 @@
       <c r="N12" s="11"/>
       <c r="O12" s="32"/>
       <c r="Q12" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" ref="R12:R26" si="4">IF(M12="-",1,Q12)</f>
+        <v>1</v>
+      </c>
+      <c r="S12" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R12" s="10">
-        <f t="shared" ref="R12:R26" si="5">IF(M12="-",1,Q12)</f>
-        <v>1</v>
-      </c>
-      <c r="S12" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" ref="T12:T26" si="6">IF(L12="-",0,S12)</f>
+        <f t="shared" ref="T12:T26" si="5">IF(L12="-",0,S12)</f>
         <v>0</v>
       </c>
       <c r="U12" s="9">
@@ -6914,7 +6914,7 @@
         <v>+III</v>
       </c>
       <c r="X12" s="12" t="b">
-        <f t="shared" ref="X12:X26" si="7">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
+        <f t="shared" ref="X12:X26" si="6">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -6934,19 +6934,19 @@
       <c r="N13" s="11"/>
       <c r="O13" s="32"/>
       <c r="Q13" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R13" s="10">
+        <v>0</v>
+      </c>
+      <c r="T13" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S13" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="10">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U13" s="9">
@@ -6962,7 +6962,7 @@
         <v>+III</v>
       </c>
       <c r="X13" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6982,19 +6982,19 @@
       <c r="N14" s="11"/>
       <c r="O14" s="32"/>
       <c r="Q14" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S14" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R14" s="10">
+        <v>0</v>
+      </c>
+      <c r="T14" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S14" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="10">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U14" s="9">
@@ -7010,7 +7010,7 @@
         <v>+III</v>
       </c>
       <c r="X14" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7030,19 +7030,19 @@
       <c r="N15" s="11"/>
       <c r="O15" s="32"/>
       <c r="Q15" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S15" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R15" s="10">
+        <v>0</v>
+      </c>
+      <c r="T15" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S15" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="10">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U15" s="9">
@@ -7058,7 +7058,7 @@
         <v>+III</v>
       </c>
       <c r="X15" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7078,19 +7078,19 @@
       <c r="N16" s="11"/>
       <c r="O16" s="32"/>
       <c r="Q16" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R16" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S16" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R16" s="10">
+        <v>0</v>
+      </c>
+      <c r="T16" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S16" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="10">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U16" s="9">
@@ -7106,7 +7106,7 @@
         <v>+III</v>
       </c>
       <c r="X16" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7126,19 +7126,19 @@
       <c r="N17" s="11"/>
       <c r="O17" s="32"/>
       <c r="Q17" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R17" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S17" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R17" s="10">
+        <v>0</v>
+      </c>
+      <c r="T17" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S17" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="10">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U17" s="9">
@@ -7154,7 +7154,7 @@
         <v>+III</v>
       </c>
       <c r="X17" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7174,19 +7174,19 @@
       <c r="N18" s="11"/>
       <c r="O18" s="32"/>
       <c r="Q18" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R18" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S18" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R18" s="10">
+        <v>0</v>
+      </c>
+      <c r="T18" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S18" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="10">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U18" s="9">
@@ -7202,7 +7202,7 @@
         <v>+III</v>
       </c>
       <c r="X18" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7222,19 +7222,19 @@
       <c r="N19" s="11"/>
       <c r="O19" s="32"/>
       <c r="Q19" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S19" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R19" s="10">
+        <v>0</v>
+      </c>
+      <c r="T19" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S19" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="10">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U19" s="9">
@@ -7250,7 +7250,7 @@
         <v>+III</v>
       </c>
       <c r="X19" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7270,19 +7270,19 @@
       <c r="N20" s="11"/>
       <c r="O20" s="32"/>
       <c r="Q20" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R20" s="10">
+        <v>0</v>
+      </c>
+      <c r="T20" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S20" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="10">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U20" s="9">
@@ -7298,7 +7298,7 @@
         <v>+III</v>
       </c>
       <c r="X20" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7318,19 +7318,19 @@
       <c r="N21" s="11"/>
       <c r="O21" s="32"/>
       <c r="Q21" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R21" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S21" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R21" s="10">
+        <v>0</v>
+      </c>
+      <c r="T21" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S21" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="10">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U21" s="9">
@@ -7346,7 +7346,7 @@
         <v>+III</v>
       </c>
       <c r="X21" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7366,19 +7366,19 @@
       <c r="N22" s="11"/>
       <c r="O22" s="32"/>
       <c r="Q22" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S22" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R22" s="10">
+        <v>0</v>
+      </c>
+      <c r="T22" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S22" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="10">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U22" s="9">
@@ -7394,7 +7394,7 @@
         <v>+III</v>
       </c>
       <c r="X22" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7414,19 +7414,19 @@
       <c r="N23" s="11"/>
       <c r="O23" s="32"/>
       <c r="Q23" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R23" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S23" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R23" s="10">
+        <v>0</v>
+      </c>
+      <c r="T23" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S23" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="10">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U23" s="9">
@@ -7442,7 +7442,7 @@
         <v>+III</v>
       </c>
       <c r="X23" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7462,19 +7462,19 @@
       <c r="N24" s="11"/>
       <c r="O24" s="32"/>
       <c r="Q24" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S24" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R24" s="10">
+        <v>0</v>
+      </c>
+      <c r="T24" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S24" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="10">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U24" s="9">
@@ -7490,7 +7490,7 @@
         <v>+III</v>
       </c>
       <c r="X24" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7510,19 +7510,19 @@
       <c r="N25" s="11"/>
       <c r="O25" s="32"/>
       <c r="Q25" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R25" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S25" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R25" s="10">
+        <v>0</v>
+      </c>
+      <c r="T25" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S25" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="10">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U25" s="9">
@@ -7538,7 +7538,7 @@
         <v>+III</v>
       </c>
       <c r="X25" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7558,19 +7558,19 @@
       <c r="N26" s="11"/>
       <c r="O26" s="32"/>
       <c r="Q26" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S26" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R26" s="10">
+        <v>0</v>
+      </c>
+      <c r="T26" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U26" s="9">
@@ -7586,7 +7586,7 @@
         <v>+III</v>
       </c>
       <c r="X26" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7809,7 +7809,7 @@
   <dimension ref="B2:U73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7966,19 +7966,19 @@
         <v>0</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11" si="0">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>+III</v>
+        <f>IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <v>NR</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11:M69" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11:M69" si="0">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N69" si="2">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11:N69" si="1">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11:O69" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11:O69" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
@@ -8014,19 +8014,19 @@
       <c r="J12" s="10"/>
       <c r="K12" s="32"/>
       <c r="M12" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N12" s="10">
+      <c r="O12" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="10">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P69" si="4">IF(J12="-",0,O12)</f>
+        <f t="shared" ref="P12:P69" si="3">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
@@ -8042,7 +8042,7 @@
         <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T69" si="5">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <f t="shared" ref="T12:T69" si="4">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -8058,19 +8058,19 @@
       <c r="J13" s="10"/>
       <c r="K13" s="32"/>
       <c r="M13" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N13" s="10">
+      <c r="O13" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O13" s="10">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q13" s="9">
@@ -8086,7 +8086,7 @@
         <v>+III</v>
       </c>
       <c r="T13" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8102,19 +8102,19 @@
       <c r="J14" s="10"/>
       <c r="K14" s="32"/>
       <c r="M14" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N14" s="10">
+      <c r="O14" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q14" s="9">
@@ -8130,7 +8130,7 @@
         <v>+III</v>
       </c>
       <c r="T14" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8146,19 +8146,19 @@
       <c r="J15" s="10"/>
       <c r="K15" s="32"/>
       <c r="M15" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N15" s="10">
+      <c r="O15" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q15" s="9">
@@ -8174,7 +8174,7 @@
         <v>+III</v>
       </c>
       <c r="T15" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8190,19 +8190,19 @@
       <c r="J16" s="10"/>
       <c r="K16" s="32"/>
       <c r="M16" s="31">
-        <f t="shared" ref="M16:M62" si="6">IF(AND(F16="Geen faalkans",H16="Nee"),1,1-J16)</f>
+        <f t="shared" ref="M16:M62" si="5">IF(AND(F16="Geen faalkans",H16="Nee"),1,1-J16)</f>
         <v>1</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" ref="N16:N62" si="7">IF(J16="-",1,M16)</f>
+        <f t="shared" ref="N16:N62" si="6">IF(J16="-",1,M16)</f>
         <v>1</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" ref="O16:O62" si="8">IF(AND(F16="Geen faalkans",H16="Nee"),0,J16*$C$3)</f>
+        <f t="shared" ref="O16:O62" si="7">IF(AND(F16="Geen faalkans",H16="Nee"),0,J16*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" ref="P16:P62" si="9">IF(J16="-",0,O16)</f>
+        <f t="shared" ref="P16:P62" si="8">IF(J16="-",0,O16)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="9">
@@ -8218,7 +8218,7 @@
         <v>+III</v>
       </c>
       <c r="T16" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8234,19 +8234,19 @@
       <c r="J17" s="10"/>
       <c r="K17" s="32"/>
       <c r="M17" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N17" s="10">
+      <c r="O17" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q17" s="9">
@@ -8262,7 +8262,7 @@
         <v>+III</v>
       </c>
       <c r="T17" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8278,19 +8278,19 @@
       <c r="J18" s="10"/>
       <c r="K18" s="32"/>
       <c r="M18" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N18" s="10">
+      <c r="O18" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q18" s="9">
@@ -8306,7 +8306,7 @@
         <v>+III</v>
       </c>
       <c r="T18" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8322,19 +8322,19 @@
       <c r="J19" s="10"/>
       <c r="K19" s="32"/>
       <c r="M19" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N19" s="10">
+      <c r="O19" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="10">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q19" s="9">
@@ -8350,7 +8350,7 @@
         <v>+III</v>
       </c>
       <c r="T19" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8366,19 +8366,19 @@
       <c r="J20" s="10"/>
       <c r="K20" s="32"/>
       <c r="M20" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N20" s="10">
+      <c r="O20" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="10">
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q20" s="9">
@@ -8394,7 +8394,7 @@
         <v>+III</v>
       </c>
       <c r="T20" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8410,19 +8410,19 @@
       <c r="J21" s="10"/>
       <c r="K21" s="32"/>
       <c r="M21" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N21" s="10">
+      <c r="O21" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="10">
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q21" s="9">
@@ -8438,7 +8438,7 @@
         <v>+III</v>
       </c>
       <c r="T21" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8454,19 +8454,19 @@
       <c r="J22" s="10"/>
       <c r="K22" s="32"/>
       <c r="M22" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N22" s="10">
+      <c r="O22" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="10">
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q22" s="9">
@@ -8482,7 +8482,7 @@
         <v>+III</v>
       </c>
       <c r="T22" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8498,19 +8498,19 @@
       <c r="J23" s="10"/>
       <c r="K23" s="32"/>
       <c r="M23" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N23" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N23" s="10">
+      <c r="O23" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="10">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q23" s="9">
@@ -8526,7 +8526,7 @@
         <v>+III</v>
       </c>
       <c r="T23" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8542,19 +8542,19 @@
       <c r="J24" s="10"/>
       <c r="K24" s="32"/>
       <c r="M24" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N24" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N24" s="10">
+      <c r="O24" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O24" s="10">
+        <v>0</v>
+      </c>
+      <c r="P24" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q24" s="9">
@@ -8570,7 +8570,7 @@
         <v>+III</v>
       </c>
       <c r="T24" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8586,19 +8586,19 @@
       <c r="J25" s="10"/>
       <c r="K25" s="32"/>
       <c r="M25" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N25" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N25" s="10">
+      <c r="O25" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O25" s="10">
+        <v>0</v>
+      </c>
+      <c r="P25" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q25" s="9">
@@ -8614,7 +8614,7 @@
         <v>+III</v>
       </c>
       <c r="T25" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8630,19 +8630,19 @@
       <c r="J26" s="10"/>
       <c r="K26" s="32"/>
       <c r="M26" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N26" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N26" s="10">
+      <c r="O26" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O26" s="10">
+        <v>0</v>
+      </c>
+      <c r="P26" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q26" s="9">
@@ -8658,7 +8658,7 @@
         <v>+III</v>
       </c>
       <c r="T26" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8674,19 +8674,19 @@
       <c r="J27" s="10"/>
       <c r="K27" s="32"/>
       <c r="M27" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N27" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N27" s="10">
+      <c r="O27" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O27" s="10">
+        <v>0</v>
+      </c>
+      <c r="P27" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q27" s="9">
@@ -8702,7 +8702,7 @@
         <v>+III</v>
       </c>
       <c r="T27" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8718,19 +8718,19 @@
       <c r="J28" s="10"/>
       <c r="K28" s="32"/>
       <c r="M28" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N28" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N28" s="10">
+      <c r="O28" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O28" s="10">
+        <v>0</v>
+      </c>
+      <c r="P28" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q28" s="9">
@@ -8746,7 +8746,7 @@
         <v>+III</v>
       </c>
       <c r="T28" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8762,19 +8762,19 @@
       <c r="J29" s="10"/>
       <c r="K29" s="32"/>
       <c r="M29" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N29" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N29" s="10">
+      <c r="O29" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O29" s="10">
+        <v>0</v>
+      </c>
+      <c r="P29" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q29" s="9">
@@ -8790,7 +8790,7 @@
         <v>+III</v>
       </c>
       <c r="T29" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8806,19 +8806,19 @@
       <c r="J30" s="10"/>
       <c r="K30" s="32"/>
       <c r="M30" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N30" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N30" s="10">
+      <c r="O30" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O30" s="10">
+        <v>0</v>
+      </c>
+      <c r="P30" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q30" s="9">
@@ -8834,7 +8834,7 @@
         <v>+III</v>
       </c>
       <c r="T30" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8850,19 +8850,19 @@
       <c r="J31" s="10"/>
       <c r="K31" s="32"/>
       <c r="M31" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N31" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N31" s="10">
+      <c r="O31" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O31" s="10">
+        <v>0</v>
+      </c>
+      <c r="P31" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q31" s="9">
@@ -8878,7 +8878,7 @@
         <v>+III</v>
       </c>
       <c r="T31" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8894,19 +8894,19 @@
       <c r="J32" s="10"/>
       <c r="K32" s="32"/>
       <c r="M32" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N32" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N32" s="10">
+      <c r="O32" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O32" s="10">
+        <v>0</v>
+      </c>
+      <c r="P32" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q32" s="9">
@@ -8922,7 +8922,7 @@
         <v>+III</v>
       </c>
       <c r="T32" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8938,19 +8938,19 @@
       <c r="J33" s="10"/>
       <c r="K33" s="32"/>
       <c r="M33" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N33" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N33" s="10">
+      <c r="O33" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O33" s="10">
+        <v>0</v>
+      </c>
+      <c r="P33" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q33" s="9">
@@ -8966,7 +8966,7 @@
         <v>+III</v>
       </c>
       <c r="T33" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8982,19 +8982,19 @@
       <c r="J34" s="10"/>
       <c r="K34" s="32"/>
       <c r="M34" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N34" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N34" s="10">
+      <c r="O34" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O34" s="10">
+        <v>0</v>
+      </c>
+      <c r="P34" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q34" s="9">
@@ -9010,7 +9010,7 @@
         <v>+III</v>
       </c>
       <c r="T34" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9026,19 +9026,19 @@
       <c r="J35" s="10"/>
       <c r="K35" s="32"/>
       <c r="M35" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N35" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N35" s="10">
+      <c r="O35" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O35" s="10">
+        <v>0</v>
+      </c>
+      <c r="P35" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q35" s="9">
@@ -9054,7 +9054,7 @@
         <v>+III</v>
       </c>
       <c r="T35" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9070,19 +9070,19 @@
       <c r="J36" s="10"/>
       <c r="K36" s="32"/>
       <c r="M36" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N36" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N36" s="10">
+      <c r="O36" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O36" s="10">
+        <v>0</v>
+      </c>
+      <c r="P36" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q36" s="9">
@@ -9098,7 +9098,7 @@
         <v>+III</v>
       </c>
       <c r="T36" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9114,19 +9114,19 @@
       <c r="J37" s="10"/>
       <c r="K37" s="32"/>
       <c r="M37" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N37" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N37" s="10">
+      <c r="O37" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O37" s="10">
+        <v>0</v>
+      </c>
+      <c r="P37" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q37" s="9">
@@ -9142,7 +9142,7 @@
         <v>+III</v>
       </c>
       <c r="T37" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9158,19 +9158,19 @@
       <c r="J38" s="10"/>
       <c r="K38" s="32"/>
       <c r="M38" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N38" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N38" s="10">
+      <c r="O38" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O38" s="10">
+        <v>0</v>
+      </c>
+      <c r="P38" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q38" s="9">
@@ -9186,7 +9186,7 @@
         <v>+III</v>
       </c>
       <c r="T38" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9202,19 +9202,19 @@
       <c r="J39" s="10"/>
       <c r="K39" s="32"/>
       <c r="M39" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N39" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N39" s="10">
+      <c r="O39" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O39" s="10">
+        <v>0</v>
+      </c>
+      <c r="P39" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q39" s="9">
@@ -9230,7 +9230,7 @@
         <v>+III</v>
       </c>
       <c r="T39" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9246,19 +9246,19 @@
       <c r="J40" s="10"/>
       <c r="K40" s="32"/>
       <c r="M40" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N40" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N40" s="10">
+      <c r="O40" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O40" s="10">
+        <v>0</v>
+      </c>
+      <c r="P40" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q40" s="9">
@@ -9274,7 +9274,7 @@
         <v>+III</v>
       </c>
       <c r="T40" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9290,19 +9290,19 @@
       <c r="J41" s="10"/>
       <c r="K41" s="32"/>
       <c r="M41" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N41" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N41" s="10">
+      <c r="O41" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O41" s="10">
+        <v>0</v>
+      </c>
+      <c r="P41" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q41" s="9">
@@ -9318,7 +9318,7 @@
         <v>+III</v>
       </c>
       <c r="T41" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9334,19 +9334,19 @@
       <c r="J42" s="10"/>
       <c r="K42" s="32"/>
       <c r="M42" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N42" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N42" s="10">
+      <c r="O42" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O42" s="10">
+        <v>0</v>
+      </c>
+      <c r="P42" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q42" s="9">
@@ -9362,7 +9362,7 @@
         <v>+III</v>
       </c>
       <c r="T42" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9378,19 +9378,19 @@
       <c r="J43" s="10"/>
       <c r="K43" s="32"/>
       <c r="M43" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N43" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N43" s="10">
+      <c r="O43" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O43" s="10">
+        <v>0</v>
+      </c>
+      <c r="P43" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q43" s="9">
@@ -9406,7 +9406,7 @@
         <v>+III</v>
       </c>
       <c r="T43" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9422,19 +9422,19 @@
       <c r="J44" s="10"/>
       <c r="K44" s="32"/>
       <c r="M44" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N44" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N44" s="10">
+      <c r="O44" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O44" s="10">
+        <v>0</v>
+      </c>
+      <c r="P44" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q44" s="9">
@@ -9450,7 +9450,7 @@
         <v>+III</v>
       </c>
       <c r="T44" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9466,19 +9466,19 @@
       <c r="J45" s="10"/>
       <c r="K45" s="32"/>
       <c r="M45" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N45" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N45" s="10">
+      <c r="O45" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O45" s="10">
+        <v>0</v>
+      </c>
+      <c r="P45" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q45" s="9">
@@ -9494,7 +9494,7 @@
         <v>+III</v>
       </c>
       <c r="T45" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9510,19 +9510,19 @@
       <c r="J46" s="10"/>
       <c r="K46" s="32"/>
       <c r="M46" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N46" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N46" s="10">
+      <c r="O46" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O46" s="10">
+        <v>0</v>
+      </c>
+      <c r="P46" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q46" s="9">
@@ -9538,7 +9538,7 @@
         <v>+III</v>
       </c>
       <c r="T46" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9554,19 +9554,19 @@
       <c r="J47" s="10"/>
       <c r="K47" s="32"/>
       <c r="M47" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N47" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N47" s="10">
+      <c r="O47" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O47" s="10">
+        <v>0</v>
+      </c>
+      <c r="P47" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q47" s="9">
@@ -9582,7 +9582,7 @@
         <v>+III</v>
       </c>
       <c r="T47" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9598,19 +9598,19 @@
       <c r="J48" s="10"/>
       <c r="K48" s="32"/>
       <c r="M48" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N48" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N48" s="10">
+      <c r="O48" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O48" s="10">
+        <v>0</v>
+      </c>
+      <c r="P48" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q48" s="9">
@@ -9626,7 +9626,7 @@
         <v>+III</v>
       </c>
       <c r="T48" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9642,19 +9642,19 @@
       <c r="J49" s="10"/>
       <c r="K49" s="32"/>
       <c r="M49" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N49" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N49" s="10">
+      <c r="O49" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O49" s="10">
+        <v>0</v>
+      </c>
+      <c r="P49" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q49" s="9">
@@ -9670,7 +9670,7 @@
         <v>+III</v>
       </c>
       <c r="T49" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9686,19 +9686,19 @@
       <c r="J50" s="10"/>
       <c r="K50" s="32"/>
       <c r="M50" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N50" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N50" s="10">
+      <c r="O50" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O50" s="10">
+        <v>0</v>
+      </c>
+      <c r="P50" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q50" s="9">
@@ -9714,7 +9714,7 @@
         <v>+III</v>
       </c>
       <c r="T50" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9730,19 +9730,19 @@
       <c r="J51" s="10"/>
       <c r="K51" s="32"/>
       <c r="M51" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N51" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N51" s="10">
+      <c r="O51" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O51" s="10">
+        <v>0</v>
+      </c>
+      <c r="P51" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q51" s="9">
@@ -9758,7 +9758,7 @@
         <v>+III</v>
       </c>
       <c r="T51" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9774,19 +9774,19 @@
       <c r="J52" s="10"/>
       <c r="K52" s="32"/>
       <c r="M52" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N52" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N52" s="10">
+      <c r="O52" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O52" s="10">
+        <v>0</v>
+      </c>
+      <c r="P52" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q52" s="9">
@@ -9802,7 +9802,7 @@
         <v>+III</v>
       </c>
       <c r="T52" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9818,19 +9818,19 @@
       <c r="J53" s="10"/>
       <c r="K53" s="32"/>
       <c r="M53" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N53" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N53" s="10">
+      <c r="O53" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O53" s="10">
+        <v>0</v>
+      </c>
+      <c r="P53" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q53" s="9">
@@ -9846,7 +9846,7 @@
         <v>+III</v>
       </c>
       <c r="T53" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9862,19 +9862,19 @@
       <c r="J54" s="10"/>
       <c r="K54" s="32"/>
       <c r="M54" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N54" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N54" s="10">
+      <c r="O54" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O54" s="10">
+        <v>0</v>
+      </c>
+      <c r="P54" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P54" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q54" s="9">
@@ -9890,7 +9890,7 @@
         <v>+III</v>
       </c>
       <c r="T54" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9906,19 +9906,19 @@
       <c r="J55" s="10"/>
       <c r="K55" s="32"/>
       <c r="M55" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N55" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N55" s="10">
+      <c r="O55" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O55" s="10">
+        <v>0</v>
+      </c>
+      <c r="P55" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P55" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q55" s="9">
@@ -9934,7 +9934,7 @@
         <v>+III</v>
       </c>
       <c r="T55" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9950,19 +9950,19 @@
       <c r="J56" s="10"/>
       <c r="K56" s="32"/>
       <c r="M56" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N56" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N56" s="10">
+      <c r="O56" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O56" s="10">
+        <v>0</v>
+      </c>
+      <c r="P56" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q56" s="9">
@@ -9978,7 +9978,7 @@
         <v>+III</v>
       </c>
       <c r="T56" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9994,19 +9994,19 @@
       <c r="J57" s="10"/>
       <c r="K57" s="32"/>
       <c r="M57" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N57" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N57" s="10">
+      <c r="O57" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O57" s="10">
+        <v>0</v>
+      </c>
+      <c r="P57" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q57" s="9">
@@ -10022,7 +10022,7 @@
         <v>+III</v>
       </c>
       <c r="T57" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10038,19 +10038,19 @@
       <c r="J58" s="10"/>
       <c r="K58" s="32"/>
       <c r="M58" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N58" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N58" s="10">
+      <c r="O58" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O58" s="10">
+        <v>0</v>
+      </c>
+      <c r="P58" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P58" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q58" s="9">
@@ -10066,7 +10066,7 @@
         <v>+III</v>
       </c>
       <c r="T58" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10082,19 +10082,19 @@
       <c r="J59" s="10"/>
       <c r="K59" s="32"/>
       <c r="M59" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N59" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N59" s="10">
+      <c r="O59" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O59" s="10">
+        <v>0</v>
+      </c>
+      <c r="P59" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P59" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q59" s="9">
@@ -10110,7 +10110,7 @@
         <v>+III</v>
       </c>
       <c r="T59" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10126,19 +10126,19 @@
       <c r="J60" s="10"/>
       <c r="K60" s="32"/>
       <c r="M60" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N60" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N60" s="10">
+      <c r="O60" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O60" s="10">
+        <v>0</v>
+      </c>
+      <c r="P60" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P60" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q60" s="9">
@@ -10154,7 +10154,7 @@
         <v>+III</v>
       </c>
       <c r="T60" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10170,19 +10170,19 @@
       <c r="J61" s="10"/>
       <c r="K61" s="32"/>
       <c r="M61" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N61" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N61" s="10">
+      <c r="O61" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O61" s="10">
+        <v>0</v>
+      </c>
+      <c r="P61" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P61" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q61" s="9">
@@ -10198,7 +10198,7 @@
         <v>+III</v>
       </c>
       <c r="T61" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10214,19 +10214,19 @@
       <c r="J62" s="10"/>
       <c r="K62" s="32"/>
       <c r="M62" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N62" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N62" s="10">
+      <c r="O62" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O62" s="10">
+        <v>0</v>
+      </c>
+      <c r="P62" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P62" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q62" s="9">
@@ -10242,7 +10242,7 @@
         <v>+III</v>
       </c>
       <c r="T62" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10258,19 +10258,19 @@
       <c r="J63" s="10"/>
       <c r="K63" s="32"/>
       <c r="M63" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N63" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N63" s="10">
+      <c r="O63" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O63" s="10">
+        <v>0</v>
+      </c>
+      <c r="P63" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P63" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q63" s="9">
@@ -10286,7 +10286,7 @@
         <v>+III</v>
       </c>
       <c r="T63" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10302,19 +10302,19 @@
       <c r="J64" s="10"/>
       <c r="K64" s="32"/>
       <c r="M64" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N64" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N64" s="10">
+      <c r="O64" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O64" s="10">
+        <v>0</v>
+      </c>
+      <c r="P64" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P64" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q64" s="9">
@@ -10330,7 +10330,7 @@
         <v>+III</v>
       </c>
       <c r="T64" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10346,19 +10346,19 @@
       <c r="J65" s="10"/>
       <c r="K65" s="32"/>
       <c r="M65" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N65" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N65" s="10">
+      <c r="O65" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O65" s="10">
+        <v>0</v>
+      </c>
+      <c r="P65" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P65" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q65" s="9">
@@ -10374,7 +10374,7 @@
         <v>+III</v>
       </c>
       <c r="T65" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10390,19 +10390,19 @@
       <c r="J66" s="10"/>
       <c r="K66" s="32"/>
       <c r="M66" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N66" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N66" s="10">
+      <c r="O66" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O66" s="10">
+        <v>0</v>
+      </c>
+      <c r="P66" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P66" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q66" s="9">
@@ -10418,7 +10418,7 @@
         <v>+III</v>
       </c>
       <c r="T66" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10434,19 +10434,19 @@
       <c r="J67" s="10"/>
       <c r="K67" s="32"/>
       <c r="M67" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N67" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N67" s="10">
+      <c r="O67" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O67" s="10">
+        <v>0</v>
+      </c>
+      <c r="P67" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P67" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q67" s="9">
@@ -10462,7 +10462,7 @@
         <v>+III</v>
       </c>
       <c r="T67" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10478,19 +10478,19 @@
       <c r="J68" s="10"/>
       <c r="K68" s="32"/>
       <c r="M68" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N68" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N68" s="10">
+      <c r="O68" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O68" s="10">
+        <v>0</v>
+      </c>
+      <c r="P68" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P68" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q68" s="9">
@@ -10506,7 +10506,7 @@
         <v>+III</v>
       </c>
       <c r="T68" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10522,19 +10522,19 @@
       <c r="J69" s="10"/>
       <c r="K69" s="32"/>
       <c r="M69" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N69" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N69" s="10">
+      <c r="O69" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O69" s="10">
+        <v>0</v>
+      </c>
+      <c r="P69" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P69" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q69" s="9">
@@ -10550,7 +10550,7 @@
         <v>+III</v>
       </c>
       <c r="T69" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10717,7 +10717,7 @@
   <dimension ref="B2:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K11" sqref="K11:K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10877,7 +10877,7 @@
         <v>2.3400000000000001E-8</v>
       </c>
       <c r="K11" s="78" t="str">
-        <f t="shared" ref="K11:K48" si="0">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
+        <f t="shared" ref="K11:K48" si="0">IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
         <v>+III</v>
       </c>
       <c r="L11" s="2"/>
@@ -13594,7 +13594,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13751,19 +13751,19 @@
         <v>0</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11" si="0">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>+III</v>
+        <f>IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <v>NR</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11:M12" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11:M12" si="0">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N12" si="2">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11:N12" si="1">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11:O12" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11:O12" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
@@ -13799,19 +13799,19 @@
       <c r="J12" s="10"/>
       <c r="K12" s="32"/>
       <c r="M12" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N12" s="10">
+      <c r="O12" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="10">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P13" si="4">IF(J12="-",0,O12)</f>
+        <f t="shared" ref="P12:P13" si="3">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
@@ -13827,7 +13827,7 @@
         <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T28" si="5">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <f t="shared" ref="T12:T28" si="4">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -13843,19 +13843,19 @@
       <c r="J13" s="10"/>
       <c r="K13" s="32"/>
       <c r="M13" s="31">
-        <f t="shared" ref="M13:M28" si="6">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
+        <f t="shared" ref="M13:M28" si="5">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
         <v>1</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" ref="N13:N28" si="7">IF(J13="-",1,M13)</f>
+        <f t="shared" ref="N13:N28" si="6">IF(J13="-",1,M13)</f>
         <v>1</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" ref="O13:O28" si="8">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
+        <f t="shared" ref="O13:O28" si="7">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q13" s="9">
@@ -13871,7 +13871,7 @@
         <v>+III</v>
       </c>
       <c r="T13" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -13887,19 +13887,19 @@
       <c r="J14" s="10"/>
       <c r="K14" s="32"/>
       <c r="M14" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N14" s="10">
+      <c r="O14" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="10">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" ref="P14:P28" si="9">IF(J14="-",0,O14)</f>
+        <f t="shared" ref="P14:P28" si="8">IF(J14="-",0,O14)</f>
         <v>0</v>
       </c>
       <c r="Q14" s="9">
@@ -13915,7 +13915,7 @@
         <v>+III</v>
       </c>
       <c r="T14" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -13931,19 +13931,19 @@
       <c r="J15" s="10"/>
       <c r="K15" s="32"/>
       <c r="M15" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N15" s="10">
+      <c r="O15" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q15" s="9">
@@ -13959,7 +13959,7 @@
         <v>+III</v>
       </c>
       <c r="T15" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -13975,19 +13975,19 @@
       <c r="J16" s="10"/>
       <c r="K16" s="32"/>
       <c r="M16" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N16" s="10">
+      <c r="O16" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="10">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q16" s="9">
@@ -14003,7 +14003,7 @@
         <v>+III</v>
       </c>
       <c r="T16" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14019,19 +14019,19 @@
       <c r="J17" s="10"/>
       <c r="K17" s="32"/>
       <c r="M17" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N17" s="10">
+      <c r="O17" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q17" s="9">
@@ -14047,7 +14047,7 @@
         <v>+III</v>
       </c>
       <c r="T17" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14063,19 +14063,19 @@
       <c r="J18" s="10"/>
       <c r="K18" s="32"/>
       <c r="M18" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N18" s="10">
+      <c r="O18" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q18" s="9">
@@ -14091,7 +14091,7 @@
         <v>+III</v>
       </c>
       <c r="T18" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14107,19 +14107,19 @@
       <c r="J19" s="10"/>
       <c r="K19" s="32"/>
       <c r="M19" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N19" s="10">
+      <c r="O19" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="10">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q19" s="9">
@@ -14135,7 +14135,7 @@
         <v>+III</v>
       </c>
       <c r="T19" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14151,19 +14151,19 @@
       <c r="J20" s="10"/>
       <c r="K20" s="32"/>
       <c r="M20" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N20" s="10">
+      <c r="O20" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="10">
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q20" s="9">
@@ -14179,7 +14179,7 @@
         <v>+III</v>
       </c>
       <c r="T20" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14195,19 +14195,19 @@
       <c r="J21" s="10"/>
       <c r="K21" s="32"/>
       <c r="M21" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N21" s="10">
+      <c r="O21" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="10">
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q21" s="9">
@@ -14223,7 +14223,7 @@
         <v>+III</v>
       </c>
       <c r="T21" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14239,19 +14239,19 @@
       <c r="J22" s="10"/>
       <c r="K22" s="32"/>
       <c r="M22" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N22" s="10">
+      <c r="O22" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="10">
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q22" s="9">
@@ -14267,7 +14267,7 @@
         <v>+III</v>
       </c>
       <c r="T22" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14283,19 +14283,19 @@
       <c r="J23" s="10"/>
       <c r="K23" s="32"/>
       <c r="M23" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N23" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N23" s="10">
+      <c r="O23" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="10">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q23" s="9">
@@ -14311,7 +14311,7 @@
         <v>+III</v>
       </c>
       <c r="T23" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14327,19 +14327,19 @@
       <c r="J24" s="10"/>
       <c r="K24" s="32"/>
       <c r="M24" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N24" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N24" s="10">
+      <c r="O24" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O24" s="10">
+        <v>0</v>
+      </c>
+      <c r="P24" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q24" s="9">
@@ -14355,7 +14355,7 @@
         <v>+III</v>
       </c>
       <c r="T24" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14371,19 +14371,19 @@
       <c r="J25" s="10"/>
       <c r="K25" s="32"/>
       <c r="M25" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N25" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N25" s="10">
+      <c r="O25" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O25" s="10">
+        <v>0</v>
+      </c>
+      <c r="P25" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q25" s="9">
@@ -14399,7 +14399,7 @@
         <v>+III</v>
       </c>
       <c r="T25" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14415,19 +14415,19 @@
       <c r="J26" s="10"/>
       <c r="K26" s="32"/>
       <c r="M26" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N26" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N26" s="10">
+      <c r="O26" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O26" s="10">
+        <v>0</v>
+      </c>
+      <c r="P26" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q26" s="9">
@@ -14443,7 +14443,7 @@
         <v>+III</v>
       </c>
       <c r="T26" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14459,19 +14459,19 @@
       <c r="J27" s="10"/>
       <c r="K27" s="32"/>
       <c r="M27" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N27" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N27" s="10">
+      <c r="O27" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O27" s="10">
+        <v>0</v>
+      </c>
+      <c r="P27" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q27" s="9">
@@ -14487,7 +14487,7 @@
         <v>+III</v>
       </c>
       <c r="T27" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14503,19 +14503,19 @@
       <c r="J28" s="15"/>
       <c r="K28" s="34"/>
       <c r="M28" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N28" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N28" s="10">
+      <c r="O28" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O28" s="10">
+        <v>0</v>
+      </c>
+      <c r="P28" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q28" s="9">
@@ -14531,7 +14531,7 @@
         <v>+III</v>
       </c>
       <c r="T28" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14658,7 +14658,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14815,19 +14815,19 @@
         <v>0</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11" si="0">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>+III</v>
+        <f>IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <v>NR</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11:M28" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11:M28" si="0">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N28" si="2">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11:N28" si="1">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11:O28" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11:O28" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
@@ -14863,19 +14863,19 @@
       <c r="J12" s="10"/>
       <c r="K12" s="32"/>
       <c r="M12" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N12" s="10">
+      <c r="O12" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="10">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P28" si="4">IF(J12="-",0,O12)</f>
+        <f t="shared" ref="P12:P28" si="3">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
@@ -14891,7 +14891,7 @@
         <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T28" si="5">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <f t="shared" ref="T12:T28" si="4">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -14907,19 +14907,19 @@
       <c r="J13" s="10"/>
       <c r="K13" s="32"/>
       <c r="M13" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N13" s="10">
+      <c r="O13" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O13" s="10">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q13" s="9">
@@ -14935,7 +14935,7 @@
         <v>+III</v>
       </c>
       <c r="T13" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14951,19 +14951,19 @@
       <c r="J14" s="10"/>
       <c r="K14" s="32"/>
       <c r="M14" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N14" s="10">
+      <c r="O14" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q14" s="9">
@@ -14979,7 +14979,7 @@
         <v>+III</v>
       </c>
       <c r="T14" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14995,19 +14995,19 @@
       <c r="J15" s="10"/>
       <c r="K15" s="32"/>
       <c r="M15" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N15" s="10">
+      <c r="O15" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q15" s="9">
@@ -15023,7 +15023,7 @@
         <v>+III</v>
       </c>
       <c r="T15" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15039,19 +15039,19 @@
       <c r="J16" s="10"/>
       <c r="K16" s="32"/>
       <c r="M16" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N16" s="10">
+      <c r="O16" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="10">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q16" s="9">
@@ -15067,7 +15067,7 @@
         <v>+III</v>
       </c>
       <c r="T16" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15083,19 +15083,19 @@
       <c r="J17" s="10"/>
       <c r="K17" s="32"/>
       <c r="M17" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N17" s="10">
+      <c r="O17" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q17" s="9">
@@ -15111,7 +15111,7 @@
         <v>+III</v>
       </c>
       <c r="T17" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15127,19 +15127,19 @@
       <c r="J18" s="10"/>
       <c r="K18" s="32"/>
       <c r="M18" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N18" s="10">
+      <c r="O18" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q18" s="9">
@@ -15155,7 +15155,7 @@
         <v>+III</v>
       </c>
       <c r="T18" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15171,19 +15171,19 @@
       <c r="J19" s="10"/>
       <c r="K19" s="32"/>
       <c r="M19" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N19" s="10">
+      <c r="O19" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="10">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q19" s="9">
@@ -15199,7 +15199,7 @@
         <v>+III</v>
       </c>
       <c r="T19" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15215,19 +15215,19 @@
       <c r="J20" s="10"/>
       <c r="K20" s="32"/>
       <c r="M20" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N20" s="10">
+      <c r="O20" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="10">
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q20" s="9">
@@ -15243,7 +15243,7 @@
         <v>+III</v>
       </c>
       <c r="T20" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15259,19 +15259,19 @@
       <c r="J21" s="10"/>
       <c r="K21" s="32"/>
       <c r="M21" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N21" s="10">
+      <c r="O21" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="10">
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q21" s="9">
@@ -15287,7 +15287,7 @@
         <v>+III</v>
       </c>
       <c r="T21" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15303,19 +15303,19 @@
       <c r="J22" s="10"/>
       <c r="K22" s="32"/>
       <c r="M22" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N22" s="10">
+      <c r="O22" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="10">
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q22" s="9">
@@ -15331,7 +15331,7 @@
         <v>+III</v>
       </c>
       <c r="T22" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15347,19 +15347,19 @@
       <c r="J23" s="10"/>
       <c r="K23" s="32"/>
       <c r="M23" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N23" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N23" s="10">
+      <c r="O23" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="10">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q23" s="9">
@@ -15375,7 +15375,7 @@
         <v>+III</v>
       </c>
       <c r="T23" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15391,19 +15391,19 @@
       <c r="J24" s="10"/>
       <c r="K24" s="32"/>
       <c r="M24" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N24" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N24" s="10">
+      <c r="O24" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O24" s="10">
+        <v>0</v>
+      </c>
+      <c r="P24" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q24" s="9">
@@ -15419,7 +15419,7 @@
         <v>+III</v>
       </c>
       <c r="T24" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15435,19 +15435,19 @@
       <c r="J25" s="10"/>
       <c r="K25" s="32"/>
       <c r="M25" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N25" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N25" s="10">
+      <c r="O25" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O25" s="10">
+        <v>0</v>
+      </c>
+      <c r="P25" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q25" s="9">
@@ -15463,7 +15463,7 @@
         <v>+III</v>
       </c>
       <c r="T25" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15479,19 +15479,19 @@
       <c r="J26" s="10"/>
       <c r="K26" s="32"/>
       <c r="M26" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N26" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N26" s="10">
+      <c r="O26" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O26" s="10">
+        <v>0</v>
+      </c>
+      <c r="P26" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q26" s="9">
@@ -15507,7 +15507,7 @@
         <v>+III</v>
       </c>
       <c r="T26" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15523,19 +15523,19 @@
       <c r="J27" s="10"/>
       <c r="K27" s="32"/>
       <c r="M27" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N27" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N27" s="10">
+      <c r="O27" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O27" s="10">
+        <v>0</v>
+      </c>
+      <c r="P27" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q27" s="9">
@@ -15551,7 +15551,7 @@
         <v>+III</v>
       </c>
       <c r="T27" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15567,19 +15567,19 @@
       <c r="J28" s="15"/>
       <c r="K28" s="34"/>
       <c r="M28" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N28" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N28" s="10">
+      <c r="O28" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O28" s="10">
+        <v>0</v>
+      </c>
+      <c r="P28" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q28" s="9">
@@ -15595,7 +15595,7 @@
         <v>+III</v>
       </c>
       <c r="T28" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15812,7 +15812,7 @@
   <dimension ref="B2:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15969,15 +15969,15 @@
         <v>0</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11" si="0">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>+III</v>
+        <f>IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <v>NR</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11:M12" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11:M12" si="0">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N12" si="2">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11:N12" si="1">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
@@ -16017,19 +16017,19 @@
       <c r="J12" s="10"/>
       <c r="K12" s="32"/>
       <c r="M12" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N12" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="O12" s="10">
-        <f t="shared" ref="O12:O13" si="3">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
+        <f t="shared" ref="O12:O13" si="2">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P13" si="4">IF(J12="-",0,O12)</f>
+        <f t="shared" ref="P12:P13" si="3">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
@@ -16045,7 +16045,7 @@
         <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T23" si="5">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <f t="shared" ref="T12:T23" si="4">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -16061,19 +16061,19 @@
       <c r="J13" s="10"/>
       <c r="K13" s="32"/>
       <c r="M13" s="31">
-        <f t="shared" ref="M13:M23" si="6">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
+        <f t="shared" ref="M13:M23" si="5">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
         <v>1</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" ref="N13:N23" si="7">IF(J13="-",1,M13)</f>
+        <f t="shared" ref="N13:N23" si="6">IF(J13="-",1,M13)</f>
         <v>1</v>
       </c>
       <c r="O13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q13" s="9">
@@ -16089,7 +16089,7 @@
         <v>+III</v>
       </c>
       <c r="T13" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16105,19 +16105,19 @@
       <c r="J14" s="10"/>
       <c r="K14" s="32"/>
       <c r="M14" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N14" s="10">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
       <c r="O14" s="10">
-        <f t="shared" ref="O14:O23" si="8">IF(AND(F14="Geen faalkans",H14="Nee"),0,J14*$C$3)</f>
+        <f t="shared" ref="O14:O23" si="7">IF(AND(F14="Geen faalkans",H14="Nee"),0,J14*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" ref="P14:P23" si="9">IF(J14="-",0,O14)</f>
+        <f t="shared" ref="P14:P23" si="8">IF(J14="-",0,O14)</f>
         <v>0</v>
       </c>
       <c r="Q14" s="9">
@@ -16133,7 +16133,7 @@
         <v>+III</v>
       </c>
       <c r="T14" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16149,19 +16149,19 @@
       <c r="J15" s="10"/>
       <c r="K15" s="32"/>
       <c r="M15" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N15" s="10">
+      <c r="O15" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q15" s="9">
@@ -16177,7 +16177,7 @@
         <v>+III</v>
       </c>
       <c r="T15" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16193,19 +16193,19 @@
       <c r="J16" s="10"/>
       <c r="K16" s="32"/>
       <c r="M16" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N16" s="10">
+      <c r="O16" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="10">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q16" s="9">
@@ -16221,7 +16221,7 @@
         <v>+III</v>
       </c>
       <c r="T16" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16237,19 +16237,19 @@
       <c r="J17" s="10"/>
       <c r="K17" s="32"/>
       <c r="M17" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N17" s="10">
+      <c r="O17" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q17" s="9">
@@ -16265,7 +16265,7 @@
         <v>+III</v>
       </c>
       <c r="T17" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16281,19 +16281,19 @@
       <c r="J18" s="10"/>
       <c r="K18" s="32"/>
       <c r="M18" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N18" s="10">
+      <c r="O18" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q18" s="9">
@@ -16309,7 +16309,7 @@
         <v>+III</v>
       </c>
       <c r="T18" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16325,19 +16325,19 @@
       <c r="J19" s="10"/>
       <c r="K19" s="32"/>
       <c r="M19" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N19" s="10">
+      <c r="O19" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="10">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q19" s="9">
@@ -16353,7 +16353,7 @@
         <v>+III</v>
       </c>
       <c r="T19" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16369,19 +16369,19 @@
       <c r="J20" s="10"/>
       <c r="K20" s="32"/>
       <c r="M20" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N20" s="10">
+      <c r="O20" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="10">
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q20" s="9">
@@ -16397,7 +16397,7 @@
         <v>+III</v>
       </c>
       <c r="T20" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16413,19 +16413,19 @@
       <c r="J21" s="10"/>
       <c r="K21" s="32"/>
       <c r="M21" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N21" s="10">
+      <c r="O21" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="10">
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q21" s="9">
@@ -16441,7 +16441,7 @@
         <v>+III</v>
       </c>
       <c r="T21" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16457,19 +16457,19 @@
       <c r="J22" s="10"/>
       <c r="K22" s="32"/>
       <c r="M22" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N22" s="10">
+      <c r="O22" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="10">
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q22" s="9">
@@ -16485,7 +16485,7 @@
         <v>+III</v>
       </c>
       <c r="T22" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16501,19 +16501,19 @@
       <c r="J23" s="10"/>
       <c r="K23" s="32"/>
       <c r="M23" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N23" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N23" s="10">
+      <c r="O23" s="10">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="10">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="10">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q23" s="9">
@@ -16529,7 +16529,7 @@
         <v>+III</v>
       </c>
       <c r="T23" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
